--- a/Tee System/TeeConfig.xlsx
+++ b/Tee System/TeeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tee System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB25C63-2D76-484B-8E7A-E671C462CEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50634379-CFC6-FB45-9537-73336D83F4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2500" yWindow="-21600" windowWidth="19060" windowHeight="21600" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>Notes</t>
   </si>
@@ -58,9 +58,6 @@
     <t>buff_list</t>
   </si>
   <si>
-    <t>condition</t>
-  </si>
-  <si>
     <t>extra_trophy</t>
   </si>
   <si>
@@ -161,13 +158,28 @@
   </si>
   <si>
     <t>Skill6_note</t>
+  </si>
+  <si>
+    <t>condition1</t>
+  </si>
+  <si>
+    <t>condition2</t>
+  </si>
+  <si>
+    <t>condition3</t>
+  </si>
+  <si>
+    <t>condition4</t>
+  </si>
+  <si>
+    <t>condition5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,6 +189,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="苹方-简"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="苹方-简"/>
       <family val="2"/>
     </font>
@@ -321,12 +338,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -667,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB9F4E4-17F2-2041-B9BC-81AB44595C68}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -677,12 +691,12 @@
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
     <col min="8" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" style="16"/>
-    <col min="13" max="14" width="10.7109375" style="17"/>
-    <col min="15" max="16" width="10.7109375" style="18"/>
-    <col min="17" max="18" width="10.7109375" style="19"/>
-    <col min="19" max="20" width="10.7109375" style="20"/>
-    <col min="21" max="22" width="10.7109375" style="22"/>
+    <col min="11" max="12" width="10.7109375" style="15"/>
+    <col min="13" max="14" width="10.7109375" style="16"/>
+    <col min="15" max="16" width="10.7109375" style="17"/>
+    <col min="17" max="18" width="10.7109375" style="18"/>
+    <col min="19" max="20" width="10.7109375" style="19"/>
+    <col min="21" max="22" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -716,40 +730,40 @@
       <c r="J1">
         <v>10</v>
       </c>
-      <c r="K1" s="15">
+      <c r="K1" s="14">
         <v>11</v>
       </c>
-      <c r="L1" s="15">
+      <c r="L1" s="14">
         <v>12</v>
       </c>
-      <c r="M1" s="15">
+      <c r="M1" s="14">
         <v>13</v>
       </c>
-      <c r="N1" s="15">
+      <c r="N1" s="14">
         <v>14</v>
       </c>
-      <c r="O1" s="15">
+      <c r="O1" s="14">
         <v>15</v>
       </c>
-      <c r="P1" s="15">
+      <c r="P1" s="14">
         <v>16</v>
       </c>
-      <c r="Q1" s="15">
+      <c r="Q1" s="14">
         <v>17</v>
       </c>
-      <c r="R1" s="15">
+      <c r="R1" s="14">
         <v>18</v>
       </c>
-      <c r="S1" s="15">
+      <c r="S1" s="14">
         <v>19</v>
       </c>
-      <c r="T1" s="15">
+      <c r="T1" s="14">
         <v>20</v>
       </c>
-      <c r="U1" s="15">
+      <c r="U1" s="14">
         <v>21</v>
       </c>
-      <c r="V1" s="15">
+      <c r="V1" s="14">
         <v>22</v>
       </c>
     </row>
@@ -758,67 +772,67 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="N2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="R2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="S2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="T2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="U2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="V2" s="20" t="s">
         <v>40</v>
-      </c>
-      <c r="V2" s="21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -1026,8 +1040,8 @@
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="M6" s="17" t="s">
-        <v>28</v>
+      <c r="M6" s="16" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1037,289 +1051,838 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F412759-F70B-1343-9C94-8D49C9A91198}">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:AV8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="AV16" sqref="AV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:48">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>2</v>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
       </c>
       <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
         <v>4</v>
       </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
       <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+      <c r="Z1">
+        <v>26</v>
+      </c>
+      <c r="AA1">
+        <v>27</v>
+      </c>
+      <c r="AB1">
+        <v>28</v>
+      </c>
+      <c r="AC1">
+        <v>29</v>
+      </c>
+      <c r="AD1">
+        <v>30</v>
+      </c>
+      <c r="AE1">
+        <v>31</v>
+      </c>
+      <c r="AF1">
+        <v>32</v>
+      </c>
+      <c r="AG1">
+        <v>33</v>
+      </c>
+      <c r="AH1">
+        <v>34</v>
+      </c>
+      <c r="AI1">
+        <v>35</v>
+      </c>
+      <c r="AJ1">
+        <v>36</v>
+      </c>
+      <c r="AK1">
+        <v>37</v>
+      </c>
+      <c r="AL1">
+        <v>38</v>
+      </c>
+      <c r="AM1">
+        <v>39</v>
+      </c>
+      <c r="AN1">
+        <v>40</v>
+      </c>
+      <c r="AO1">
+        <v>41</v>
+      </c>
+      <c r="AP1">
+        <v>42</v>
+      </c>
+      <c r="AQ1">
+        <v>43</v>
+      </c>
+      <c r="AR1">
+        <v>44</v>
+      </c>
+      <c r="AS1">
+        <v>45</v>
+      </c>
+      <c r="AT1">
+        <v>46</v>
+      </c>
+      <c r="AU1">
+        <v>47</v>
+      </c>
+      <c r="AV1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48">
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+    </row>
+    <row r="3" spans="1:48">
+      <c r="D3" s="1"/>
+      <c r="E3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+    </row>
+    <row r="4" spans="1:48">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1">
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="P4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1">
+      <c r="Q4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="R4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="S4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="T4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1">
+      <c r="U4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="V4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="W4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1">
-        <v>22</v>
-      </c>
-      <c r="X1">
-        <v>23</v>
+      <c r="X4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV4" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
+    <row r="5" spans="1:48">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:24">
-      <c r="C3" s="1"/>
-      <c r="D3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
+    <row r="6" spans="1:48">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>2</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>2</v>
+      </c>
+      <c r="AJ6">
+        <v>2</v>
+      </c>
+      <c r="AK6">
+        <v>2</v>
+      </c>
+      <c r="AL6">
+        <v>2</v>
+      </c>
+      <c r="AM6">
+        <v>2</v>
+      </c>
+      <c r="AN6">
+        <v>2</v>
+      </c>
+      <c r="AO6">
+        <v>2</v>
+      </c>
+      <c r="AP6">
+        <v>2</v>
+      </c>
+      <c r="AQ6">
+        <v>2</v>
+      </c>
+      <c r="AR6">
+        <v>2</v>
+      </c>
+      <c r="AS6">
+        <v>2</v>
+      </c>
+      <c r="AT6">
+        <v>2</v>
+      </c>
+      <c r="AU6">
+        <v>2</v>
+      </c>
+      <c r="AV6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>17</v>
+    <row r="7" spans="1:48">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AC7">
+        <v>3</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
+      </c>
+      <c r="AE7">
+        <v>3</v>
+      </c>
+      <c r="AF7">
+        <v>3</v>
+      </c>
+      <c r="AG7">
+        <v>3</v>
+      </c>
+      <c r="AH7">
+        <v>3</v>
+      </c>
+      <c r="AI7">
+        <v>3</v>
+      </c>
+      <c r="AJ7">
+        <v>3</v>
+      </c>
+      <c r="AK7">
+        <v>3</v>
+      </c>
+      <c r="AL7">
+        <v>3</v>
+      </c>
+      <c r="AM7">
+        <v>3</v>
+      </c>
+      <c r="AN7">
+        <v>3</v>
+      </c>
+      <c r="AO7">
+        <v>3</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>3</v>
+      </c>
+      <c r="AR7">
+        <v>3</v>
+      </c>
+      <c r="AS7">
+        <v>3</v>
+      </c>
+      <c r="AT7">
+        <v>3</v>
+      </c>
+      <c r="AU7">
+        <v>3</v>
+      </c>
+      <c r="AV7">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="C8" s="1"/>
+    <row r="8" spans="1:48">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1331,24 +1894,51 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C2:X2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:X3"/>
+  <mergeCells count="6">
+    <mergeCell ref="D2:AB2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:R3"/>
+    <mergeCell ref="S3:AB3"/>
+    <mergeCell ref="AC3:AL3"/>
+    <mergeCell ref="AM3:AV3"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Tee System/TeeConfig.xlsx
+++ b/Tee System/TeeConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tee System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50634379-CFC6-FB45-9537-73336D83F4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A906F2DF-F3D8-344B-B908-6CDBF9D3018A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2500" yWindow="-21600" windowWidth="19060" windowHeight="21600" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
+    <workbookView xWindow="-140" yWindow="500" windowWidth="33600" windowHeight="18780" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="80">
   <si>
     <t>Notes</t>
   </si>
@@ -118,9 +118,6 @@
     <t>free</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>skill_level</t>
   </si>
   <si>
@@ -173,6 +170,111 @@
   </si>
   <si>
     <t>condition5</t>
+  </si>
+  <si>
+    <t>减少指针速度 5%</t>
+  </si>
+  <si>
+    <t>减少指针速度 10%</t>
+  </si>
+  <si>
+    <t>减少指针速度 15%</t>
+  </si>
+  <si>
+    <t>减少指针速度 20%</t>
+  </si>
+  <si>
+    <t>common skills</t>
+  </si>
+  <si>
+    <t>Special SKills</t>
+  </si>
+  <si>
+    <t>Eagle - 额外紫卡</t>
+  </si>
+  <si>
+    <t>Eagle - 激励球</t>
+  </si>
+  <si>
+    <t>Stage 胜利 - 额外杯数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage - 失败 - 减少掉杯 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom - eagle - 额外钻石 </t>
+  </si>
+  <si>
+    <t>Arena - Albtross - 更多激励球</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>reduce_speed</t>
+  </si>
+  <si>
+    <t>extra_coins</t>
+  </si>
+  <si>
+    <t>extra_cards</t>
+  </si>
+  <si>
+    <t>extra_balls_pro</t>
+  </si>
+  <si>
+    <t>trophy_shield</t>
+  </si>
+  <si>
+    <t>extra_diamonds</t>
+  </si>
+  <si>
+    <t>birde - 金币10</t>
+  </si>
+  <si>
+    <t>birde - 金币20</t>
+  </si>
+  <si>
+    <t>birde - 金币30</t>
+  </si>
+  <si>
+    <t>birde - 金币40</t>
+  </si>
+  <si>
+    <t>Eagle - 额外紫卡1</t>
+  </si>
+  <si>
+    <t>Eagle - 额外紫卡2</t>
+  </si>
+  <si>
+    <t>Eagle - 额外紫卡3</t>
+  </si>
+  <si>
+    <t>Eagle - 额外紫卡4</t>
+  </si>
+  <si>
+    <t>Kingdom - Albatross- 更多激励球</t>
+  </si>
+  <si>
+    <t>Kingdom - Eagle - 更多激励球</t>
+  </si>
+  <si>
+    <t>Kingdom - Birde- 更多激励球</t>
+  </si>
+  <si>
+    <t>HOLE IN ONE- 激励球 4</t>
+  </si>
+  <si>
+    <t>Albatross - 激励球 3</t>
+  </si>
+  <si>
+    <t>Eagle - 激励球 2</t>
+  </si>
+  <si>
+    <t>birde - 激励球 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom - HOLE_IN_ONE - 更多球 </t>
   </si>
 </sst>
 </file>
@@ -254,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -302,30 +404,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -338,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -346,18 +424,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -679,27 +751,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB9F4E4-17F2-2041-B9BC-81AB44595C68}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" style="15"/>
-    <col min="13" max="14" width="10.7109375" style="16"/>
-    <col min="15" max="16" width="10.7109375" style="17"/>
-    <col min="17" max="18" width="10.7109375" style="18"/>
-    <col min="19" max="20" width="10.7109375" style="19"/>
-    <col min="21" max="22" width="10.7109375" style="21"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="10" width="8" customWidth="1"/>
+    <col min="11" max="12" width="7.85546875" customWidth="1"/>
+    <col min="13" max="14" width="10.7109375" style="9"/>
+    <col min="15" max="16" width="10.7109375" style="10"/>
+    <col min="17" max="18" width="10.7109375" style="11"/>
+    <col min="19" max="19" width="10.7109375" style="12"/>
+    <col min="20" max="20" width="10.7109375" style="12" customWidth="1"/>
+    <col min="21" max="22" width="10.7109375" style="13"/>
+    <col min="23" max="24" width="10.7109375" style="15"/>
+    <col min="25" max="26" width="10.7109375" style="13"/>
+    <col min="27" max="28" width="10.7109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:28">
       <c r="A1">
         <v>1</v>
       </c>
@@ -730,340 +806,527 @@
       <c r="J1">
         <v>10</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1">
         <v>11</v>
       </c>
-      <c r="L1" s="14">
+      <c r="L1">
         <v>12</v>
       </c>
-      <c r="M1" s="14">
+      <c r="M1">
         <v>13</v>
       </c>
-      <c r="N1" s="14">
+      <c r="N1">
         <v>14</v>
       </c>
-      <c r="O1" s="14">
+      <c r="O1">
         <v>15</v>
       </c>
-      <c r="P1" s="14">
+      <c r="P1">
         <v>16</v>
       </c>
-      <c r="Q1" s="14">
+      <c r="Q1">
         <v>17</v>
       </c>
-      <c r="R1" s="14">
+      <c r="R1">
         <v>18</v>
       </c>
-      <c r="S1" s="14">
+      <c r="S1">
         <v>19</v>
       </c>
-      <c r="T1" s="14">
+      <c r="T1">
         <v>20</v>
       </c>
-      <c r="U1" s="14">
+      <c r="U1">
         <v>21</v>
       </c>
-      <c r="V1" s="14">
+      <c r="V1">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+      <c r="Z1">
+        <v>26</v>
+      </c>
+      <c r="AA1">
+        <v>27</v>
+      </c>
+      <c r="AB1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="O2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="P2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="Q2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="R2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="S2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="T2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="U2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="V2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="W2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="X2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="Y2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1001</v>
+      </c>
+      <c r="O3" s="10">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1002</v>
+      </c>
+      <c r="O4" s="10">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1003</v>
+      </c>
+      <c r="O5" s="10">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1004</v>
+      </c>
+      <c r="O6" s="10">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1005</v>
+      </c>
+      <c r="O7" s="10">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1006</v>
+      </c>
+      <c r="O8" s="10">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1007</v>
+      </c>
+      <c r="O9" s="10">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1008</v>
+      </c>
+      <c r="O10" s="10">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1009</v>
+      </c>
+      <c r="O11" s="10">
+        <v>1010</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>1011</v>
+      </c>
+      <c r="S11" s="12">
+        <v>1012</v>
+      </c>
+      <c r="U11" s="13">
+        <v>2009</v>
+      </c>
+      <c r="W11" s="15">
+        <v>2010</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>2011</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>1013</v>
+      </c>
+      <c r="O12" s="10">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1014</v>
+      </c>
+      <c r="O13" s="10">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="K14" s="1">
         <v>3</v>
       </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
-      </c>
-      <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="S5">
-        <v>3</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="U5">
-        <v>3</v>
-      </c>
-      <c r="V5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="M6" s="16" t="s">
-        <v>27</v>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1015</v>
+      </c>
+      <c r="O14" s="10">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>26</v>
+      </c>
+      <c r="K15" s="1">
+        <v>4</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1016</v>
+      </c>
+      <c r="O15" s="10">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F412759-F70B-1343-9C94-8D49C9A91198}">
-  <dimension ref="A1:AV8"/>
+  <dimension ref="A1:AV36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AV16" sqref="AV16"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="11" width="9.85546875" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
@@ -1213,90 +1476,90 @@
       </c>
     </row>
     <row r="2" spans="1:48">
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
     </row>
     <row r="3" spans="1:48">
       <c r="D3" s="1"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="13" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13" t="s">
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13" t="s">
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
     </row>
     <row r="4" spans="1:48">
       <c r="A4" t="s">
@@ -1306,7 +1569,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -1324,19 +1587,19 @@
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>4</v>
@@ -1445,489 +1708,1238 @@
       </c>
     </row>
     <row r="5" spans="1:48">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1001</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>-99</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>1</v>
-      </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-      <c r="AM5">
-        <v>1</v>
-      </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
-      <c r="AP5">
-        <v>1</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AR5">
-        <v>1</v>
-      </c>
-      <c r="AS5">
-        <v>1</v>
-      </c>
-      <c r="AT5">
-        <v>1</v>
-      </c>
-      <c r="AU5">
-        <v>1</v>
-      </c>
-      <c r="AV5">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:48">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1002</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
+        <v>-1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>-99</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>2</v>
-      </c>
-      <c r="X6">
-        <v>2</v>
-      </c>
-      <c r="Y6">
-        <v>2</v>
-      </c>
-      <c r="Z6">
-        <v>2</v>
-      </c>
-      <c r="AA6">
-        <v>2</v>
-      </c>
-      <c r="AB6">
-        <v>2</v>
-      </c>
-      <c r="AC6">
-        <v>2</v>
-      </c>
-      <c r="AD6">
-        <v>2</v>
-      </c>
-      <c r="AE6">
-        <v>2</v>
-      </c>
-      <c r="AF6">
-        <v>2</v>
-      </c>
-      <c r="AG6">
-        <v>2</v>
-      </c>
-      <c r="AH6">
-        <v>2</v>
-      </c>
-      <c r="AI6">
-        <v>2</v>
-      </c>
-      <c r="AJ6">
-        <v>2</v>
-      </c>
-      <c r="AK6">
-        <v>2</v>
-      </c>
-      <c r="AL6">
-        <v>2</v>
-      </c>
-      <c r="AM6">
-        <v>2</v>
-      </c>
-      <c r="AN6">
-        <v>2</v>
-      </c>
-      <c r="AO6">
-        <v>2</v>
-      </c>
-      <c r="AP6">
-        <v>2</v>
-      </c>
-      <c r="AQ6">
-        <v>2</v>
-      </c>
-      <c r="AR6">
-        <v>2</v>
-      </c>
-      <c r="AS6">
-        <v>2</v>
-      </c>
-      <c r="AT6">
-        <v>2</v>
-      </c>
-      <c r="AU6">
-        <v>2</v>
-      </c>
-      <c r="AV6">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:48">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1003</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
+        <v>-1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>-99</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <v>3</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="R7">
-        <v>3</v>
-      </c>
-      <c r="S7">
-        <v>3</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="U7">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="V7">
-        <v>3</v>
-      </c>
-      <c r="W7">
-        <v>3</v>
-      </c>
-      <c r="X7">
-        <v>3</v>
-      </c>
-      <c r="Y7">
-        <v>3</v>
-      </c>
-      <c r="Z7">
-        <v>3</v>
-      </c>
-      <c r="AA7">
-        <v>3</v>
-      </c>
-      <c r="AB7">
-        <v>3</v>
-      </c>
-      <c r="AC7">
-        <v>3</v>
-      </c>
-      <c r="AD7">
-        <v>3</v>
-      </c>
-      <c r="AE7">
-        <v>3</v>
-      </c>
-      <c r="AF7">
-        <v>3</v>
-      </c>
-      <c r="AG7">
-        <v>3</v>
-      </c>
-      <c r="AH7">
-        <v>3</v>
-      </c>
-      <c r="AI7">
-        <v>3</v>
-      </c>
-      <c r="AJ7">
-        <v>3</v>
-      </c>
-      <c r="AK7">
-        <v>3</v>
-      </c>
-      <c r="AL7">
-        <v>3</v>
-      </c>
-      <c r="AM7">
-        <v>3</v>
-      </c>
-      <c r="AN7">
-        <v>3</v>
-      </c>
-      <c r="AO7">
-        <v>3</v>
-      </c>
-      <c r="AP7">
-        <v>3</v>
-      </c>
-      <c r="AQ7">
-        <v>3</v>
-      </c>
-      <c r="AR7">
-        <v>3</v>
-      </c>
-      <c r="AS7">
-        <v>3</v>
-      </c>
-      <c r="AT7">
-        <v>3</v>
-      </c>
-      <c r="AU7">
-        <v>3</v>
-      </c>
-      <c r="AV7">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:48">
-      <c r="D8" s="1"/>
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1004</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <v>-99</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="9"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
+      <c r="V8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1005</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <v>-99</v>
+      </c>
+      <c r="L9">
+        <v>-2</v>
+      </c>
+      <c r="M9">
+        <v>-1</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1006</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-99</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-2</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1007</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="K11">
+        <v>-99</v>
+      </c>
+      <c r="L11">
+        <v>-2</v>
+      </c>
+      <c r="M11">
+        <v>-1</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1008</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12">
+        <v>-99</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-2</v>
+      </c>
+      <c r="M12">
+        <v>-1</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="V12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1009</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13">
+        <v>-1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>-99</v>
+      </c>
+      <c r="L13">
+        <v>99</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1010</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>-3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-3</v>
+      </c>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1011</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+      <c r="J15">
+        <v>-1</v>
+      </c>
+      <c r="K15">
+        <v>-2</v>
+      </c>
+      <c r="L15">
+        <v>-2</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1012</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16">
+        <v>-1</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M16">
+        <v>-1</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1013</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>-1</v>
+      </c>
+      <c r="J17">
+        <v>-1</v>
+      </c>
+      <c r="K17">
+        <v>-99</v>
+      </c>
+      <c r="L17">
+        <v>99</v>
+      </c>
+      <c r="M17">
+        <v>-1</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1014</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>-1</v>
+      </c>
+      <c r="J18">
+        <v>-1</v>
+      </c>
+      <c r="K18">
+        <v>-99</v>
+      </c>
+      <c r="L18">
+        <v>99</v>
+      </c>
+      <c r="M18">
+        <v>-1</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1015</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>-1</v>
+      </c>
+      <c r="J19">
+        <v>-1</v>
+      </c>
+      <c r="K19">
+        <v>-99</v>
+      </c>
+      <c r="L19">
+        <v>99</v>
+      </c>
+      <c r="M19">
+        <v>-1</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1016</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>-1</v>
+      </c>
+      <c r="J20">
+        <v>-1</v>
+      </c>
+      <c r="K20">
+        <v>-99</v>
+      </c>
+      <c r="L20">
+        <v>99</v>
+      </c>
+      <c r="M20">
+        <v>-1</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+      <c r="K21">
+        <v>-99</v>
+      </c>
+      <c r="L21">
+        <v>99</v>
+      </c>
+      <c r="M21">
+        <v>-1</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>-1</v>
+      </c>
+      <c r="K22">
+        <v>-99</v>
+      </c>
+      <c r="L22">
+        <v>99</v>
+      </c>
+      <c r="M22">
+        <v>-1</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
+      <c r="O22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>-1</v>
+      </c>
+      <c r="K23">
+        <v>-99</v>
+      </c>
+      <c r="L23">
+        <v>99</v>
+      </c>
+      <c r="M23">
+        <v>-1</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
+      <c r="O23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>-1</v>
+      </c>
+      <c r="K24">
+        <v>-99</v>
+      </c>
+      <c r="L24">
+        <v>99</v>
+      </c>
+      <c r="M24">
+        <v>-1</v>
+      </c>
+      <c r="N24">
+        <v>100</v>
+      </c>
+      <c r="O24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>-1</v>
+      </c>
+      <c r="K25">
+        <v>-99</v>
+      </c>
+      <c r="L25">
+        <v>99</v>
+      </c>
+      <c r="M25">
+        <v>-1</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>-1</v>
+      </c>
+      <c r="K26">
+        <v>-99</v>
+      </c>
+      <c r="L26">
+        <v>99</v>
+      </c>
+      <c r="M26">
+        <v>-1</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
+      </c>
+      <c r="P26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>-1</v>
+      </c>
+      <c r="K27">
+        <v>-99</v>
+      </c>
+      <c r="L27">
+        <v>99</v>
+      </c>
+      <c r="M27">
+        <v>-1</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+      <c r="P27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>-1</v>
+      </c>
+      <c r="K28">
+        <v>-99</v>
+      </c>
+      <c r="L28">
+        <v>99</v>
+      </c>
+      <c r="M28">
+        <v>-1</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
+      <c r="P28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>-99</v>
+      </c>
+      <c r="L29">
+        <v>99</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>100</v>
+      </c>
+      <c r="V29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30">
+        <v>-1</v>
+      </c>
+      <c r="J30">
+        <v>-1</v>
+      </c>
+      <c r="K30">
+        <v>-3</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-3</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+      <c r="V30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31">
+        <v>-1</v>
+      </c>
+      <c r="J31">
+        <v>-1</v>
+      </c>
+      <c r="K31">
+        <v>-2</v>
+      </c>
+      <c r="L31">
+        <v>-2</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>100</v>
+      </c>
+      <c r="V31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32">
+        <v>-1</v>
+      </c>
+      <c r="J32">
+        <v>-1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>100</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33">
+        <v>-1</v>
+      </c>
+      <c r="J33">
+        <v>-1</v>
+      </c>
+      <c r="K33">
+        <v>-99</v>
+      </c>
+      <c r="L33">
+        <v>-2</v>
+      </c>
+      <c r="M33">
+        <v>-1</v>
+      </c>
+      <c r="N33">
+        <v>100</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34">
+        <v>-1</v>
+      </c>
+      <c r="J34">
+        <v>-1</v>
+      </c>
+      <c r="K34">
+        <v>-99</v>
+      </c>
+      <c r="L34">
+        <v>-2</v>
+      </c>
+      <c r="M34">
+        <v>-1</v>
+      </c>
+      <c r="N34">
+        <v>100</v>
+      </c>
+      <c r="V34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35">
+        <v>-1</v>
+      </c>
+      <c r="J35">
+        <v>-1</v>
+      </c>
+      <c r="K35">
+        <v>-99</v>
+      </c>
+      <c r="L35">
+        <v>-2</v>
+      </c>
+      <c r="M35">
+        <v>-1</v>
+      </c>
+      <c r="N35">
+        <v>100</v>
+      </c>
+      <c r="V35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36">
+        <v>-1</v>
+      </c>
+      <c r="J36">
+        <v>-1</v>
+      </c>
+      <c r="K36">
+        <v>-99</v>
+      </c>
+      <c r="L36">
+        <v>-2</v>
+      </c>
+      <c r="M36">
+        <v>-1</v>
+      </c>
+      <c r="N36">
+        <v>100</v>
+      </c>
+      <c r="V36">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Tee System/TeeConfig.xlsx
+++ b/Tee System/TeeConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tee System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A906F2DF-F3D8-344B-B908-6CDBF9D3018A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4DBEF2-AAEA-BA44-BE59-EF905918B221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="500" windowWidth="33600" windowHeight="18780" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
+    <workbookView xWindow="-140" yWindow="500" windowWidth="33600" windowHeight="18780" activeTab="1" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB9F4E4-17F2-2041-B9BC-81AB44595C68}">
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1313,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F412759-F70B-1343-9C94-8D49C9A91198}">
   <dimension ref="A1:AV36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>

--- a/Tee System/TeeConfig.xlsx
+++ b/Tee System/TeeConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tee System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4DBEF2-AAEA-BA44-BE59-EF905918B221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0303DF5B-1589-304A-8F70-AE16E9083E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="500" windowWidth="33600" windowHeight="18780" activeTab="1" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
+    <workbookView xWindow="-1720" yWindow="-20280" windowWidth="33600" windowHeight="18780" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="80">
   <si>
     <t>Notes</t>
   </si>
@@ -94,9 +94,6 @@
     <t>[一般额外参数在此处添加] - 生成子表</t>
   </si>
   <si>
-    <t>skill_id</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -275,16 +272,25 @@
   </si>
   <si>
     <t xml:space="preserve">Kingdom - HOLE_IN_ONE - 更多球 </t>
+  </si>
+  <si>
+    <t>默认</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="苹方-简"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="苹方-简"/>
       <family val="2"/>
     </font>
@@ -416,18 +422,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -435,8 +441,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB9F4E4-17F2-2041-B9BC-81AB44595C68}">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -863,96 +872,96 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="U2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="W2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="X2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="14" t="s">
-        <v>39</v>
-      </c>
       <c r="Y2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="AA2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -960,351 +969,457 @@
       <c r="D3">
         <v>26</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" s="9">
-        <v>1001</v>
-      </c>
-      <c r="O3" s="10">
-        <v>2001</v>
-      </c>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="D4">
         <v>26</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" s="9">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O4" s="10">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>26</v>
       </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" s="9">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="O5" s="10">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="D6">
         <v>26</v>
       </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
       <c r="K6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" s="9">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O6" s="10">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>26</v>
       </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
       <c r="K7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" s="9">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="O7" s="10">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="D8">
         <v>26</v>
       </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" s="9">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O8" s="10">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D9">
         <v>26</v>
       </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" s="9">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="O9" s="10">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="D10">
         <v>26</v>
       </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
       <c r="K10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" s="9">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O10" s="10">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="D11">
         <v>26</v>
       </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
       <c r="K11">
         <v>4</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="9">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="O11" s="10">
-        <v>1010</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>1011</v>
-      </c>
-      <c r="S11" s="12">
-        <v>1012</v>
-      </c>
-      <c r="U11" s="13">
-        <v>2009</v>
-      </c>
-      <c r="W11" s="15">
-        <v>2010</v>
-      </c>
-      <c r="Y11" s="13">
-        <v>2011</v>
-      </c>
-      <c r="AA11" s="12">
-        <v>2012</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="D12">
         <v>26</v>
       </c>
-      <c r="K12" s="1">
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
         <v>1</v>
       </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
       <c r="M12" s="9">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="O12" s="10">
-        <v>2013</v>
+        <v>1010</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>1011</v>
+      </c>
+      <c r="S12" s="12">
+        <v>1012</v>
+      </c>
+      <c r="U12" s="13">
+        <v>2009</v>
+      </c>
+      <c r="W12" s="15">
+        <v>2010</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>2011</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>2012</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D13">
         <v>26</v>
       </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
       <c r="K13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
       </c>
       <c r="M13" s="9">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="O13" s="10">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D14">
         <v>26</v>
       </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
       <c r="K14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
       </c>
       <c r="M14" s="9">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="O14" s="10">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="D15">
         <v>26</v>
       </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
       <c r="K15" s="1">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1015</v>
+      </c>
+      <c r="O15" s="10">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>113</v>
+      </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
         <v>4</v>
       </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
         <v>1016</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O16" s="10">
         <v>2016</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1313,13 +1428,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F412759-F70B-1343-9C94-8D49C9A91198}">
   <dimension ref="A1:AV36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
@@ -1569,7 +1684,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -1587,19 +1702,19 @@
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>4</v>
@@ -1708,318 +1823,648 @@
       </c>
     </row>
     <row r="5" spans="1:48">
-      <c r="A5" t="s">
+      <c r="A5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="16">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="16">
+        <v>-99</v>
+      </c>
+      <c r="L5" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="16">
+        <v>100</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16">
+        <v>0</v>
+      </c>
+      <c r="T5" s="16">
+        <v>3</v>
+      </c>
+      <c r="U5" s="16">
+        <v>0</v>
+      </c>
+      <c r="V5" s="16">
+        <v>10</v>
+      </c>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+    </row>
+    <row r="6" spans="1:48">
+      <c r="A6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="9">
-        <v>1001</v>
-      </c>
-      <c r="C5">
+      <c r="B6" s="17">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="16">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="16">
+        <v>-99</v>
+      </c>
+      <c r="L6" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="16">
+        <v>100</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16">
+        <v>0</v>
+      </c>
+      <c r="T6" s="16">
+        <v>3</v>
+      </c>
+      <c r="U6" s="16">
+        <v>0</v>
+      </c>
+      <c r="V6" s="16">
+        <v>20</v>
+      </c>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+    </row>
+    <row r="7" spans="1:48">
+      <c r="A7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="17">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="16">
+        <v>3</v>
+      </c>
+      <c r="D7" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="16">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="16">
+        <v>-99</v>
+      </c>
+      <c r="L7" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="16">
+        <v>100</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16">
+        <v>0</v>
+      </c>
+      <c r="T7" s="16">
+        <v>3</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16">
+        <v>30</v>
+      </c>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+    </row>
+    <row r="8" spans="1:48">
+      <c r="A8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="17">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="16">
+        <v>4</v>
+      </c>
+      <c r="D8" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="16">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="16">
+        <v>-99</v>
+      </c>
+      <c r="L8" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="16">
+        <v>100</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16">
+        <v>0</v>
+      </c>
+      <c r="T8" s="16">
+        <v>3</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <v>40</v>
+      </c>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+    </row>
+    <row r="9" spans="1:48">
+      <c r="A9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="17">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="16">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D9" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I5">
-        <v>-1</v>
-      </c>
-      <c r="J5">
-        <v>-1</v>
-      </c>
-      <c r="K5">
+      <c r="I9" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="16">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="16">
         <v>-99</v>
       </c>
-      <c r="L5">
-        <v>-1</v>
-      </c>
-      <c r="M5">
-        <v>-1</v>
-      </c>
-      <c r="N5">
+      <c r="L9" s="16">
+        <v>-2</v>
+      </c>
+      <c r="M9" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="16">
         <v>100</v>
       </c>
-      <c r="V5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1002</v>
-      </c>
-      <c r="C6">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16">
+        <v>7</v>
+      </c>
+      <c r="U9" s="16">
+        <v>3</v>
+      </c>
+      <c r="V9" s="16">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+    </row>
+    <row r="10" spans="1:48">
+      <c r="A10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="16">
+        <v>2</v>
+      </c>
+      <c r="D10" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I6">
-        <v>-1</v>
-      </c>
-      <c r="J6">
-        <v>-1</v>
-      </c>
-      <c r="K6">
+      <c r="I10" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="16">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="16">
         <v>-99</v>
       </c>
-      <c r="L6">
-        <v>-1</v>
-      </c>
-      <c r="M6">
-        <v>-1</v>
-      </c>
-      <c r="N6">
+      <c r="L10" s="16">
+        <v>-2</v>
+      </c>
+      <c r="M10" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="16">
         <v>100</v>
       </c>
-      <c r="V6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1003</v>
-      </c>
-      <c r="C7">
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16">
+        <v>0</v>
+      </c>
+      <c r="T10" s="16">
+        <v>7</v>
+      </c>
+      <c r="U10" s="16">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="V10" s="16">
+        <v>4</v>
+      </c>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+    </row>
+    <row r="11" spans="1:48">
+      <c r="A11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="16">
+        <v>3</v>
+      </c>
+      <c r="D11" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I7">
-        <v>-1</v>
-      </c>
-      <c r="J7">
-        <v>-1</v>
-      </c>
-      <c r="K7">
+      <c r="I11" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="16">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="16">
         <v>-99</v>
       </c>
-      <c r="L7">
-        <v>-1</v>
-      </c>
-      <c r="M7">
-        <v>-1</v>
-      </c>
-      <c r="N7">
+      <c r="L11" s="16">
+        <v>-2</v>
+      </c>
+      <c r="M11" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="16">
         <v>100</v>
       </c>
-      <c r="V7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1004</v>
-      </c>
-      <c r="C8">
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16">
+        <v>0</v>
+      </c>
+      <c r="T11" s="16">
+        <v>7</v>
+      </c>
+      <c r="U11" s="16">
+        <v>3</v>
+      </c>
+      <c r="V11" s="16">
+        <v>6</v>
+      </c>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+    </row>
+    <row r="12" spans="1:48">
+      <c r="A12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="16">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" t="s">
+      <c r="D12" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I8">
-        <v>-1</v>
-      </c>
-      <c r="J8">
-        <v>-1</v>
-      </c>
-      <c r="K8">
+      <c r="I12" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="16">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="16">
         <v>-99</v>
       </c>
-      <c r="L8">
-        <v>-1</v>
-      </c>
-      <c r="M8">
-        <v>-1</v>
-      </c>
-      <c r="N8">
+      <c r="L12" s="16">
+        <v>-2</v>
+      </c>
+      <c r="M12" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="16">
         <v>100</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="V8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1005</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9">
-        <v>-1</v>
-      </c>
-      <c r="J9">
-        <v>-1</v>
-      </c>
-      <c r="K9">
-        <v>-99</v>
-      </c>
-      <c r="L9">
-        <v>-2</v>
-      </c>
-      <c r="M9">
-        <v>-1</v>
-      </c>
-      <c r="N9">
-        <v>100</v>
-      </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1006</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10">
-        <v>-1</v>
-      </c>
-      <c r="J10">
-        <v>-1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>-99</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-2</v>
-      </c>
-      <c r="M10">
-        <v>-1</v>
-      </c>
-      <c r="N10">
-        <v>100</v>
-      </c>
-      <c r="V10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="9">
-        <v>1007</v>
-      </c>
-      <c r="C11">
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16">
+        <v>0</v>
+      </c>
+      <c r="T12" s="16">
+        <v>7</v>
+      </c>
+      <c r="U12" s="16">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11">
-        <v>-1</v>
-      </c>
-      <c r="J11">
-        <v>-1</v>
-      </c>
-      <c r="K11">
-        <v>-99</v>
-      </c>
-      <c r="L11">
-        <v>-2</v>
-      </c>
-      <c r="M11">
-        <v>-1</v>
-      </c>
-      <c r="N11">
-        <v>100</v>
-      </c>
-      <c r="V11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="9">
-        <v>1008</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>-1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12">
-        <v>-1</v>
-      </c>
-      <c r="J12">
-        <v>-1</v>
-      </c>
-      <c r="K12">
-        <v>-99</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-2</v>
-      </c>
-      <c r="M12">
-        <v>-1</v>
-      </c>
-      <c r="N12">
-        <v>100</v>
-      </c>
-      <c r="V12">
+      <c r="V12" s="16">
         <v>8</v>
       </c>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
     </row>
     <row r="13" spans="1:48">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="9">
         <v>1009</v>
@@ -2031,7 +2476,7 @@
         <v>-1</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -2057,7 +2502,7 @@
     </row>
     <row r="14" spans="1:48">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="9">
         <v>1010</v>
@@ -2069,7 +2514,7 @@
         <v>-1</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -2095,7 +2540,7 @@
     </row>
     <row r="15" spans="1:48">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="9">
         <v>1011</v>
@@ -2107,7 +2552,7 @@
         <v>-1</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -2133,7 +2578,7 @@
     </row>
     <row r="16" spans="1:48">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="9">
         <v>1012</v>
@@ -2145,7 +2590,7 @@
         <v>-1</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -2171,7 +2616,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="9">
         <v>1013</v>
@@ -2183,7 +2628,7 @@
         <v>-1</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17">
         <v>100</v>
@@ -2212,7 +2657,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="9">
         <v>1014</v>
@@ -2224,7 +2669,7 @@
         <v>-1</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18">
         <v>100</v>
@@ -2253,7 +2698,7 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="9">
         <v>1015</v>
@@ -2265,7 +2710,7 @@
         <v>-1</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19">
         <v>100</v>
@@ -2294,7 +2739,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="9">
         <v>1016</v>
@@ -2306,7 +2751,7 @@
         <v>-1</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20">
         <v>100</v>
@@ -2335,7 +2780,7 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="10">
         <v>2001</v>
@@ -2373,7 +2818,7 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="10">
         <v>2002</v>
@@ -2411,7 +2856,7 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="10">
         <v>2003</v>
@@ -2449,7 +2894,7 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="10">
         <v>2004</v>
@@ -2487,7 +2932,7 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="10">
         <v>2005</v>
@@ -2499,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2525,7 +2970,7 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="10">
         <v>2006</v>
@@ -2537,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2563,7 +3008,7 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="10">
         <v>2007</v>
@@ -2575,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2601,7 +3046,7 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="10">
         <v>2008</v>
@@ -2613,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2639,7 +3084,7 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="10">
         <v>2009</v>
@@ -2651,7 +3096,7 @@
         <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I29">
         <v>-1</v>
@@ -2677,7 +3122,7 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="10">
         <v>2010</v>
@@ -2689,7 +3134,7 @@
         <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I30">
         <v>-1</v>
@@ -2715,7 +3160,7 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="10">
         <v>2011</v>
@@ -2727,7 +3172,7 @@
         <v>4</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31">
         <v>-1</v>
@@ -2753,7 +3198,7 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="10">
         <v>2012</v>
@@ -2765,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I32">
         <v>-1</v>
@@ -2789,157 +3234,325 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="10">
+    <row r="33" spans="1:48">
+      <c r="A33" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="18">
         <v>2013</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="16">
         <v>1</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="16">
         <v>4</v>
       </c>
-      <c r="H33" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33">
-        <v>-1</v>
-      </c>
-      <c r="J33">
-        <v>-1</v>
-      </c>
-      <c r="K33">
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J33" s="16">
+        <v>-1</v>
+      </c>
+      <c r="K33" s="16">
         <v>-99</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="16">
         <v>-2</v>
       </c>
-      <c r="M33">
-        <v>-1</v>
-      </c>
-      <c r="N33">
+      <c r="M33" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="16">
         <v>100</v>
       </c>
-      <c r="V33">
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16">
+        <v>0</v>
+      </c>
+      <c r="T33" s="16">
+        <v>2</v>
+      </c>
+      <c r="U33" s="16">
+        <v>0</v>
+      </c>
+      <c r="V33" s="16">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="10">
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="16"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="16"/>
+      <c r="AO33" s="16"/>
+      <c r="AP33" s="16"/>
+      <c r="AQ33" s="16"/>
+      <c r="AR33" s="16"/>
+      <c r="AS33" s="16"/>
+      <c r="AT33" s="16"/>
+      <c r="AU33" s="16"/>
+      <c r="AV33" s="16"/>
+    </row>
+    <row r="34" spans="1:48">
+      <c r="A34" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="18">
         <v>2014</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="16">
         <v>2</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="16">
         <v>4</v>
       </c>
-      <c r="H34" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34">
-        <v>-1</v>
-      </c>
-      <c r="J34">
-        <v>-1</v>
-      </c>
-      <c r="K34">
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J34" s="16">
+        <v>-1</v>
+      </c>
+      <c r="K34" s="16">
         <v>-99</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="16">
         <v>-2</v>
       </c>
-      <c r="M34">
-        <v>-1</v>
-      </c>
-      <c r="N34">
+      <c r="M34" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="16">
         <v>100</v>
       </c>
-      <c r="V34">
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16">
+        <v>0</v>
+      </c>
+      <c r="T34" s="16">
+        <v>2</v>
+      </c>
+      <c r="U34" s="16">
+        <v>0</v>
+      </c>
+      <c r="V34" s="16">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="10">
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16"/>
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="16"/>
+      <c r="AM34" s="16"/>
+      <c r="AN34" s="16"/>
+      <c r="AO34" s="16"/>
+      <c r="AP34" s="16"/>
+      <c r="AQ34" s="16"/>
+      <c r="AR34" s="16"/>
+      <c r="AS34" s="16"/>
+      <c r="AT34" s="16"/>
+      <c r="AU34" s="16"/>
+      <c r="AV34" s="16"/>
+    </row>
+    <row r="35" spans="1:48">
+      <c r="A35" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="18">
         <v>2015</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="16">
         <v>3</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="16">
         <v>4</v>
       </c>
-      <c r="H35" t="s">
-        <v>63</v>
-      </c>
-      <c r="I35">
-        <v>-1</v>
-      </c>
-      <c r="J35">
-        <v>-1</v>
-      </c>
-      <c r="K35">
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="16">
+        <v>-1</v>
+      </c>
+      <c r="K35" s="16">
         <v>-99</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="16">
         <v>-2</v>
       </c>
-      <c r="M35">
-        <v>-1</v>
-      </c>
-      <c r="N35">
+      <c r="M35" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N35" s="16">
         <v>100</v>
       </c>
-      <c r="V35">
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16">
+        <v>0</v>
+      </c>
+      <c r="T35" s="16">
+        <v>2</v>
+      </c>
+      <c r="U35" s="16">
+        <v>0</v>
+      </c>
+      <c r="V35" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="10">
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="16"/>
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="16"/>
+      <c r="AL35" s="16"/>
+      <c r="AM35" s="16"/>
+      <c r="AN35" s="16"/>
+      <c r="AO35" s="16"/>
+      <c r="AP35" s="16"/>
+      <c r="AQ35" s="16"/>
+      <c r="AR35" s="16"/>
+      <c r="AS35" s="16"/>
+      <c r="AT35" s="16"/>
+      <c r="AU35" s="16"/>
+      <c r="AV35" s="16"/>
+    </row>
+    <row r="36" spans="1:48">
+      <c r="A36" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="18">
         <v>2016</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="16">
         <v>4</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="16">
         <v>4</v>
       </c>
-      <c r="H36" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36">
-        <v>-1</v>
-      </c>
-      <c r="J36">
-        <v>-1</v>
-      </c>
-      <c r="K36">
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J36" s="16">
+        <v>-1</v>
+      </c>
+      <c r="K36" s="16">
         <v>-99</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="16">
         <v>-2</v>
       </c>
-      <c r="M36">
-        <v>-1</v>
-      </c>
-      <c r="N36">
+      <c r="M36" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N36" s="16">
         <v>100</v>
       </c>
-      <c r="V36">
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16">
+        <v>0</v>
+      </c>
+      <c r="T36" s="16">
+        <v>2</v>
+      </c>
+      <c r="U36" s="16">
+        <v>0</v>
+      </c>
+      <c r="V36" s="16">
         <v>20</v>
       </c>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="16"/>
+      <c r="AI36" s="16"/>
+      <c r="AJ36" s="16"/>
+      <c r="AK36" s="16"/>
+      <c r="AL36" s="16"/>
+      <c r="AM36" s="16"/>
+      <c r="AN36" s="16"/>
+      <c r="AO36" s="16"/>
+      <c r="AP36" s="16"/>
+      <c r="AQ36" s="16"/>
+      <c r="AR36" s="16"/>
+      <c r="AS36" s="16"/>
+      <c r="AT36" s="16"/>
+      <c r="AU36" s="16"/>
+      <c r="AV36" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2950,7 +3563,7 @@
     <mergeCell ref="AC3:AL3"/>
     <mergeCell ref="AM3:AV3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Tee System/TeeConfig.xlsx
+++ b/Tee System/TeeConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tee System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0303DF5B-1589-304A-8F70-AE16E9083E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B20496-1F2D-FB43-B984-BB2949821786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1720" yWindow="-20280" windowWidth="33600" windowHeight="18780" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
+    <workbookView xWindow="-1720" yWindow="-20280" windowWidth="33600" windowHeight="18780" activeTab="1" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="84">
   <si>
     <t>Notes</t>
   </si>
@@ -274,7 +274,19 @@
     <t xml:space="preserve">Kingdom - HOLE_IN_ONE - 更多球 </t>
   </si>
   <si>
-    <t>默认</t>
+    <t>Eagle - 返还球</t>
+  </si>
+  <si>
+    <t>skill_id</t>
+  </si>
+  <si>
+    <t>reback_ball</t>
+  </si>
+  <si>
+    <t>reback_challenge_shield</t>
+  </si>
+  <si>
+    <t>Eagle-返还球</t>
   </si>
 </sst>
 </file>
@@ -362,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -418,11 +430,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -431,9 +454,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -446,6 +466,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB9F4E4-17F2-2041-B9BC-81AB44595C68}">
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -773,15 +800,15 @@
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
     <col min="9" max="10" width="8" customWidth="1"/>
     <col min="11" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="14" width="10.7109375" style="9"/>
-    <col min="15" max="16" width="10.7109375" style="10"/>
-    <col min="17" max="18" width="10.7109375" style="11"/>
-    <col min="19" max="19" width="10.7109375" style="12"/>
-    <col min="20" max="20" width="10.7109375" style="12" customWidth="1"/>
-    <col min="21" max="22" width="10.7109375" style="13"/>
-    <col min="23" max="24" width="10.7109375" style="15"/>
-    <col min="25" max="26" width="10.7109375" style="13"/>
-    <col min="27" max="28" width="10.7109375" style="12"/>
+    <col min="13" max="14" width="10.7109375" style="8"/>
+    <col min="15" max="16" width="10.7109375" style="9"/>
+    <col min="17" max="18" width="10.7109375" style="10"/>
+    <col min="19" max="19" width="10.7109375" style="11"/>
+    <col min="20" max="20" width="10.7109375" style="11" customWidth="1"/>
+    <col min="21" max="22" width="10.7109375" style="12"/>
+    <col min="23" max="24" width="10.7109375" style="14"/>
+    <col min="25" max="26" width="10.7109375" style="12"/>
+    <col min="27" max="28" width="10.7109375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -907,61 +934,61 @@
       <c r="L2" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AB2" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -981,135 +1008,139 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
+      <c r="M3" s="8">
+        <v>1001</v>
+      </c>
+      <c r="O3" s="9">
+        <v>2001</v>
+      </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C4">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>26</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="9">
-        <v>1001</v>
-      </c>
-      <c r="O4" s="10">
-        <v>2001</v>
+      <c r="M4" s="8">
+        <v>1002</v>
+      </c>
+      <c r="O4" s="9">
+        <v>2002</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>26</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="9">
-        <v>1002</v>
-      </c>
-      <c r="O5" s="10">
-        <v>2002</v>
+      <c r="M5" s="8">
+        <v>1003</v>
+      </c>
+      <c r="O5" s="9">
+        <v>2003</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C6">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>26</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" s="9">
-        <v>1003</v>
-      </c>
-      <c r="O6" s="10">
-        <v>2003</v>
+      <c r="M6" s="8">
+        <v>1004</v>
+      </c>
+      <c r="O6" s="9">
+        <v>2004</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>26</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="9">
-        <v>1004</v>
-      </c>
-      <c r="O7" s="10">
-        <v>2004</v>
+      <c r="M7" s="8">
+        <v>1005</v>
+      </c>
+      <c r="O7" s="9">
+        <v>2005</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1120,28 +1151,28 @@
         <v>53</v>
       </c>
       <c r="C8">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>26</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="9">
-        <v>1005</v>
-      </c>
-      <c r="O8" s="10">
-        <v>2005</v>
+      <c r="M8" s="8">
+        <v>1006</v>
+      </c>
+      <c r="O8" s="9">
+        <v>2006</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1152,28 +1183,28 @@
         <v>53</v>
       </c>
       <c r="C9">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>26</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" s="9">
-        <v>1006</v>
-      </c>
-      <c r="O9" s="10">
-        <v>2006</v>
+      <c r="M9" s="8">
+        <v>1007</v>
+      </c>
+      <c r="O9" s="9">
+        <v>2007</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1184,45 +1215,45 @@
         <v>53</v>
       </c>
       <c r="C10">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>26</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="9">
-        <v>1007</v>
-      </c>
-      <c r="O10" s="10">
-        <v>2007</v>
+      <c r="M10" s="8">
+        <v>1008</v>
+      </c>
+      <c r="O10" s="9">
+        <v>2008</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>26</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1231,176 +1262,173 @@
         <v>4</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>1008</v>
-      </c>
-      <c r="O11" s="10">
-        <v>2008</v>
+        <v>1</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1009</v>
+      </c>
+      <c r="O11" s="9">
+        <v>1010</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>1011</v>
+      </c>
+      <c r="S11" s="11">
+        <v>1012</v>
+      </c>
+      <c r="U11" s="12">
+        <v>2009</v>
+      </c>
+      <c r="W11" s="14">
+        <v>2010</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>2011</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>2012</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>26</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>4</v>
-      </c>
-      <c r="L12">
+      <c r="K12" s="1">
         <v>1</v>
       </c>
-      <c r="M12" s="9">
-        <v>1009</v>
-      </c>
-      <c r="O12" s="10">
-        <v>1010</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>1011</v>
-      </c>
-      <c r="S12" s="12">
-        <v>1012</v>
-      </c>
-      <c r="U12" s="13">
-        <v>2009</v>
-      </c>
-      <c r="W12" s="15">
-        <v>2010</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>2011</v>
-      </c>
-      <c r="AA12" s="12">
-        <v>2012</v>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1013</v>
+      </c>
+      <c r="O12" s="9">
+        <v>2013</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
       </c>
       <c r="C13">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>26</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="9">
-        <v>1013</v>
-      </c>
-      <c r="O13" s="10">
-        <v>2013</v>
+      <c r="M13" s="8">
+        <v>1014</v>
+      </c>
+      <c r="O13" s="9">
+        <v>2014</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
       </c>
       <c r="C14">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>26</v>
       </c>
       <c r="I14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="9">
-        <v>1014</v>
-      </c>
-      <c r="O14" s="10">
-        <v>2014</v>
+      <c r="M14" s="8">
+        <v>1015</v>
+      </c>
+      <c r="O14" s="9">
+        <v>2015</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
       </c>
       <c r="C15">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>26</v>
       </c>
       <c r="I15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="9">
-        <v>1015</v>
-      </c>
-      <c r="O15" s="10">
-        <v>2015</v>
+      <c r="M15" s="8">
+        <v>1016</v>
+      </c>
+      <c r="O15" s="9">
+        <v>2016</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C16">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>26</v>
       </c>
       <c r="I16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1411,11 +1439,8 @@
       <c r="L16" s="1">
         <v>0</v>
       </c>
-      <c r="M16" s="9">
-        <v>1016</v>
-      </c>
-      <c r="O16" s="10">
-        <v>2016</v>
+      <c r="M16" s="8">
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
@@ -1426,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F412759-F70B-1343-9C94-8D49C9A91198}">
-  <dimension ref="A1:AV36"/>
+  <dimension ref="A1:AX37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1444,7 +1469,7 @@
     <col min="17" max="17" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:50">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1589,99 +1614,109 @@
       <c r="AV1">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:48">
-      <c r="D2" s="7" t="s">
+      <c r="AW1">
+        <v>49</v>
+      </c>
+      <c r="AX1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-    </row>
-    <row r="3" spans="1:48">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+    </row>
+    <row r="3" spans="1:50">
       <c r="D3" s="1"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="8" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8" t="s">
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8" t="s">
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8"/>
-    </row>
-    <row r="4" spans="1:48">
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+    </row>
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -1731,742 +1766,764 @@
       <c r="R4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AC4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AD4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AI4" s="6" t="s">
+      <c r="AK4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AL4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="6" t="s">
+      <c r="AM4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="6" t="s">
+      <c r="AN4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AO4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AQ4" s="4" t="s">
+      <c r="AS4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AR4" s="5" t="s">
+      <c r="AT4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AS4" s="6" t="s">
+      <c r="AU4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AT4" s="6" t="s">
+      <c r="AV4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AU4" s="6" t="s">
+      <c r="AW4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AV4" s="6" t="s">
+      <c r="AX4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:50">
+      <c r="A5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>1001</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16" t="s">
+      <c r="D5" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="16">
-        <v>-1</v>
-      </c>
-      <c r="J5" s="16">
-        <v>-1</v>
-      </c>
-      <c r="K5" s="16">
+      <c r="I5" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="15">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="15">
         <v>-99</v>
       </c>
-      <c r="L5" s="16">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N5" s="16">
+      <c r="L5" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="15">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="15">
         <v>100</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16">
-        <v>0</v>
-      </c>
-      <c r="T5" s="16">
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15">
+        <v>0</v>
+      </c>
+      <c r="V5" s="15">
         <v>3</v>
       </c>
-      <c r="U5" s="16">
-        <v>0</v>
-      </c>
-      <c r="V5" s="16">
+      <c r="W5" s="15">
+        <v>0</v>
+      </c>
+      <c r="X5" s="15">
         <v>10</v>
       </c>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="16"/>
-      <c r="AN5" s="16"/>
-      <c r="AO5" s="16"/>
-      <c r="AP5" s="16"/>
-      <c r="AQ5" s="16"/>
-      <c r="AR5" s="16"/>
-      <c r="AS5" s="16"/>
-      <c r="AT5" s="16"/>
-      <c r="AU5" s="16"/>
-      <c r="AV5" s="16"/>
-    </row>
-    <row r="6" spans="1:48">
-      <c r="A6" s="16" t="s">
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+    </row>
+    <row r="6" spans="1:50">
+      <c r="A6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>1002</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="D6" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="16">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="16">
-        <v>-1</v>
-      </c>
-      <c r="K6" s="16">
+      <c r="I6" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="15">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="15">
         <v>-99</v>
       </c>
-      <c r="L6" s="16">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N6" s="16">
+      <c r="L6" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="15">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="15">
         <v>100</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16">
-        <v>0</v>
-      </c>
-      <c r="T6" s="16">
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15">
+        <v>0</v>
+      </c>
+      <c r="V6" s="15">
         <v>3</v>
       </c>
-      <c r="U6" s="16">
-        <v>0</v>
-      </c>
-      <c r="V6" s="16">
+      <c r="W6" s="15">
+        <v>0</v>
+      </c>
+      <c r="X6" s="15">
         <v>20</v>
       </c>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
-    </row>
-    <row r="7" spans="1:48">
-      <c r="A7" s="16" t="s">
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+    </row>
+    <row r="7" spans="1:50">
+      <c r="A7" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>1003</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>3</v>
       </c>
-      <c r="D7" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="D7" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="16">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="16">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="16">
+      <c r="I7" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="15">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="15">
         <v>-99</v>
       </c>
-      <c r="L7" s="16">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N7" s="16">
+      <c r="L7" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="15">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="15">
         <v>100</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16">
-        <v>0</v>
-      </c>
-      <c r="T7" s="16">
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15">
+        <v>0</v>
+      </c>
+      <c r="V7" s="15">
         <v>3</v>
       </c>
-      <c r="U7" s="16">
-        <v>0</v>
-      </c>
-      <c r="V7" s="16">
+      <c r="W7" s="15">
+        <v>0</v>
+      </c>
+      <c r="X7" s="15">
         <v>30</v>
       </c>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="16"/>
-      <c r="AN7" s="16"/>
-      <c r="AO7" s="16"/>
-      <c r="AP7" s="16"/>
-      <c r="AQ7" s="16"/>
-      <c r="AR7" s="16"/>
-      <c r="AS7" s="16"/>
-      <c r="AT7" s="16"/>
-      <c r="AU7" s="16"/>
-      <c r="AV7" s="16"/>
-    </row>
-    <row r="8" spans="1:48">
-      <c r="A8" s="16" t="s">
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+    </row>
+    <row r="8" spans="1:50">
+      <c r="A8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>1004</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>4</v>
       </c>
-      <c r="D8" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="D8" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="16">
-        <v>-1</v>
-      </c>
-      <c r="J8" s="16">
-        <v>-1</v>
-      </c>
-      <c r="K8" s="16">
+      <c r="I8" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="15">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="15">
         <v>-99</v>
       </c>
-      <c r="L8" s="16">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N8" s="16">
+      <c r="L8" s="15">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="15">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="15">
         <v>100</v>
       </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16">
-        <v>0</v>
-      </c>
-      <c r="T8" s="16">
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15">
+        <v>0</v>
+      </c>
+      <c r="V8" s="15">
         <v>3</v>
       </c>
-      <c r="U8" s="16">
-        <v>0</v>
-      </c>
-      <c r="V8" s="16">
+      <c r="W8" s="15">
+        <v>0</v>
+      </c>
+      <c r="X8" s="15">
         <v>40</v>
       </c>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="16"/>
-      <c r="AP8" s="16"/>
-      <c r="AQ8" s="16"/>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="16"/>
-      <c r="AT8" s="16"/>
-      <c r="AU8" s="16"/>
-      <c r="AV8" s="16"/>
-    </row>
-    <row r="9" spans="1:48">
-      <c r="A9" s="16" t="s">
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="15"/>
+      <c r="AX8" s="15"/>
+    </row>
+    <row r="9" spans="1:50">
+      <c r="A9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>1005</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>1</v>
       </c>
-      <c r="D9" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
+      <c r="D9" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="16">
-        <v>-1</v>
-      </c>
-      <c r="J9" s="16">
-        <v>-1</v>
-      </c>
-      <c r="K9" s="16">
+      <c r="I9" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="15">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="15">
         <v>-99</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>-2</v>
       </c>
-      <c r="M9" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N9" s="16">
+      <c r="M9" s="15">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="15">
         <v>100</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16">
-        <v>0</v>
-      </c>
-      <c r="T9" s="16">
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15">
+        <v>0</v>
+      </c>
+      <c r="V9" s="15">
         <v>7</v>
       </c>
-      <c r="U9" s="16">
+      <c r="W9" s="15">
         <v>3</v>
       </c>
-      <c r="V9" s="16">
+      <c r="X9" s="15">
         <v>2</v>
       </c>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="16"/>
-      <c r="AP9" s="16"/>
-      <c r="AQ9" s="16"/>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="16"/>
-    </row>
-    <row r="10" spans="1:48">
-      <c r="A10" s="16" t="s">
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+    </row>
+    <row r="10" spans="1:50">
+      <c r="A10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>1006</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>2</v>
       </c>
-      <c r="D10" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="D10" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="16">
-        <v>-1</v>
-      </c>
-      <c r="J10" s="16">
-        <v>-1</v>
-      </c>
-      <c r="K10" s="16">
+      <c r="I10" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="15">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="15">
         <v>-99</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>-2</v>
       </c>
-      <c r="M10" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N10" s="16">
+      <c r="M10" s="15">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="15">
         <v>100</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16">
-        <v>0</v>
-      </c>
-      <c r="T10" s="16">
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15">
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
         <v>7</v>
       </c>
-      <c r="U10" s="16">
+      <c r="W10" s="15">
         <v>3</v>
       </c>
-      <c r="V10" s="16">
+      <c r="X10" s="15">
         <v>4</v>
       </c>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="16"/>
-    </row>
-    <row r="11" spans="1:48">
-      <c r="A11" s="16" t="s">
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+    </row>
+    <row r="11" spans="1:50">
+      <c r="A11" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>1007</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>3</v>
       </c>
-      <c r="D11" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="s">
+      <c r="D11" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="16">
-        <v>-1</v>
-      </c>
-      <c r="J11" s="16">
-        <v>-1</v>
-      </c>
-      <c r="K11" s="16">
+      <c r="I11" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="15">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="15">
         <v>-99</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>-2</v>
       </c>
-      <c r="M11" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N11" s="16">
+      <c r="M11" s="15">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="15">
         <v>100</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16">
-        <v>0</v>
-      </c>
-      <c r="T11" s="16">
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15">
+        <v>0</v>
+      </c>
+      <c r="V11" s="15">
         <v>7</v>
       </c>
-      <c r="U11" s="16">
+      <c r="W11" s="15">
         <v>3</v>
       </c>
-      <c r="V11" s="16">
+      <c r="X11" s="15">
         <v>6</v>
       </c>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
-      <c r="AM11" s="16"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="16"/>
-      <c r="AP11" s="16"/>
-      <c r="AQ11" s="16"/>
-      <c r="AR11" s="16"/>
-      <c r="AS11" s="16"/>
-      <c r="AT11" s="16"/>
-      <c r="AU11" s="16"/>
-      <c r="AV11" s="16"/>
-    </row>
-    <row r="12" spans="1:48">
-      <c r="A12" s="16" t="s">
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15"/>
+      <c r="AX11" s="15"/>
+    </row>
+    <row r="12" spans="1:50">
+      <c r="A12" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>1008</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>4</v>
       </c>
-      <c r="D12" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16" t="s">
+      <c r="D12" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="16">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="16">
-        <v>-1</v>
-      </c>
-      <c r="K12" s="16">
+      <c r="I12" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="15">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="15">
         <v>-99</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>-2</v>
       </c>
-      <c r="M12" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="16">
+      <c r="M12" s="15">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="15">
         <v>100</v>
       </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16">
-        <v>0</v>
-      </c>
-      <c r="T12" s="16">
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15">
+        <v>0</v>
+      </c>
+      <c r="V12" s="15">
         <v>7</v>
       </c>
-      <c r="U12" s="16">
+      <c r="W12" s="15">
         <v>3</v>
       </c>
-      <c r="V12" s="16">
+      <c r="X12" s="15">
         <v>8</v>
       </c>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="16"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="16"/>
-      <c r="AP12" s="16"/>
-      <c r="AQ12" s="16"/>
-      <c r="AR12" s="16"/>
-      <c r="AS12" s="16"/>
-      <c r="AT12" s="16"/>
-      <c r="AU12" s="16"/>
-      <c r="AV12" s="16"/>
-    </row>
-    <row r="13" spans="1:48">
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15"/>
+    </row>
+    <row r="13" spans="1:50">
       <c r="A13" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>1009</v>
       </c>
       <c r="C13">
@@ -2496,15 +2553,24 @@
       <c r="N13">
         <v>100</v>
       </c>
-      <c r="V13">
+      <c r="U13" s="15">
+        <v>8</v>
+      </c>
+      <c r="V13" s="15">
+        <v>5</v>
+      </c>
+      <c r="W13" s="15">
+        <v>0</v>
+      </c>
+      <c r="X13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:50">
       <c r="A14" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>1010</v>
       </c>
       <c r="C14">
@@ -2534,15 +2600,24 @@
       <c r="N14">
         <v>100</v>
       </c>
-      <c r="V14">
+      <c r="U14" s="15">
+        <v>8</v>
+      </c>
+      <c r="V14" s="15">
+        <v>5</v>
+      </c>
+      <c r="W14" s="15">
+        <v>0</v>
+      </c>
+      <c r="X14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:50">
       <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>1011</v>
       </c>
       <c r="C15">
@@ -2572,15 +2647,24 @@
       <c r="N15">
         <v>100</v>
       </c>
-      <c r="V15">
+      <c r="U15" s="15">
+        <v>8</v>
+      </c>
+      <c r="V15" s="15">
+        <v>5</v>
+      </c>
+      <c r="W15" s="15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:50">
       <c r="A16" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>1012</v>
       </c>
       <c r="C16">
@@ -2610,15 +2694,24 @@
       <c r="N16">
         <v>100</v>
       </c>
-      <c r="V16">
+      <c r="U16" s="15">
+        <v>8</v>
+      </c>
+      <c r="V16" s="15">
+        <v>5</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
+      <c r="X16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>1013</v>
       </c>
       <c r="C17">
@@ -2655,11 +2748,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>1014</v>
       </c>
       <c r="C18">
@@ -2696,11 +2789,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>1015</v>
       </c>
       <c r="C19">
@@ -2737,11 +2830,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>1016</v>
       </c>
       <c r="C20">
@@ -2778,11 +2871,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>2001</v>
       </c>
       <c r="C21">
@@ -2816,11 +2909,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>2002</v>
       </c>
       <c r="C22">
@@ -2854,11 +2947,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>2003</v>
       </c>
       <c r="C23">
@@ -2892,11 +2985,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:24">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>2004</v>
       </c>
       <c r="C24">
@@ -2930,11 +3023,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>2005</v>
       </c>
       <c r="C25">
@@ -2968,11 +3061,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>2006</v>
       </c>
       <c r="C26">
@@ -3006,11 +3099,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>2007</v>
       </c>
       <c r="C27">
@@ -3044,11 +3137,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>2008</v>
       </c>
       <c r="C28">
@@ -3082,11 +3175,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>2009</v>
       </c>
       <c r="C29">
@@ -3116,15 +3209,24 @@
       <c r="N29">
         <v>100</v>
       </c>
-      <c r="V29">
+      <c r="U29" s="15">
+        <v>8</v>
+      </c>
+      <c r="V29" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29" s="15">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>2010</v>
       </c>
       <c r="C30">
@@ -3154,15 +3256,24 @@
       <c r="N30">
         <v>100</v>
       </c>
-      <c r="V30">
+      <c r="U30" s="15">
+        <v>8</v>
+      </c>
+      <c r="V30" s="15">
+        <v>5</v>
+      </c>
+      <c r="W30" s="15">
+        <v>0</v>
+      </c>
+      <c r="X30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>2011</v>
       </c>
       <c r="C31">
@@ -3192,15 +3303,24 @@
       <c r="N31">
         <v>100</v>
       </c>
-      <c r="V31">
+      <c r="U31" s="15">
+        <v>8</v>
+      </c>
+      <c r="V31" s="15">
+        <v>5</v>
+      </c>
+      <c r="W31" s="15">
+        <v>0</v>
+      </c>
+      <c r="X31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>2012</v>
       </c>
       <c r="C32">
@@ -3230,338 +3350,394 @@
       <c r="N32">
         <v>100</v>
       </c>
-      <c r="V32">
+      <c r="U32" s="15">
+        <v>8</v>
+      </c>
+      <c r="V32" s="15">
+        <v>5</v>
+      </c>
+      <c r="W32" s="15">
+        <v>0</v>
+      </c>
+      <c r="X32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:50">
+      <c r="A33" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="17">
         <v>2013</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="15">
         <v>1</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="15">
         <v>4</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16" t="s">
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="16">
-        <v>-1</v>
-      </c>
-      <c r="J33" s="16">
-        <v>-1</v>
-      </c>
-      <c r="K33" s="16">
+      <c r="I33" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J33" s="15">
+        <v>-1</v>
+      </c>
+      <c r="K33" s="15">
         <v>-99</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="15">
         <v>-2</v>
       </c>
-      <c r="M33" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N33" s="16">
+      <c r="M33" s="15">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="15">
         <v>100</v>
       </c>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16">
-        <v>0</v>
-      </c>
-      <c r="T33" s="16">
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15">
+        <v>0</v>
+      </c>
+      <c r="V33" s="15">
         <v>2</v>
       </c>
-      <c r="U33" s="16">
-        <v>0</v>
-      </c>
-      <c r="V33" s="16">
+      <c r="W33" s="15">
+        <v>0</v>
+      </c>
+      <c r="X33" s="15">
         <v>5</v>
       </c>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="16"/>
-      <c r="AH33" s="16"/>
-      <c r="AI33" s="16"/>
-      <c r="AJ33" s="16"/>
-      <c r="AK33" s="16"/>
-      <c r="AL33" s="16"/>
-      <c r="AM33" s="16"/>
-      <c r="AN33" s="16"/>
-      <c r="AO33" s="16"/>
-      <c r="AP33" s="16"/>
-      <c r="AQ33" s="16"/>
-      <c r="AR33" s="16"/>
-      <c r="AS33" s="16"/>
-      <c r="AT33" s="16"/>
-      <c r="AU33" s="16"/>
-      <c r="AV33" s="16"/>
-    </row>
-    <row r="34" spans="1:48">
-      <c r="A34" s="16" t="s">
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="15"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="15"/>
+      <c r="AN33" s="15"/>
+      <c r="AO33" s="15"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="15"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+    </row>
+    <row r="34" spans="1:50">
+      <c r="A34" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="17">
         <v>2014</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="15">
         <v>2</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="15">
         <v>4</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16" t="s">
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="16">
-        <v>-1</v>
-      </c>
-      <c r="J34" s="16">
-        <v>-1</v>
-      </c>
-      <c r="K34" s="16">
+      <c r="I34" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J34" s="15">
+        <v>-1</v>
+      </c>
+      <c r="K34" s="15">
         <v>-99</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="15">
         <v>-2</v>
       </c>
-      <c r="M34" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N34" s="16">
+      <c r="M34" s="15">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="15">
         <v>100</v>
       </c>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16">
-        <v>0</v>
-      </c>
-      <c r="T34" s="16">
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15">
+        <v>0</v>
+      </c>
+      <c r="V34" s="15">
         <v>2</v>
       </c>
-      <c r="U34" s="16">
-        <v>0</v>
-      </c>
-      <c r="V34" s="16">
+      <c r="W34" s="15">
+        <v>0</v>
+      </c>
+      <c r="X34" s="15">
         <v>10</v>
       </c>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="16"/>
-      <c r="AG34" s="16"/>
-      <c r="AH34" s="16"/>
-      <c r="AI34" s="16"/>
-      <c r="AJ34" s="16"/>
-      <c r="AK34" s="16"/>
-      <c r="AL34" s="16"/>
-      <c r="AM34" s="16"/>
-      <c r="AN34" s="16"/>
-      <c r="AO34" s="16"/>
-      <c r="AP34" s="16"/>
-      <c r="AQ34" s="16"/>
-      <c r="AR34" s="16"/>
-      <c r="AS34" s="16"/>
-      <c r="AT34" s="16"/>
-      <c r="AU34" s="16"/>
-      <c r="AV34" s="16"/>
-    </row>
-    <row r="35" spans="1:48">
-      <c r="A35" s="16" t="s">
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="15"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="15"/>
+      <c r="AN34" s="15"/>
+      <c r="AO34" s="15"/>
+      <c r="AP34" s="15"/>
+      <c r="AQ34" s="15"/>
+      <c r="AR34" s="15"/>
+      <c r="AS34" s="15"/>
+      <c r="AT34" s="15"/>
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="15"/>
+      <c r="AX34" s="15"/>
+    </row>
+    <row r="35" spans="1:50">
+      <c r="A35" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="17">
         <v>2015</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="15">
         <v>3</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="15">
         <v>4</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16" t="s">
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="16">
-        <v>-1</v>
-      </c>
-      <c r="J35" s="16">
-        <v>-1</v>
-      </c>
-      <c r="K35" s="16">
+      <c r="I35" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="15">
+        <v>-1</v>
+      </c>
+      <c r="K35" s="15">
         <v>-99</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="15">
         <v>-2</v>
       </c>
-      <c r="M35" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N35" s="16">
+      <c r="M35" s="15">
+        <v>-1</v>
+      </c>
+      <c r="N35" s="15">
         <v>100</v>
       </c>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16">
-        <v>0</v>
-      </c>
-      <c r="T35" s="16">
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
         <v>2</v>
       </c>
-      <c r="U35" s="16">
-        <v>0</v>
-      </c>
-      <c r="V35" s="16">
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+      <c r="X35" s="15">
         <v>15</v>
       </c>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
-      <c r="AG35" s="16"/>
-      <c r="AH35" s="16"/>
-      <c r="AI35" s="16"/>
-      <c r="AJ35" s="16"/>
-      <c r="AK35" s="16"/>
-      <c r="AL35" s="16"/>
-      <c r="AM35" s="16"/>
-      <c r="AN35" s="16"/>
-      <c r="AO35" s="16"/>
-      <c r="AP35" s="16"/>
-      <c r="AQ35" s="16"/>
-      <c r="AR35" s="16"/>
-      <c r="AS35" s="16"/>
-      <c r="AT35" s="16"/>
-      <c r="AU35" s="16"/>
-      <c r="AV35" s="16"/>
-    </row>
-    <row r="36" spans="1:48">
-      <c r="A36" s="16" t="s">
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="15"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="15"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="15"/>
+      <c r="AN35" s="15"/>
+      <c r="AO35" s="15"/>
+      <c r="AP35" s="15"/>
+      <c r="AQ35" s="15"/>
+      <c r="AR35" s="15"/>
+      <c r="AS35" s="15"/>
+      <c r="AT35" s="15"/>
+      <c r="AU35" s="15"/>
+      <c r="AV35" s="15"/>
+      <c r="AW35" s="15"/>
+      <c r="AX35" s="15"/>
+    </row>
+    <row r="36" spans="1:50">
+      <c r="A36" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="17">
         <v>2016</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="15">
         <v>4</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="15">
         <v>4</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16" t="s">
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="16">
-        <v>-1</v>
-      </c>
-      <c r="J36" s="16">
-        <v>-1</v>
-      </c>
-      <c r="K36" s="16">
+      <c r="I36" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J36" s="15">
+        <v>-1</v>
+      </c>
+      <c r="K36" s="15">
         <v>-99</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="15">
         <v>-2</v>
       </c>
-      <c r="M36" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N36" s="16">
+      <c r="M36" s="15">
+        <v>-1</v>
+      </c>
+      <c r="N36" s="15">
         <v>100</v>
       </c>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16">
-        <v>0</v>
-      </c>
-      <c r="T36" s="16">
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15">
+        <v>0</v>
+      </c>
+      <c r="V36" s="15">
         <v>2</v>
       </c>
-      <c r="U36" s="16">
-        <v>0</v>
-      </c>
-      <c r="V36" s="16">
+      <c r="W36" s="15">
+        <v>0</v>
+      </c>
+      <c r="X36" s="15">
         <v>20</v>
       </c>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
-      <c r="AC36" s="16"/>
-      <c r="AD36" s="16"/>
-      <c r="AE36" s="16"/>
-      <c r="AF36" s="16"/>
-      <c r="AG36" s="16"/>
-      <c r="AH36" s="16"/>
-      <c r="AI36" s="16"/>
-      <c r="AJ36" s="16"/>
-      <c r="AK36" s="16"/>
-      <c r="AL36" s="16"/>
-      <c r="AM36" s="16"/>
-      <c r="AN36" s="16"/>
-      <c r="AO36" s="16"/>
-      <c r="AP36" s="16"/>
-      <c r="AQ36" s="16"/>
-      <c r="AR36" s="16"/>
-      <c r="AS36" s="16"/>
-      <c r="AT36" s="16"/>
-      <c r="AU36" s="16"/>
-      <c r="AV36" s="16"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="15"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="15"/>
+      <c r="AR36" s="15"/>
+      <c r="AS36" s="15"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+    </row>
+    <row r="37" spans="1:50">
+      <c r="A37" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="20">
+        <v>1017</v>
+      </c>
+      <c r="C37" s="15">
+        <v>4</v>
+      </c>
+      <c r="D37" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="H37" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J37" s="15">
+        <v>-1</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-99</v>
+      </c>
+      <c r="L37" s="15">
+        <v>-2</v>
+      </c>
+      <c r="M37" s="15">
+        <v>-1</v>
+      </c>
+      <c r="N37" s="15">
+        <v>100</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D2:AB2"/>
+    <mergeCell ref="D2:AD2"/>
+    <mergeCell ref="U3:AD3"/>
+    <mergeCell ref="AE3:AN3"/>
+    <mergeCell ref="AO3:AX3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:R3"/>
-    <mergeCell ref="S3:AB3"/>
-    <mergeCell ref="AC3:AL3"/>
-    <mergeCell ref="AM3:AV3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tee System/TeeConfig.xlsx
+++ b/Tee System/TeeConfig.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tee System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2389069-8B14-1040-95BC-F50FCA3DFFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBF81FD-FB0F-C442-AC5E-0AA85D2F1100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-480" yWindow="-20500" windowWidth="33600" windowHeight="18780" activeTab="2" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
+    <workbookView xWindow="-480" yWindow="-20500" windowWidth="33600" windowHeight="18780" activeTab="3" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
     <sheet name="技能表" sheetId="2" r:id="rId2"/>
     <sheet name="Prize表" sheetId="3" r:id="rId3"/>
+    <sheet name="Research" sheetId="4" r:id="rId4"/>
+    <sheet name="链式礼包规划" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="161">
   <si>
     <t>Notes</t>
   </si>
@@ -351,6 +353,174 @@
   </si>
   <si>
     <t>extra_balls</t>
+  </si>
+  <si>
+    <t>Royale Match Endless Treasure</t>
+  </si>
+  <si>
+    <t>锤子*1</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>100金币</t>
+  </si>
+  <si>
+    <t>白银宝箱</t>
+  </si>
+  <si>
+    <t>第一屏</t>
+  </si>
+  <si>
+    <t>金币*3000</t>
+  </si>
+  <si>
+    <t>TNT*1</t>
+  </si>
+  <si>
+    <t>紫色银宝箱</t>
+  </si>
+  <si>
+    <t>弓箭*1</t>
+  </si>
+  <si>
+    <t>火炮*1</t>
+  </si>
+  <si>
+    <t>魔术帽*1</t>
+  </si>
+  <si>
+    <t>（200金币 +  烟花*2 + TNT*2 + 万花筒*2）</t>
+  </si>
+  <si>
+    <t>$3.99</t>
+  </si>
+  <si>
+    <t>原则：</t>
+  </si>
+  <si>
+    <t>无论任何情况下，一屏只有一个付费口</t>
+  </si>
+  <si>
+    <t>奖励华丽↑ 价值↑ 礼包价格↑</t>
+  </si>
+  <si>
+    <t>紫色盒子*1</t>
+  </si>
+  <si>
+    <t>（锤子*1 + 弓箭*1 + 火炮*1 + 魔术帽*1）</t>
+  </si>
+  <si>
+    <t>4000金币</t>
+  </si>
+  <si>
+    <t>TNT*2</t>
+  </si>
+  <si>
+    <t>黄金宝箱</t>
+  </si>
+  <si>
+    <t>（烟花*1 + TNT*1 + 万花筒*1 + 魔术帽*1 ）</t>
+  </si>
+  <si>
+    <t>火炮*2</t>
+  </si>
+  <si>
+    <t>锤子*2</t>
+  </si>
+  <si>
+    <t>弓箭*2</t>
+  </si>
+  <si>
+    <t>皇室战争卖表情</t>
+  </si>
+  <si>
+    <t>Golf Clash 卖表情与球钉</t>
+  </si>
+  <si>
+    <t>打磨游戏感</t>
+  </si>
+  <si>
+    <t>5000金币</t>
+  </si>
+  <si>
+    <t>30min无限体力</t>
+  </si>
+  <si>
+    <t>魔术帽*2</t>
+  </si>
+  <si>
+    <t>30min无限烟花</t>
+  </si>
+  <si>
+    <t>30min无限万花筒</t>
+  </si>
+  <si>
+    <t>30min无限TNT</t>
+  </si>
+  <si>
+    <t>1000金币</t>
+  </si>
+  <si>
+    <t>$2.79</t>
+  </si>
+  <si>
+    <t>$6.99</t>
+  </si>
+  <si>
+    <t>$10.99</t>
+  </si>
+  <si>
+    <t>2000金币</t>
+  </si>
+  <si>
+    <t>万花筒*3</t>
+  </si>
+  <si>
+    <t>TNT*3</t>
+  </si>
+  <si>
+    <t>烟花*3</t>
+  </si>
+  <si>
+    <t>金币价值</t>
+  </si>
+  <si>
+    <t>Royale Match 价值比例</t>
+  </si>
+  <si>
+    <t>unit价值</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>万花筒</t>
+  </si>
+  <si>
+    <t>TNT</t>
+  </si>
+  <si>
+    <t>烟花</t>
+  </si>
+  <si>
+    <t>锤子</t>
+  </si>
+  <si>
+    <t>魔法帽子</t>
+  </si>
+  <si>
+    <t>火炮</t>
+  </si>
+  <si>
+    <t>弓箭</t>
+  </si>
+  <si>
+    <t>价值比例</t>
+  </si>
+  <si>
+    <t>购买之后可获得总价值-算上免费</t>
   </si>
 </sst>
 </file>
@@ -382,7 +552,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +595,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -453,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -466,17 +654,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,7 +986,7 @@
   <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1553,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F412759-F70B-1343-9C94-8D49C9A91198}">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1636,13 +1828,13 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
@@ -1657,19 +1849,19 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J3" t="s">
@@ -1709,1066 +1901,1066 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="15" customFormat="1">
-      <c r="A4" s="17">
+    <row r="4" spans="1:21" s="13" customFormat="1">
+      <c r="A4" s="15">
         <v>1001</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="15">
+      <c r="D4" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="13">
         <v>10001</v>
       </c>
-      <c r="K4" s="15" t="str">
+      <c r="K4" s="13" t="str">
         <f>IF(J4&lt;&gt;"",VLOOKUP(J4,Prize表!A:B,2,FALSE),"")</f>
         <v>birde - 金币10</v>
       </c>
-      <c r="M4" s="15" t="str">
+      <c r="M4" s="13" t="str">
         <f>IF(L4&lt;&gt;"",VLOOKUP(L4,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O4" s="15" t="str">
+      <c r="O4" s="13" t="str">
         <f>IF(N4&lt;&gt;"",VLOOKUP(N4,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q4" s="15" t="str">
+      <c r="Q4" s="13" t="str">
         <f>IF(P4&lt;&gt;"",VLOOKUP(P4,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:21" s="15" customFormat="1">
-      <c r="A5" s="17">
+    <row r="5" spans="1:21" s="13" customFormat="1">
+      <c r="A5" s="15">
         <v>1002</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>2</v>
       </c>
-      <c r="D5" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="15">
+      <c r="D5" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="13">
         <v>10002</v>
       </c>
-      <c r="K5" s="15" t="str">
+      <c r="K5" s="13" t="str">
         <f>IF(J5&lt;&gt;"",VLOOKUP(J5,Prize表!A:B,2,FALSE),"")</f>
         <v>birde - 金币20</v>
       </c>
-      <c r="M5" s="15" t="str">
+      <c r="M5" s="13" t="str">
         <f>IF(L5&lt;&gt;"",VLOOKUP(L5,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O5" s="15" t="str">
+      <c r="O5" s="13" t="str">
         <f>IF(N5&lt;&gt;"",VLOOKUP(N5,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q5" s="15" t="str">
+      <c r="Q5" s="13" t="str">
         <f>IF(P5&lt;&gt;"",VLOOKUP(P5,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:21" s="15" customFormat="1">
-      <c r="A6" s="17">
+    <row r="6" spans="1:21" s="13" customFormat="1">
+      <c r="A6" s="15">
         <v>1003</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>3</v>
       </c>
-      <c r="D6" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="15">
+      <c r="D6" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="13">
         <v>10003</v>
       </c>
-      <c r="K6" s="15" t="str">
+      <c r="K6" s="13" t="str">
         <f>IF(J6&lt;&gt;"",VLOOKUP(J6,Prize表!A:B,2,FALSE),"")</f>
         <v>birde - 金币30</v>
       </c>
-      <c r="M6" s="15" t="str">
+      <c r="M6" s="13" t="str">
         <f>IF(L6&lt;&gt;"",VLOOKUP(L6,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O6" s="15" t="str">
+      <c r="O6" s="13" t="str">
         <f>IF(N6&lt;&gt;"",VLOOKUP(N6,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q6" s="15" t="str">
+      <c r="Q6" s="13" t="str">
         <f>IF(P6&lt;&gt;"",VLOOKUP(P6,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:21" s="15" customFormat="1">
-      <c r="A7" s="17">
+    <row r="7" spans="1:21" s="13" customFormat="1">
+      <c r="A7" s="15">
         <v>1004</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>4</v>
       </c>
-      <c r="D7" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="15">
+      <c r="D7" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="13">
         <v>10004</v>
       </c>
-      <c r="K7" s="15" t="str">
+      <c r="K7" s="13" t="str">
         <f>IF(J7&lt;&gt;"",VLOOKUP(J7,Prize表!A:B,2,FALSE),"")</f>
         <v>birde - 金币40</v>
       </c>
-      <c r="M7" s="15" t="str">
+      <c r="M7" s="13" t="str">
         <f>IF(L7&lt;&gt;"",VLOOKUP(L7,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O7" s="15" t="str">
+      <c r="O7" s="13" t="str">
         <f>IF(N7&lt;&gt;"",VLOOKUP(N7,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q7" s="15" t="str">
+      <c r="Q7" s="13" t="str">
         <f>IF(P7&lt;&gt;"",VLOOKUP(P7,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:21" s="15" customFormat="1">
-      <c r="A8" s="17">
+    <row r="8" spans="1:21" s="13" customFormat="1">
+      <c r="A8" s="15">
         <v>1005</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="15">
+      <c r="D8" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="13">
         <v>10005</v>
       </c>
-      <c r="K8" s="15" t="str">
+      <c r="K8" s="13" t="str">
         <f>IF(J8&lt;&gt;"",VLOOKUP(J8,Prize表!A:B,2,FALSE),"")</f>
         <v>Eagle - 额外紫卡1</v>
       </c>
-      <c r="M8" s="15" t="str">
+      <c r="M8" s="13" t="str">
         <f>IF(L8&lt;&gt;"",VLOOKUP(L8,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O8" s="15" t="str">
+      <c r="O8" s="13" t="str">
         <f>IF(N8&lt;&gt;"",VLOOKUP(N8,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q8" s="15" t="str">
+      <c r="Q8" s="13" t="str">
         <f>IF(P8&lt;&gt;"",VLOOKUP(P8,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:21" s="15" customFormat="1">
-      <c r="A9" s="17">
+    <row r="9" spans="1:21" s="13" customFormat="1">
+      <c r="A9" s="15">
         <v>1006</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>2</v>
       </c>
-      <c r="D9" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="15">
+      <c r="D9" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="13">
         <v>10006</v>
       </c>
-      <c r="K9" s="15" t="str">
+      <c r="K9" s="13" t="str">
         <f>IF(J9&lt;&gt;"",VLOOKUP(J9,Prize表!A:B,2,FALSE),"")</f>
         <v>Eagle - 额外紫卡2</v>
       </c>
-      <c r="M9" s="15" t="str">
+      <c r="M9" s="13" t="str">
         <f>IF(L9&lt;&gt;"",VLOOKUP(L9,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O9" s="15" t="str">
+      <c r="O9" s="13" t="str">
         <f>IF(N9&lt;&gt;"",VLOOKUP(N9,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q9" s="15" t="str">
+      <c r="Q9" s="13" t="str">
         <f>IF(P9&lt;&gt;"",VLOOKUP(P9,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:21" s="15" customFormat="1">
-      <c r="A10" s="17">
+    <row r="10" spans="1:21" s="13" customFormat="1">
+      <c r="A10" s="15">
         <v>1007</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>3</v>
       </c>
-      <c r="D10" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="15">
+      <c r="D10" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="13">
         <v>10007</v>
       </c>
-      <c r="K10" s="15" t="str">
+      <c r="K10" s="13" t="str">
         <f>IF(J10&lt;&gt;"",VLOOKUP(J10,Prize表!A:B,2,FALSE),"")</f>
         <v>Eagle - 额外紫卡3</v>
       </c>
-      <c r="M10" s="15" t="str">
+      <c r="M10" s="13" t="str">
         <f>IF(L10&lt;&gt;"",VLOOKUP(L10,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O10" s="15" t="str">
+      <c r="O10" s="13" t="str">
         <f>IF(N10&lt;&gt;"",VLOOKUP(N10,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="15" t="str">
+      <c r="Q10" s="13" t="str">
         <f>IF(P10&lt;&gt;"",VLOOKUP(P10,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:21" s="15" customFormat="1">
-      <c r="A11" s="17">
+    <row r="11" spans="1:21" s="13" customFormat="1">
+      <c r="A11" s="15">
         <v>1008</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>4</v>
       </c>
-      <c r="D11" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="15">
+      <c r="D11" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="13">
         <v>10008</v>
       </c>
-      <c r="K11" s="15" t="str">
+      <c r="K11" s="13" t="str">
         <f>IF(J11&lt;&gt;"",VLOOKUP(J11,Prize表!A:B,2,FALSE),"")</f>
         <v>Eagle - 额外紫卡4</v>
       </c>
-      <c r="M11" s="15" t="str">
+      <c r="M11" s="13" t="str">
         <f>IF(L11&lt;&gt;"",VLOOKUP(L11,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O11" s="15" t="str">
+      <c r="O11" s="13" t="str">
         <f>IF(N11&lt;&gt;"",VLOOKUP(N11,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q11" s="15" t="str">
+      <c r="Q11" s="13" t="str">
         <f>IF(P11&lt;&gt;"",VLOOKUP(P11,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:21" s="15" customFormat="1">
-      <c r="A12" s="17">
+    <row r="12" spans="1:21" s="13" customFormat="1">
+      <c r="A12" s="15">
         <v>1009</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>3</v>
       </c>
-      <c r="D12" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="15">
+      <c r="D12" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="13">
         <v>10009</v>
       </c>
-      <c r="K12" s="15" t="str">
+      <c r="K12" s="13" t="str">
         <f>IF(J12&lt;&gt;"",VLOOKUP(J12,Prize表!A:B,2,FALSE),"")</f>
         <v>HOLE IN ONE- 激励球 4</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="13">
         <v>10010</v>
       </c>
-      <c r="M12" s="15" t="str">
+      <c r="M12" s="13" t="str">
         <f>IF(L12&lt;&gt;"",VLOOKUP(L12,Prize表!A:B,2,FALSE),"")</f>
         <v>Albatross - 激励球 3</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="13">
         <v>10011</v>
       </c>
-      <c r="O12" s="15" t="str">
+      <c r="O12" s="13" t="str">
         <f>IF(N12&lt;&gt;"",VLOOKUP(N12,Prize表!A:B,2,FALSE),"")</f>
         <v>Eagle - 激励球 2</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="13">
         <v>10012</v>
       </c>
-      <c r="Q12" s="15" t="str">
+      <c r="Q12" s="13" t="str">
         <f>IF(P12&lt;&gt;"",VLOOKUP(P12,Prize表!A:B,2,FALSE),"")</f>
         <v>birde - 激励球 1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="15" customFormat="1">
-      <c r="A13" s="17">
+    <row r="13" spans="1:21" s="13" customFormat="1">
+      <c r="A13" s="15">
         <v>1010</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>1</v>
       </c>
-      <c r="D13" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="15">
         <v>5</v>
       </c>
-      <c r="K13" s="15" t="str">
+      <c r="K13" s="13" t="str">
         <f>IF(J13&lt;&gt;"",VLOOKUP(J13,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M13" s="15" t="str">
+      <c r="M13" s="13" t="str">
         <f>IF(L13&lt;&gt;"",VLOOKUP(L13,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O13" s="15" t="str">
+      <c r="O13" s="13" t="str">
         <f>IF(N13&lt;&gt;"",VLOOKUP(N13,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q13" s="15" t="str">
+      <c r="Q13" s="13" t="str">
         <f>IF(P13&lt;&gt;"",VLOOKUP(P13,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:21" s="15" customFormat="1">
-      <c r="A14" s="17">
+    <row r="14" spans="1:21" s="13" customFormat="1">
+      <c r="A14" s="15">
         <v>1011</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>2</v>
       </c>
-      <c r="D14" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="15">
         <v>10</v>
       </c>
-      <c r="K14" s="15" t="str">
+      <c r="K14" s="13" t="str">
         <f>IF(J14&lt;&gt;"",VLOOKUP(J14,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M14" s="15" t="str">
+      <c r="M14" s="13" t="str">
         <f>IF(L14&lt;&gt;"",VLOOKUP(L14,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O14" s="15" t="str">
+      <c r="O14" s="13" t="str">
         <f>IF(N14&lt;&gt;"",VLOOKUP(N14,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q14" s="15" t="str">
+      <c r="Q14" s="13" t="str">
         <f>IF(P14&lt;&gt;"",VLOOKUP(P14,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:21" s="15" customFormat="1">
-      <c r="A15" s="17">
+    <row r="15" spans="1:21" s="13" customFormat="1">
+      <c r="A15" s="15">
         <v>1012</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <v>3</v>
       </c>
-      <c r="D15" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="15">
         <v>15</v>
       </c>
-      <c r="K15" s="15" t="str">
+      <c r="K15" s="13" t="str">
         <f>IF(J15&lt;&gt;"",VLOOKUP(J15,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M15" s="15" t="str">
+      <c r="M15" s="13" t="str">
         <f>IF(L15&lt;&gt;"",VLOOKUP(L15,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O15" s="15" t="str">
+      <c r="O15" s="13" t="str">
         <f>IF(N15&lt;&gt;"",VLOOKUP(N15,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q15" s="15" t="str">
+      <c r="Q15" s="13" t="str">
         <f>IF(P15&lt;&gt;"",VLOOKUP(P15,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:21" s="15" customFormat="1">
-      <c r="A16" s="17">
+    <row r="16" spans="1:21" s="13" customFormat="1">
+      <c r="A16" s="15">
         <v>1013</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <v>4</v>
       </c>
-      <c r="D16" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="15">
         <v>20</v>
       </c>
-      <c r="K16" s="15" t="str">
+      <c r="K16" s="13" t="str">
         <f>IF(J16&lt;&gt;"",VLOOKUP(J16,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M16" s="15" t="str">
+      <c r="M16" s="13" t="str">
         <f>IF(L16&lt;&gt;"",VLOOKUP(L16,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O16" s="15" t="str">
+      <c r="O16" s="13" t="str">
         <f>IF(N16&lt;&gt;"",VLOOKUP(N16,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q16" s="15" t="str">
+      <c r="Q16" s="13" t="str">
         <f>IF(P16&lt;&gt;"",VLOOKUP(P16,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:17" s="15" customFormat="1">
-      <c r="A17" s="17">
+    <row r="17" spans="1:17" s="13" customFormat="1">
+      <c r="A17" s="15">
         <v>1014</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>4</v>
       </c>
-      <c r="D17" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="15">
+      <c r="D17" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="13">
         <v>10029</v>
       </c>
-      <c r="K17" s="15" t="str">
+      <c r="K17" s="13" t="str">
         <f>IF(J17&lt;&gt;"",VLOOKUP(J17,Prize表!A:B,2,FALSE),"")</f>
         <v>Eagle-返还球</v>
       </c>
-      <c r="M17" s="15" t="str">
+      <c r="M17" s="13" t="str">
         <f>IF(L17&lt;&gt;"",VLOOKUP(L17,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O17" s="15" t="str">
+      <c r="O17" s="13" t="str">
         <f>IF(N17&lt;&gt;"",VLOOKUP(N17,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q17" s="15" t="str">
+      <c r="Q17" s="13" t="str">
         <f>IF(P17&lt;&gt;"",VLOOKUP(P17,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:17" s="15" customFormat="1">
-      <c r="A18" s="18">
+    <row r="18" spans="1:17" s="13" customFormat="1">
+      <c r="A18" s="16">
         <v>2001</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>1</v>
       </c>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="15">
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="13">
         <v>10013</v>
       </c>
-      <c r="K18" s="15" t="str">
+      <c r="K18" s="13" t="str">
         <f>IF(J18&lt;&gt;"",VLOOKUP(J18,Prize表!A:B,2,FALSE),"")</f>
         <v>Stage 胜利 - 额外杯数</v>
       </c>
-      <c r="M18" s="15" t="str">
+      <c r="M18" s="13" t="str">
         <f>IF(L18&lt;&gt;"",VLOOKUP(L18,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O18" s="15" t="str">
+      <c r="O18" s="13" t="str">
         <f>IF(N18&lt;&gt;"",VLOOKUP(N18,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q18" s="15" t="str">
+      <c r="Q18" s="13" t="str">
         <f>IF(P18&lt;&gt;"",VLOOKUP(P18,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17" s="15" customFormat="1">
-      <c r="A19" s="18">
+    <row r="19" spans="1:17" s="13" customFormat="1">
+      <c r="A19" s="16">
         <v>2002</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>2</v>
       </c>
-      <c r="D19" s="15">
-        <v>0</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="15">
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="13">
         <v>10014</v>
       </c>
-      <c r="K19" s="15" t="str">
+      <c r="K19" s="13" t="str">
         <f>IF(J19&lt;&gt;"",VLOOKUP(J19,Prize表!A:B,2,FALSE),"")</f>
         <v>Stage 胜利 - 额外杯数</v>
       </c>
-      <c r="M19" s="15" t="str">
+      <c r="M19" s="13" t="str">
         <f>IF(L19&lt;&gt;"",VLOOKUP(L19,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O19" s="15" t="str">
+      <c r="O19" s="13" t="str">
         <f>IF(N19&lt;&gt;"",VLOOKUP(N19,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q19" s="15" t="str">
+      <c r="Q19" s="13" t="str">
         <f>IF(P19&lt;&gt;"",VLOOKUP(P19,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:17" s="15" customFormat="1">
-      <c r="A20" s="18">
+    <row r="20" spans="1:17" s="13" customFormat="1">
+      <c r="A20" s="16">
         <v>2003</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>3</v>
       </c>
-      <c r="D20" s="15">
-        <v>0</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="15">
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="13">
         <v>10015</v>
       </c>
-      <c r="K20" s="15" t="str">
+      <c r="K20" s="13" t="str">
         <f>IF(J20&lt;&gt;"",VLOOKUP(J20,Prize表!A:B,2,FALSE),"")</f>
         <v>Stage 胜利 - 额外杯数</v>
       </c>
-      <c r="M20" s="15" t="str">
+      <c r="M20" s="13" t="str">
         <f>IF(L20&lt;&gt;"",VLOOKUP(L20,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O20" s="15" t="str">
+      <c r="O20" s="13" t="str">
         <f>IF(N20&lt;&gt;"",VLOOKUP(N20,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q20" s="15" t="str">
+      <c r="Q20" s="13" t="str">
         <f>IF(P20&lt;&gt;"",VLOOKUP(P20,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17" s="15" customFormat="1">
-      <c r="A21" s="18">
+    <row r="21" spans="1:17" s="13" customFormat="1">
+      <c r="A21" s="16">
         <v>2004</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="13">
         <v>4</v>
       </c>
-      <c r="D21" s="15">
-        <v>0</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="15">
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="13">
         <v>10016</v>
       </c>
-      <c r="K21" s="15" t="str">
+      <c r="K21" s="13" t="str">
         <f>IF(J21&lt;&gt;"",VLOOKUP(J21,Prize表!A:B,2,FALSE),"")</f>
         <v>Stage 胜利 - 额外杯数</v>
       </c>
-      <c r="M21" s="15" t="str">
+      <c r="M21" s="13" t="str">
         <f>IF(L21&lt;&gt;"",VLOOKUP(L21,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O21" s="15" t="str">
+      <c r="O21" s="13" t="str">
         <f>IF(N21&lt;&gt;"",VLOOKUP(N21,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q21" s="15" t="str">
+      <c r="Q21" s="13" t="str">
         <f>IF(P21&lt;&gt;"",VLOOKUP(P21,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17" s="15" customFormat="1">
-      <c r="A22" s="18">
+    <row r="22" spans="1:17" s="13" customFormat="1">
+      <c r="A22" s="16">
         <v>2005</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>1</v>
       </c>
-      <c r="D22" s="15">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="15">
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="13">
         <v>10017</v>
       </c>
-      <c r="K22" s="15" t="str">
+      <c r="K22" s="13" t="str">
         <f>IF(J22&lt;&gt;"",VLOOKUP(J22,Prize表!A:B,2,FALSE),"")</f>
         <v xml:space="preserve">Stage - 失败 - 减少掉杯 </v>
       </c>
-      <c r="M22" s="15" t="str">
+      <c r="M22" s="13" t="str">
         <f>IF(L22&lt;&gt;"",VLOOKUP(L22,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O22" s="15" t="str">
+      <c r="O22" s="13" t="str">
         <f>IF(N22&lt;&gt;"",VLOOKUP(N22,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q22" s="15" t="str">
+      <c r="Q22" s="13" t="str">
         <f>IF(P22&lt;&gt;"",VLOOKUP(P22,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:17" s="15" customFormat="1">
-      <c r="A23" s="18">
+    <row r="23" spans="1:17" s="13" customFormat="1">
+      <c r="A23" s="16">
         <v>2006</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="13">
         <v>2</v>
       </c>
-      <c r="D23" s="15">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="15">
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="13">
         <v>10018</v>
       </c>
-      <c r="K23" s="15" t="str">
+      <c r="K23" s="13" t="str">
         <f>IF(J23&lt;&gt;"",VLOOKUP(J23,Prize表!A:B,2,FALSE),"")</f>
         <v xml:space="preserve">Stage - 失败 - 减少掉杯 </v>
       </c>
-      <c r="M23" s="15" t="str">
+      <c r="M23" s="13" t="str">
         <f>IF(L23&lt;&gt;"",VLOOKUP(L23,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O23" s="15" t="str">
+      <c r="O23" s="13" t="str">
         <f>IF(N23&lt;&gt;"",VLOOKUP(N23,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q23" s="15" t="str">
+      <c r="Q23" s="13" t="str">
         <f>IF(P23&lt;&gt;"",VLOOKUP(P23,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:17" s="15" customFormat="1">
-      <c r="A24" s="18">
+    <row r="24" spans="1:17" s="13" customFormat="1">
+      <c r="A24" s="16">
         <v>2007</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="13">
         <v>3</v>
       </c>
-      <c r="D24" s="15">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="15">
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="13">
         <v>10019</v>
       </c>
-      <c r="K24" s="15" t="str">
+      <c r="K24" s="13" t="str">
         <f>IF(J24&lt;&gt;"",VLOOKUP(J24,Prize表!A:B,2,FALSE),"")</f>
         <v xml:space="preserve">Stage - 失败 - 减少掉杯 </v>
       </c>
-      <c r="M24" s="15" t="str">
+      <c r="M24" s="13" t="str">
         <f>IF(L24&lt;&gt;"",VLOOKUP(L24,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O24" s="15" t="str">
+      <c r="O24" s="13" t="str">
         <f>IF(N24&lt;&gt;"",VLOOKUP(N24,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q24" s="15" t="str">
+      <c r="Q24" s="13" t="str">
         <f>IF(P24&lt;&gt;"",VLOOKUP(P24,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:17" s="15" customFormat="1">
-      <c r="A25" s="18">
+    <row r="25" spans="1:17" s="13" customFormat="1">
+      <c r="A25" s="16">
         <v>2008</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>4</v>
       </c>
-      <c r="D25" s="15">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="15">
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="13">
         <v>10020</v>
       </c>
-      <c r="K25" s="15" t="str">
+      <c r="K25" s="13" t="str">
         <f>IF(J25&lt;&gt;"",VLOOKUP(J25,Prize表!A:B,2,FALSE),"")</f>
         <v xml:space="preserve">Stage - 失败 - 减少掉杯 </v>
       </c>
-      <c r="M25" s="15" t="str">
+      <c r="M25" s="13" t="str">
         <f>IF(L25&lt;&gt;"",VLOOKUP(L25,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O25" s="15" t="str">
+      <c r="O25" s="13" t="str">
         <f>IF(N25&lt;&gt;"",VLOOKUP(N25,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q25" s="15" t="str">
+      <c r="Q25" s="13" t="str">
         <f>IF(P25&lt;&gt;"",VLOOKUP(P25,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:17" s="15" customFormat="1">
-      <c r="A26" s="18">
+    <row r="26" spans="1:17" s="13" customFormat="1">
+      <c r="A26" s="16">
         <v>2009</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="13">
         <v>4</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="13">
         <v>4</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="15">
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="13">
         <v>10021</v>
       </c>
-      <c r="K26" s="15" t="str">
+      <c r="K26" s="13" t="str">
         <f>IF(J26&lt;&gt;"",VLOOKUP(J26,Prize表!A:B,2,FALSE),"")</f>
         <v xml:space="preserve">Kingdom - HOLE_IN_ONE - 更多球 </v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="13">
         <v>10022</v>
       </c>
-      <c r="M26" s="15" t="str">
+      <c r="M26" s="13" t="str">
         <f>IF(L26&lt;&gt;"",VLOOKUP(L26,Prize表!A:B,2,FALSE),"")</f>
         <v>Kingdom - Albatross- 更多激励球</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="13">
         <v>10023</v>
       </c>
-      <c r="O26" s="15" t="str">
+      <c r="O26" s="13" t="str">
         <f>IF(N26&lt;&gt;"",VLOOKUP(N26,Prize表!A:B,2,FALSE),"")</f>
         <v>Kingdom - Eagle - 更多激励球</v>
       </c>
-      <c r="P26" s="15">
+      <c r="P26" s="13">
         <v>10024</v>
       </c>
-      <c r="Q26" s="15" t="str">
+      <c r="Q26" s="13" t="str">
         <f>IF(P26&lt;&gt;"",VLOOKUP(P26,Prize表!A:B,2,FALSE),"")</f>
         <v>Kingdom - Birde- 更多激励球</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="15" customFormat="1">
-      <c r="A27" s="18">
+    <row r="27" spans="1:17" s="13" customFormat="1">
+      <c r="A27" s="16">
         <v>2010</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="13">
         <v>1</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="13">
         <v>4</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="15">
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="13">
         <v>10025</v>
       </c>
-      <c r="K27" s="15" t="str">
+      <c r="K27" s="13" t="str">
         <f>IF(J27&lt;&gt;"",VLOOKUP(J27,Prize表!A:B,2,FALSE),"")</f>
         <v xml:space="preserve">Kingdom - eagle - 额外钻石 </v>
       </c>
-      <c r="M27" s="15" t="str">
+      <c r="M27" s="13" t="str">
         <f>IF(L27&lt;&gt;"",VLOOKUP(L27,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O27" s="15" t="str">
+      <c r="O27" s="13" t="str">
         <f>IF(N27&lt;&gt;"",VLOOKUP(N27,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q27" s="15" t="str">
+      <c r="Q27" s="13" t="str">
         <f>IF(P27&lt;&gt;"",VLOOKUP(P27,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:17" s="15" customFormat="1">
-      <c r="A28" s="18">
+    <row r="28" spans="1:17" s="13" customFormat="1">
+      <c r="A28" s="16">
         <v>2011</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="13">
         <v>2</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="13">
         <v>4</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="15">
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="13">
         <v>10026</v>
       </c>
-      <c r="K28" s="15" t="str">
+      <c r="K28" s="13" t="str">
         <f>IF(J28&lt;&gt;"",VLOOKUP(J28,Prize表!A:B,2,FALSE),"")</f>
         <v xml:space="preserve">Kingdom - eagle - 额外钻石 </v>
       </c>
-      <c r="M28" s="15" t="str">
+      <c r="M28" s="13" t="str">
         <f>IF(L28&lt;&gt;"",VLOOKUP(L28,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O28" s="15" t="str">
+      <c r="O28" s="13" t="str">
         <f>IF(N28&lt;&gt;"",VLOOKUP(N28,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q28" s="15" t="str">
+      <c r="Q28" s="13" t="str">
         <f>IF(P28&lt;&gt;"",VLOOKUP(P28,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:17" s="15" customFormat="1">
-      <c r="A29" s="18">
+    <row r="29" spans="1:17" s="13" customFormat="1">
+      <c r="A29" s="16">
         <v>2012</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="13">
         <v>3</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="13">
         <v>4</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="15">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="13">
         <v>10027</v>
       </c>
-      <c r="K29" s="15" t="str">
+      <c r="K29" s="13" t="str">
         <f>IF(J29&lt;&gt;"",VLOOKUP(J29,Prize表!A:B,2,FALSE),"")</f>
         <v xml:space="preserve">Kingdom - eagle - 额外钻石 </v>
       </c>
-      <c r="M29" s="15" t="str">
+      <c r="M29" s="13" t="str">
         <f>IF(L29&lt;&gt;"",VLOOKUP(L29,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O29" s="15" t="str">
+      <c r="O29" s="13" t="str">
         <f>IF(N29&lt;&gt;"",VLOOKUP(N29,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q29" s="15" t="str">
+      <c r="Q29" s="13" t="str">
         <f>IF(P29&lt;&gt;"",VLOOKUP(P29,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:17" s="15" customFormat="1">
-      <c r="A30" s="18">
+    <row r="30" spans="1:17" s="13" customFormat="1">
+      <c r="A30" s="16">
         <v>2013</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <v>4</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="13">
         <v>4</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="15">
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="13">
         <v>10028</v>
       </c>
-      <c r="K30" s="15" t="str">
+      <c r="K30" s="13" t="str">
         <f>IF(J30&lt;&gt;"",VLOOKUP(J30,Prize表!A:B,2,FALSE),"")</f>
         <v xml:space="preserve">Kingdom - eagle - 额外钻石 </v>
       </c>
-      <c r="M30" s="15" t="str">
+      <c r="M30" s="13" t="str">
         <f>IF(L30&lt;&gt;"",VLOOKUP(L30,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="O30" s="15" t="str">
+      <c r="O30" s="13" t="str">
         <f>IF(N30&lt;&gt;"",VLOOKUP(N30,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q30" s="15" t="str">
+      <c r="Q30" s="13" t="str">
         <f>IF(P30&lt;&gt;"",VLOOKUP(P30,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
@@ -2815,8 +3007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48244718-CD51-4E48-806A-17333515C088}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2907,12 +3099,12 @@
     </row>
     <row r="2" spans="1:23">
       <c r="S2"/>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
@@ -2985,1427 +3177,1427 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="15" customFormat="1">
-      <c r="A4" s="15">
+    <row r="4" spans="1:23" s="13" customFormat="1">
+      <c r="A4" s="13">
         <v>10001</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>3</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I4" s="15">
+      <c r="G4" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="13">
         <v>-99</v>
       </c>
-      <c r="J4" s="15">
-        <v>-1</v>
-      </c>
-      <c r="K4" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L4" s="15">
+      <c r="J4" s="13">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="13">
         <v>100</v>
       </c>
-      <c r="S4" s="16">
-        <v>0</v>
-      </c>
-      <c r="T4" s="16">
+      <c r="S4" s="14">
+        <v>0</v>
+      </c>
+      <c r="T4" s="14">
         <v>3</v>
       </c>
-      <c r="U4" s="16">
-        <v>0</v>
-      </c>
-      <c r="V4" s="16">
+      <c r="U4" s="14">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
         <v>10</v>
       </c>
-      <c r="W4" s="16"/>
-    </row>
-    <row r="5" spans="1:23" s="15" customFormat="1">
-      <c r="A5" s="15">
+      <c r="W4" s="14"/>
+    </row>
+    <row r="5" spans="1:23" s="13" customFormat="1">
+      <c r="A5" s="13">
         <v>10002</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>3</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I5" s="15">
+      <c r="G5" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="13">
         <v>-99</v>
       </c>
-      <c r="J5" s="15">
-        <v>-1</v>
-      </c>
-      <c r="K5" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L5" s="15">
+      <c r="J5" s="13">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="13">
         <v>100</v>
       </c>
-      <c r="S5" s="16">
-        <v>0</v>
-      </c>
-      <c r="T5" s="16">
+      <c r="S5" s="14">
+        <v>0</v>
+      </c>
+      <c r="T5" s="14">
         <v>3</v>
       </c>
-      <c r="U5" s="16">
-        <v>0</v>
-      </c>
-      <c r="V5" s="16">
+      <c r="U5" s="14">
+        <v>0</v>
+      </c>
+      <c r="V5" s="14">
         <v>20</v>
       </c>
-      <c r="W5" s="16"/>
-    </row>
-    <row r="6" spans="1:23" s="15" customFormat="1">
-      <c r="A6" s="15">
+      <c r="W5" s="14"/>
+    </row>
+    <row r="6" spans="1:23" s="13" customFormat="1">
+      <c r="A6" s="13">
         <v>10003</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>3</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="15">
+      <c r="G6" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="13">
         <v>-99</v>
       </c>
-      <c r="J6" s="15">
-        <v>-1</v>
-      </c>
-      <c r="K6" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L6" s="15">
+      <c r="J6" s="13">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="13">
         <v>100</v>
       </c>
-      <c r="S6" s="16">
-        <v>0</v>
-      </c>
-      <c r="T6" s="16">
+      <c r="S6" s="14">
+        <v>0</v>
+      </c>
+      <c r="T6" s="14">
         <v>3</v>
       </c>
-      <c r="U6" s="16">
-        <v>0</v>
-      </c>
-      <c r="V6" s="16">
+      <c r="U6" s="14">
+        <v>0</v>
+      </c>
+      <c r="V6" s="14">
         <v>30</v>
       </c>
-      <c r="W6" s="16"/>
-    </row>
-    <row r="7" spans="1:23" s="15" customFormat="1">
-      <c r="A7" s="15">
+      <c r="W6" s="14"/>
+    </row>
+    <row r="7" spans="1:23" s="13" customFormat="1">
+      <c r="A7" s="13">
         <v>10004</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>3</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="15">
+      <c r="G7" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="13">
         <v>-99</v>
       </c>
-      <c r="J7" s="15">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L7" s="15">
+      <c r="J7" s="13">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="13">
         <v>100</v>
       </c>
-      <c r="S7" s="16">
-        <v>0</v>
-      </c>
-      <c r="T7" s="16">
+      <c r="S7" s="14">
+        <v>0</v>
+      </c>
+      <c r="T7" s="14">
         <v>3</v>
       </c>
-      <c r="U7" s="16">
-        <v>0</v>
-      </c>
-      <c r="V7" s="16">
+      <c r="U7" s="14">
+        <v>0</v>
+      </c>
+      <c r="V7" s="14">
         <v>40</v>
       </c>
-      <c r="W7" s="16"/>
-    </row>
-    <row r="8" spans="1:23" s="15" customFormat="1">
-      <c r="A8" s="15">
+      <c r="W7" s="14"/>
+    </row>
+    <row r="8" spans="1:23" s="13" customFormat="1">
+      <c r="A8" s="13">
         <v>10005</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>4</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="15">
+      <c r="G8" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="13">
         <v>-99</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="13">
         <v>-2</v>
       </c>
-      <c r="K8" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="15">
+      <c r="K8" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="13">
         <v>100</v>
       </c>
-      <c r="S8" s="16">
-        <v>0</v>
-      </c>
-      <c r="T8" s="16">
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
         <v>7</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="14">
         <v>3</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="14">
         <v>2</v>
       </c>
-      <c r="W8" s="16"/>
-    </row>
-    <row r="9" spans="1:23" s="15" customFormat="1">
-      <c r="A9" s="15">
+      <c r="W8" s="14"/>
+    </row>
+    <row r="9" spans="1:23" s="13" customFormat="1">
+      <c r="A9" s="13">
         <v>10006</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>4</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="15">
+      <c r="G9" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="13">
         <v>-99</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="13">
         <v>-2</v>
       </c>
-      <c r="K9" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L9" s="15">
+      <c r="K9" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="13">
         <v>100</v>
       </c>
-      <c r="S9" s="16">
-        <v>0</v>
-      </c>
-      <c r="T9" s="16">
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
         <v>7</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="14">
         <v>3</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="14">
         <v>4</v>
       </c>
-      <c r="W9" s="16"/>
-    </row>
-    <row r="10" spans="1:23" s="15" customFormat="1">
-      <c r="A10" s="15">
+      <c r="W9" s="14"/>
+    </row>
+    <row r="10" spans="1:23" s="13" customFormat="1">
+      <c r="A10" s="13">
         <v>10007</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>4</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="15">
+      <c r="G10" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="13">
         <v>-99</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="13">
         <v>-2</v>
       </c>
-      <c r="K10" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L10" s="15">
+      <c r="K10" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="13">
         <v>100</v>
       </c>
-      <c r="S10" s="16">
-        <v>0</v>
-      </c>
-      <c r="T10" s="16">
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
         <v>7</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="14">
         <v>3</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="14">
         <v>6</v>
       </c>
-      <c r="W10" s="16"/>
-    </row>
-    <row r="11" spans="1:23" s="15" customFormat="1">
-      <c r="A11" s="15">
+      <c r="W10" s="14"/>
+    </row>
+    <row r="11" spans="1:23" s="13" customFormat="1">
+      <c r="A11" s="13">
         <v>10008</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>4</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I11" s="15">
+      <c r="G11" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="13">
         <v>-99</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="13">
         <v>-2</v>
       </c>
-      <c r="K11" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L11" s="15">
+      <c r="K11" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="13">
         <v>100</v>
       </c>
-      <c r="S11" s="16">
-        <v>0</v>
-      </c>
-      <c r="T11" s="16">
+      <c r="S11" s="14">
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
         <v>7</v>
       </c>
-      <c r="U11" s="16">
+      <c r="U11" s="14">
         <v>3</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="14">
         <v>8</v>
       </c>
-      <c r="W11" s="16"/>
-    </row>
-    <row r="12" spans="1:23" s="15" customFormat="1">
-      <c r="A12" s="15">
+      <c r="W11" s="14"/>
+    </row>
+    <row r="12" spans="1:23" s="13" customFormat="1">
+      <c r="A12" s="13">
         <v>10009</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <v>5</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="15">
+      <c r="G12" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="13">
         <v>1</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="13">
         <v>-99</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="13">
         <v>99</v>
       </c>
-      <c r="K12" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L12" s="15">
+      <c r="K12" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="13">
         <v>100</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12" s="14">
         <v>8</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12" s="14">
         <v>5</v>
       </c>
-      <c r="U12" s="16">
-        <v>0</v>
-      </c>
-      <c r="V12" s="16">
+      <c r="U12" s="14">
+        <v>0</v>
+      </c>
+      <c r="V12" s="14">
         <v>4</v>
       </c>
-      <c r="W12" s="16"/>
-    </row>
-    <row r="13" spans="1:23" s="15" customFormat="1">
-      <c r="A13" s="15">
+      <c r="W12" s="14"/>
+    </row>
+    <row r="13" spans="1:23" s="13" customFormat="1">
+      <c r="A13" s="13">
         <v>10010</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="13">
         <v>5</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I13" s="15">
+      <c r="G13" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="13">
         <v>-3</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="13">
         <v>-3</v>
       </c>
-      <c r="K13" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L13" s="15">
+      <c r="K13" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="13">
         <v>100</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S13" s="14">
         <v>8</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="14">
         <v>5</v>
       </c>
-      <c r="U13" s="16">
-        <v>0</v>
-      </c>
-      <c r="V13" s="16">
+      <c r="U13" s="14">
+        <v>0</v>
+      </c>
+      <c r="V13" s="14">
         <v>3</v>
       </c>
-      <c r="W13" s="16"/>
-    </row>
-    <row r="14" spans="1:23" s="15" customFormat="1">
-      <c r="A14" s="15">
+      <c r="W13" s="14"/>
+    </row>
+    <row r="14" spans="1:23" s="13" customFormat="1">
+      <c r="A14" s="13">
         <v>10011</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <v>5</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I14" s="15">
+      <c r="G14" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="13">
         <v>-2</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="13">
         <v>-2</v>
       </c>
-      <c r="K14" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L14" s="15">
+      <c r="K14" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="13">
         <v>100</v>
       </c>
-      <c r="S14" s="16">
+      <c r="S14" s="14">
         <v>8</v>
       </c>
-      <c r="T14" s="16">
+      <c r="T14" s="14">
         <v>5</v>
       </c>
-      <c r="U14" s="16">
-        <v>0</v>
-      </c>
-      <c r="V14" s="16">
+      <c r="U14" s="14">
+        <v>0</v>
+      </c>
+      <c r="V14" s="14">
         <v>2</v>
       </c>
-      <c r="W14" s="16"/>
-    </row>
-    <row r="15" spans="1:23" s="15" customFormat="1">
-      <c r="A15" s="15">
+      <c r="W14" s="14"/>
+    </row>
+    <row r="15" spans="1:23" s="13" customFormat="1">
+      <c r="A15" s="13">
         <v>10012</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="13">
         <v>5</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I15" s="15">
-        <v>-1</v>
-      </c>
-      <c r="J15" s="15">
-        <v>-1</v>
-      </c>
-      <c r="K15" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L15" s="15">
+      <c r="G15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="13">
         <v>100</v>
       </c>
-      <c r="S15" s="16">
+      <c r="S15" s="14">
         <v>8</v>
       </c>
-      <c r="T15" s="16">
+      <c r="T15" s="14">
         <v>5</v>
       </c>
-      <c r="U15" s="16">
-        <v>0</v>
-      </c>
-      <c r="V15" s="16">
+      <c r="U15" s="14">
+        <v>0</v>
+      </c>
+      <c r="V15" s="14">
         <v>1</v>
       </c>
-      <c r="W15" s="16"/>
-    </row>
-    <row r="16" spans="1:23" s="15" customFormat="1">
-      <c r="A16" s="15">
+      <c r="W15" s="14"/>
+    </row>
+    <row r="16" spans="1:23" s="13" customFormat="1">
+      <c r="A16" s="13">
         <v>10013</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <v>1</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="13">
         <v>1</v>
       </c>
-      <c r="H16" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I16" s="15">
+      <c r="H16" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="13">
         <v>-99</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="13">
         <v>99</v>
       </c>
-      <c r="K16" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L16" s="15">
+      <c r="K16" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="13">
         <v>100</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="13">
         <v>10</v>
       </c>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-    </row>
-    <row r="17" spans="1:23" s="15" customFormat="1">
-      <c r="A17" s="15">
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+    </row>
+    <row r="17" spans="1:23" s="13" customFormat="1">
+      <c r="A17" s="13">
         <v>10014</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <v>1</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <v>1</v>
       </c>
-      <c r="H17" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I17" s="15">
+      <c r="H17" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="13">
         <v>-99</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="13">
         <v>99</v>
       </c>
-      <c r="K17" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L17" s="15">
+      <c r="K17" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="13">
         <v>100</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="13">
         <v>20</v>
       </c>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-    </row>
-    <row r="18" spans="1:23" s="15" customFormat="1">
-      <c r="A18" s="15">
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+    </row>
+    <row r="18" spans="1:23" s="13" customFormat="1">
+      <c r="A18" s="13">
         <v>10015</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>1</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="13">
         <v>1</v>
       </c>
-      <c r="H18" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I18" s="15">
+      <c r="H18" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="13">
         <v>-99</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="13">
         <v>99</v>
       </c>
-      <c r="K18" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L18" s="15">
+      <c r="K18" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="13">
         <v>100</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="13">
         <v>30</v>
       </c>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-    </row>
-    <row r="19" spans="1:23" s="15" customFormat="1">
-      <c r="A19" s="15">
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" s="13" customFormat="1">
+      <c r="A19" s="13">
         <v>10016</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <v>1</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="13">
         <v>1</v>
       </c>
-      <c r="H19" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I19" s="15">
+      <c r="H19" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="13">
         <v>-99</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="13">
         <v>99</v>
       </c>
-      <c r="K19" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L19" s="15">
+      <c r="K19" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L19" s="13">
         <v>100</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="13">
         <v>40</v>
       </c>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-    </row>
-    <row r="20" spans="1:23" s="15" customFormat="1">
-      <c r="A20" s="15">
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+    </row>
+    <row r="20" spans="1:23" s="13" customFormat="1">
+      <c r="A20" s="13">
         <v>10017</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>6</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="15">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I20" s="15">
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="13">
         <v>-99</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="13">
         <v>99</v>
       </c>
-      <c r="K20" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L20" s="15">
+      <c r="K20" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L20" s="13">
         <v>100</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="13">
         <v>10</v>
       </c>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-    </row>
-    <row r="21" spans="1:23" s="15" customFormat="1">
-      <c r="A21" s="15">
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" s="13" customFormat="1">
+      <c r="A21" s="13">
         <v>10018</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>6</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I21" s="15">
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I21" s="13">
         <v>-99</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="13">
         <v>99</v>
       </c>
-      <c r="K21" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L21" s="15">
+      <c r="K21" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L21" s="13">
         <v>100</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="13">
         <v>20</v>
       </c>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-    </row>
-    <row r="22" spans="1:23" s="15" customFormat="1">
-      <c r="A22" s="15">
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" s="13" customFormat="1">
+      <c r="A22" s="13">
         <v>10019</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="13">
         <v>6</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I22" s="15">
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="13">
         <v>-99</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="13">
         <v>99</v>
       </c>
-      <c r="K22" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L22" s="15">
+      <c r="K22" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="13">
         <v>100</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="13">
         <v>30</v>
       </c>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-    </row>
-    <row r="23" spans="1:23" s="15" customFormat="1">
-      <c r="A23" s="15">
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" s="13" customFormat="1">
+      <c r="A23" s="13">
         <v>10020</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="13">
         <v>6</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="15">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I23" s="15">
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="13">
         <v>-99</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="13">
         <v>99</v>
       </c>
-      <c r="K23" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L23" s="15">
+      <c r="K23" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L23" s="13">
         <v>100</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="13">
         <v>40</v>
       </c>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-    </row>
-    <row r="24" spans="1:23" s="15" customFormat="1">
-      <c r="A24" s="15">
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" s="13" customFormat="1">
+      <c r="A24" s="13">
         <v>10021</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="13">
         <v>5</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H24" s="15">
+      <c r="G24" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="13">
         <v>1</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="13">
         <v>-99</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="13">
         <v>99</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="13">
         <v>1</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="13">
         <v>100</v>
       </c>
-      <c r="S24" s="16">
+      <c r="S24" s="14">
         <v>8</v>
       </c>
-      <c r="T24" s="16">
+      <c r="T24" s="14">
         <v>5</v>
       </c>
-      <c r="U24" s="16">
-        <v>0</v>
-      </c>
-      <c r="V24" s="16">
+      <c r="U24" s="14">
+        <v>0</v>
+      </c>
+      <c r="V24" s="14">
         <v>5</v>
       </c>
-      <c r="W24" s="16"/>
-    </row>
-    <row r="25" spans="1:23" s="15" customFormat="1">
-      <c r="A25" s="15">
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" s="13" customFormat="1">
+      <c r="A25" s="13">
         <v>10022</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="13">
         <v>5</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H25" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I25" s="15">
+      <c r="G25" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I25" s="13">
         <v>-3</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="13">
         <v>-3</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="13">
         <v>1</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="13">
         <v>100</v>
       </c>
-      <c r="S25" s="16">
+      <c r="S25" s="14">
         <v>8</v>
       </c>
-      <c r="T25" s="16">
+      <c r="T25" s="14">
         <v>5</v>
       </c>
-      <c r="U25" s="16">
-        <v>0</v>
-      </c>
-      <c r="V25" s="16">
+      <c r="U25" s="14">
+        <v>0</v>
+      </c>
+      <c r="V25" s="14">
         <v>4</v>
       </c>
-      <c r="W25" s="16"/>
-    </row>
-    <row r="26" spans="1:23" s="15" customFormat="1">
-      <c r="A26" s="15">
+      <c r="W25" s="14"/>
+    </row>
+    <row r="26" spans="1:23" s="13" customFormat="1">
+      <c r="A26" s="13">
         <v>10023</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="13">
         <v>5</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H26" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I26" s="15">
+      <c r="G26" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I26" s="13">
         <v>-2</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="13">
         <v>-2</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="13">
         <v>1</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="13">
         <v>100</v>
       </c>
-      <c r="S26" s="16">
+      <c r="S26" s="14">
         <v>8</v>
       </c>
-      <c r="T26" s="16">
+      <c r="T26" s="14">
         <v>5</v>
       </c>
-      <c r="U26" s="16">
-        <v>0</v>
-      </c>
-      <c r="V26" s="16">
+      <c r="U26" s="14">
+        <v>0</v>
+      </c>
+      <c r="V26" s="14">
         <v>3</v>
       </c>
-      <c r="W26" s="16"/>
-    </row>
-    <row r="27" spans="1:23" s="15" customFormat="1">
-      <c r="A27" s="15">
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" s="13" customFormat="1">
+      <c r="A27" s="13">
         <v>10024</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="13">
         <v>5</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H27" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I27" s="15">
-        <v>-1</v>
-      </c>
-      <c r="J27" s="15">
-        <v>-1</v>
-      </c>
-      <c r="K27" s="15">
+      <c r="G27" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I27" s="13">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="13">
+        <v>-1</v>
+      </c>
+      <c r="K27" s="13">
         <v>1</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="13">
         <v>100</v>
       </c>
-      <c r="S27" s="16">
+      <c r="S27" s="14">
         <v>8</v>
       </c>
-      <c r="T27" s="16">
+      <c r="T27" s="14">
         <v>5</v>
       </c>
-      <c r="U27" s="16">
-        <v>0</v>
-      </c>
-      <c r="V27" s="16">
+      <c r="U27" s="14">
+        <v>0</v>
+      </c>
+      <c r="V27" s="14">
         <v>2</v>
       </c>
-      <c r="W27" s="16"/>
-    </row>
-    <row r="28" spans="1:23" s="15" customFormat="1">
-      <c r="A28" s="15">
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" s="13" customFormat="1">
+      <c r="A28" s="13">
         <v>10025</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="13">
         <v>2</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H28" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I28" s="15">
+      <c r="G28" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I28" s="13">
         <v>-99</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="13">
         <v>-2</v>
       </c>
-      <c r="K28" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L28" s="15">
+      <c r="K28" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L28" s="13">
         <v>100</v>
       </c>
-      <c r="S28" s="16">
-        <v>0</v>
-      </c>
-      <c r="T28" s="16">
+      <c r="S28" s="14">
+        <v>0</v>
+      </c>
+      <c r="T28" s="14">
         <v>2</v>
       </c>
-      <c r="U28" s="16">
-        <v>0</v>
-      </c>
-      <c r="V28" s="16">
+      <c r="U28" s="14">
+        <v>0</v>
+      </c>
+      <c r="V28" s="14">
         <v>5</v>
       </c>
-      <c r="W28" s="16"/>
-    </row>
-    <row r="29" spans="1:23" s="15" customFormat="1">
-      <c r="A29" s="15">
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" s="13" customFormat="1">
+      <c r="A29" s="13">
         <v>10026</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="13">
         <v>2</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H29" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I29" s="15">
+      <c r="G29" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I29" s="13">
         <v>-99</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="13">
         <v>-2</v>
       </c>
-      <c r="K29" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L29" s="15">
+      <c r="K29" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L29" s="13">
         <v>100</v>
       </c>
-      <c r="S29" s="16">
-        <v>0</v>
-      </c>
-      <c r="T29" s="16">
+      <c r="S29" s="14">
+        <v>0</v>
+      </c>
+      <c r="T29" s="14">
         <v>2</v>
       </c>
-      <c r="U29" s="16">
-        <v>0</v>
-      </c>
-      <c r="V29" s="16">
+      <c r="U29" s="14">
+        <v>0</v>
+      </c>
+      <c r="V29" s="14">
         <v>10</v>
       </c>
-      <c r="W29" s="16"/>
-    </row>
-    <row r="30" spans="1:23" s="15" customFormat="1">
-      <c r="A30" s="15">
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" s="13" customFormat="1">
+      <c r="A30" s="13">
         <v>10027</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="13">
         <v>2</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H30" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I30" s="15">
+      <c r="G30" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I30" s="13">
         <v>-99</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="13">
         <v>-2</v>
       </c>
-      <c r="K30" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L30" s="15">
+      <c r="K30" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L30" s="13">
         <v>100</v>
       </c>
-      <c r="S30" s="16">
-        <v>0</v>
-      </c>
-      <c r="T30" s="16">
+      <c r="S30" s="14">
+        <v>0</v>
+      </c>
+      <c r="T30" s="14">
         <v>2</v>
       </c>
-      <c r="U30" s="16">
-        <v>0</v>
-      </c>
-      <c r="V30" s="16">
+      <c r="U30" s="14">
+        <v>0</v>
+      </c>
+      <c r="V30" s="14">
         <v>15</v>
       </c>
-      <c r="W30" s="16"/>
-    </row>
-    <row r="31" spans="1:23" s="15" customFormat="1">
-      <c r="A31" s="15">
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" s="13" customFormat="1">
+      <c r="A31" s="13">
         <v>10028</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="13">
         <v>2</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H31" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I31" s="15">
+      <c r="G31" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I31" s="13">
         <v>-99</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="13">
         <v>-2</v>
       </c>
-      <c r="K31" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L31" s="15">
+      <c r="K31" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L31" s="13">
         <v>100</v>
       </c>
-      <c r="S31" s="16">
-        <v>0</v>
-      </c>
-      <c r="T31" s="16">
+      <c r="S31" s="14">
+        <v>0</v>
+      </c>
+      <c r="T31" s="14">
         <v>2</v>
       </c>
-      <c r="U31" s="16">
-        <v>0</v>
-      </c>
-      <c r="V31" s="16">
+      <c r="U31" s="14">
+        <v>0</v>
+      </c>
+      <c r="V31" s="14">
         <v>20</v>
       </c>
-      <c r="W31" s="16"/>
-    </row>
-    <row r="32" spans="1:23" s="15" customFormat="1">
-      <c r="A32" s="15">
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" s="13" customFormat="1">
+      <c r="A32" s="13">
         <v>10029</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="13">
         <v>7</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G32" s="15">
-        <v>-1</v>
-      </c>
-      <c r="H32" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I32" s="15">
+      <c r="G32" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="13">
+        <v>-1</v>
+      </c>
+      <c r="I32" s="13">
         <v>-99</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="13">
         <v>-2</v>
       </c>
-      <c r="K32" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L32" s="15">
+      <c r="K32" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="13">
         <v>100</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32" s="13">
         <v>1</v>
       </c>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4413,4 +4605,497 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD80160E-9035-124B-82F9-6F89E0318147}">
+  <dimension ref="A1:AI58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="8" max="8" width="10.7109375" style="22"/>
+    <col min="9" max="9" width="28.42578125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="22">
+        <f>B54</f>
+        <v>0.22172839506172839</v>
+      </c>
+      <c r="K2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="18"/>
+      <c r="K3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="18"/>
+      <c r="K4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="18"/>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="22">
+        <f>100*E43</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="18"/>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="18"/>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" s="18"/>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="22">
+        <f>B54+3000*E43+C51</f>
+        <v>6.7206172839506175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="22">
+        <f>200*E43+D51*2+C51*2+B51*2</f>
+        <v>3.3933333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24">
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="22">
+        <f>D58+C58+B58</f>
+        <v>1.2195061728395062</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+    </row>
+    <row r="20" spans="2:24">
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="22">
+        <f>B54+D58+C58+B58+4000*E43+C51*2</f>
+        <v>10.439012345679012</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24">
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24">
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="22">
+        <f>D51+C51+B51+B58</f>
+        <v>1.8292592592592591</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24">
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24">
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24">
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24">
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42">
+        <f>2.79/1000</f>
+        <v>2.7899999999999999E-3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43">
+        <f>10.99/5000</f>
+        <v>2.1979999999999999E-3</v>
+      </c>
+      <c r="E43">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>1.5</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <f>2000*E43</f>
+        <v>4</v>
+      </c>
+      <c r="B47" s="21">
+        <f>(E45-A47)/(3*B46+3*C46+3*D46)</f>
+        <v>0.33259259259259261</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51">
+        <f>B47*B46</f>
+        <v>0.66518518518518521</v>
+      </c>
+      <c r="C51">
+        <f>B47*C46</f>
+        <v>0.49888888888888894</v>
+      </c>
+      <c r="D51">
+        <f>B47*D46</f>
+        <v>0.33259259259259261</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54">
+        <f>D51/1.5</f>
+        <v>0.22172839506172839</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57">
+        <v>1.5</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58">
+        <f>B54*B57</f>
+        <v>0.33259259259259261</v>
+      </c>
+      <c r="C58">
+        <f>B54*C57</f>
+        <v>0.44345679012345679</v>
+      </c>
+      <c r="D58">
+        <f>B54*D57</f>
+        <v>0.44345679012345679</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A171BBF0-D9E4-D843-88AF-49CA6554EB7C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tee System/TeeConfig.xlsx
+++ b/Tee System/TeeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tee System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBF81FD-FB0F-C442-AC5E-0AA85D2F1100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EDF1C5-DBEC-8E4D-86DE-CC9C84B0FF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-480" yWindow="-20500" windowWidth="33600" windowHeight="18780" activeTab="3" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="177">
   <si>
     <t>Notes</t>
   </si>
@@ -394,9 +394,6 @@
     <t>（200金币 +  烟花*2 + TNT*2 + 万花筒*2）</t>
   </si>
   <si>
-    <t>$3.99</t>
-  </si>
-  <si>
     <t>原则：</t>
   </si>
   <si>
@@ -466,9 +463,6 @@
     <t>$2.79</t>
   </si>
   <si>
-    <t>$6.99</t>
-  </si>
-  <si>
     <t>$10.99</t>
   </si>
   <si>
@@ -521,6 +515,60 @@
   </si>
   <si>
     <t>购买之后可获得总价值-算上免费</t>
+  </si>
+  <si>
+    <t>30min 无限体力</t>
+  </si>
+  <si>
+    <t>按照一局2min算</t>
+  </si>
+  <si>
+    <t>15个万花筒</t>
+  </si>
+  <si>
+    <t>15个TNT</t>
+  </si>
+  <si>
+    <t>15点体力</t>
+  </si>
+  <si>
+    <t>250钻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$2.5 </t>
+  </si>
+  <si>
+    <t>（TNT*1+ 弓箭*1）</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>奖励模式：</t>
+  </si>
+  <si>
+    <t>礼包本身有吸引力</t>
+  </si>
+  <si>
+    <t>同屏的FREE奖励中有一个有吸引力</t>
+  </si>
+  <si>
+    <t>2~3倍的价值</t>
+  </si>
+  <si>
+    <t>球钉的充能价值</t>
+  </si>
+  <si>
+    <t>Coin Master 链式礼包</t>
   </si>
 </sst>
 </file>
@@ -659,16 +707,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,6 +732,959 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Value</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Research!$H$2:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.22172839506172839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94234567901234567</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7206172839506175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3933333333333335</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2195061728395062</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.439012345679012</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8292592592592591</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2172839506172841</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.441234567901235</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5520987654320988</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.861111111111114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A82-1C44-B08F-AE66BDED375E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1874880031"/>
+        <c:axId val="1836201903"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1874880031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1836201903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1836201903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1874880031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>888999</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>656182</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC55A3ED-FED7-D047-BFDF-3313DFD77B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16979899" y="800100"/>
+          <a:ext cx="3577183" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44188A2A-C7F3-C242-A2FA-78FCAE03CCFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1828,13 +2829,13 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
@@ -3099,12 +4100,12 @@
     </row>
     <row r="2" spans="1:23">
       <c r="S2"/>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
@@ -4609,64 +5610,67 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD80160E-9035-124B-82F9-6F89E0318147}">
-  <dimension ref="A1:AI58"/>
+  <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="8" max="8" width="10.7109375" style="22"/>
-    <col min="9" max="9" width="28.42578125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="22"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="20"/>
+    <col min="9" max="9" width="28.42578125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="AA1" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>110</v>
       </c>
       <c r="B2">
@@ -4678,28 +5682,32 @@
       <c r="D2" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="20">
         <f>B54</f>
         <v>0.22172839506172839</v>
       </c>
+      <c r="I2" s="20">
+        <f>H2+H5+H8</f>
+        <v>1.364074074074074</v>
+      </c>
       <c r="K2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="22"/>
+      <c r="K3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
-      <c r="A3" s="18"/>
-      <c r="K3" t="s">
+    <row r="4" spans="1:35">
+      <c r="A4" s="22"/>
+      <c r="K4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="18"/>
-      <c r="K4" t="s">
-        <v>121</v>
-      </c>
-    </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="22"/>
       <c r="B5">
         <v>2</v>
       </c>
@@ -4709,19 +5717,25 @@
       <c r="D5" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="20">
         <f>100*E43</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="18"/>
+      <c r="A6" s="22"/>
+      <c r="K6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="18"/>
+      <c r="A7" s="22"/>
+      <c r="K7" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="18"/>
+      <c r="A8" s="22"/>
       <c r="B8">
         <v>3</v>
       </c>
@@ -4730,14 +5744,37 @@
       </c>
       <c r="D8" t="s">
         <v>109</v>
+      </c>
+      <c r="H8" s="20">
+        <f>C51+D58</f>
+        <v>0.94234567901234567</v>
+      </c>
+      <c r="K8" t="s">
+        <v>173</v>
+      </c>
+      <c r="V8" t="s">
+        <v>164</v>
+      </c>
+      <c r="W8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="K10" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>118</v>
+      <c r="C11">
+        <v>3.99</v>
       </c>
       <c r="D11" t="s">
         <v>106</v>
@@ -4748,12 +5785,23 @@
       <c r="F11" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="20">
         <f>B54+3000*E43+C51</f>
         <v>6.7206172839506175</v>
       </c>
+      <c r="I11" s="20">
+        <f>H11+H14+H17</f>
+        <v>11.333456790123456</v>
+      </c>
+      <c r="J11" s="20">
+        <f>I11/C11</f>
+        <v>2.8404653609331971</v>
+      </c>
     </row>
     <row r="14" spans="1:35">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
       <c r="B14">
         <v>5</v>
       </c>
@@ -4763,17 +5811,28 @@
       <c r="D14" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="20">
         <f>200*E43+D51*2+C51*2+B51*2</f>
         <v>3.3933333333333335</v>
       </c>
     </row>
     <row r="15" spans="1:35">
+      <c r="A15" t="s">
+        <v>168</v>
+      </c>
       <c r="D15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="2:24">
+    <row r="16" spans="1:35">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>170</v>
+      </c>
       <c r="B17">
         <v>6</v>
       </c>
@@ -4789,50 +5848,61 @@
       <c r="F17" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="20">
         <f>D58+C58+B58</f>
         <v>1.2195061728395062</v>
       </c>
     </row>
-    <row r="19" spans="2:24">
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-    </row>
-    <row r="20" spans="2:24">
+    <row r="19" spans="1:24">
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+    </row>
+    <row r="20" spans="1:24">
       <c r="B20">
         <v>7</v>
       </c>
-      <c r="C20" t="s">
-        <v>142</v>
+      <c r="C20">
+        <v>6.99</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" t="s">
         <v>124</v>
       </c>
-      <c r="F20" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="22">
+      <c r="H20" s="20">
         <f>B54+D58+C58+B58+4000*E43+C51*2</f>
         <v>10.439012345679012</v>
       </c>
-    </row>
-    <row r="21" spans="2:24">
+      <c r="I20" s="20">
+        <f>H20+H23+H26</f>
+        <v>14.485555555555557</v>
+      </c>
+      <c r="J20" s="20">
+        <f>I20/C20</f>
+        <v>2.0723255444285487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="D21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24">
+        <v>122</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="B23">
         <v>8</v>
       </c>
@@ -4840,19 +5910,19 @@
         <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="22">
+        <v>125</v>
+      </c>
+      <c r="H23" s="20">
         <f>D51+C51+B51+B58</f>
         <v>1.8292592592592591</v>
       </c>
     </row>
-    <row r="24" spans="2:24">
+    <row r="24" spans="1:24">
       <c r="D24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="B26">
         <v>9</v>
       </c>
@@ -4860,33 +5930,49 @@
         <v>107</v>
       </c>
       <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" t="s">
         <v>128</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>129</v>
       </c>
-      <c r="F26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24">
+      <c r="H26" s="20">
+        <f>C58*2+B54*2+D58*2</f>
+        <v>2.2172839506172841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="B29">
         <v>10</v>
       </c>
-      <c r="C29" t="s">
-        <v>143</v>
+      <c r="C29">
+        <v>10.99</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24">
+        <v>124</v>
+      </c>
+      <c r="H29" s="20">
+        <f>B54*2+5000*E43+C51*2</f>
+        <v>11.441234567901235</v>
+      </c>
+      <c r="I29" s="20">
+        <f>H29+H31+H33</f>
+        <v>35.854444444444447</v>
+      </c>
+      <c r="J29" s="20">
+        <f>I29/C29</f>
+        <v>3.2624608229703771</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="B31">
         <v>11</v>
       </c>
@@ -4894,16 +5980,20 @@
         <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" t="s">
         <v>135</v>
       </c>
-      <c r="F31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="H31" s="20">
+        <f>C58*2+ B58*2</f>
+        <v>1.5520987654320988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="B33">
         <v>12</v>
       </c>
@@ -4911,45 +6001,49 @@
         <v>107</v>
       </c>
       <c r="D33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" t="s">
         <v>137</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" s="20">
+        <f>F60+F62+F64</f>
+        <v>22.861111111111114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
         <v>139</v>
       </c>
-      <c r="F33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>140</v>
-      </c>
-      <c r="B42" t="s">
-        <v>141</v>
       </c>
       <c r="C42">
         <f>2.79/1000</f>
         <v>2.7899999999999999E-3</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C43">
         <f>10.99/5000</f>
@@ -4959,24 +6053,24 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" t="s">
         <v>144</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>145</v>
-      </c>
-      <c r="C45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" t="s">
-        <v>147</v>
       </c>
       <c r="E45">
         <v>8.49</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:8">
       <c r="B46">
         <v>2</v>
       </c>
@@ -4987,31 +6081,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:8">
       <c r="A47">
         <f>2000*E43</f>
         <v>4</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="19">
         <f>(E45-A47)/(3*B46+3*C46+3*D46)</f>
         <v>0.33259259259259261</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" t="s">
         <v>152</v>
       </c>
-      <c r="C50" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
+    </row>
+    <row r="51" spans="2:6">
       <c r="B51">
         <f>B47*B46</f>
         <v>0.66518518518518521</v>
@@ -5025,29 +6119,29 @@
         <v>0.33259259259259261</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:6">
       <c r="B53" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54">
         <f>D51/1.5</f>
         <v>0.22172839506172839</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:6">
       <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" t="s">
         <v>156</v>
       </c>
-      <c r="C56" t="s">
-        <v>157</v>
-      </c>
-      <c r="D56" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57">
         <v>1.5</v>
       </c>
@@ -5058,7 +6152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:6">
       <c r="B58">
         <f>B54*B57</f>
         <v>0.33259259259259261</v>
@@ -5070,6 +6164,51 @@
       <c r="D58">
         <f>B54*D57</f>
         <v>0.44345679012345679</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60">
+        <f>900*3*E43</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62">
+        <f>15*C51</f>
+        <v>7.4833333333333343</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" t="s">
+        <v>161</v>
+      </c>
+      <c r="F64">
+        <f>15*B51</f>
+        <v>9.9777777777777779</v>
       </c>
     </row>
   </sheetData>
@@ -5077,6 +6216,7 @@
     <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5092,7 +6232,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Tee System/TeeConfig.xlsx
+++ b/Tee System/TeeConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tee System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D2A737-8E3F-AD44-9E6F-3471CAA26455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C149ACA-EE39-6541-9A6A-4B3BBE169875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" activeTab="2" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
   </bookViews>
   <sheets>
     <sheet name="Tee表" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="440">
   <si>
     <t>Notes</t>
   </si>
@@ -544,12 +544,6 @@
     <t>pre_tee_Booster01</t>
   </si>
   <si>
-    <t>Icon_tee_lv3_fortress</t>
-  </si>
-  <si>
-    <t>pre_tee_Fortress</t>
-  </si>
-  <si>
     <t>Icon_tee_lv4_mecharmor</t>
   </si>
   <si>
@@ -1282,9 +1276,6 @@
     <t>tee_Booster01_name</t>
   </si>
   <si>
-    <t>tee_Fortress_name</t>
-  </si>
-  <si>
     <t>tee_MechArmor_name</t>
   </si>
   <si>
@@ -1367,6 +1358,9 @@
   </si>
   <si>
     <t>Birde- 特殊球 8</t>
+  </si>
+  <si>
+    <t>tee_FireLotus_name</t>
   </si>
 </sst>
 </file>
@@ -1912,11 +1906,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB9F4E4-17F2-2041-B9BC-81AB44595C68}">
   <dimension ref="A1:AN64"/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2121,14 +2115,15 @@
       <c r="D3" s="46">
         <v>26</v>
       </c>
-      <c r="E3" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>431</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>432</v>
+      <c r="E3" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" s="26" t="s">
+        <v>429</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -2157,7 +2152,7 @@
     </row>
     <row r="4" spans="1:28" s="3" customFormat="1">
       <c r="A4" s="47" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
@@ -2166,14 +2161,15 @@
       <c r="D4" s="4">
         <v>26</v>
       </c>
-      <c r="E4" s="46" t="s">
-        <v>411</v>
-      </c>
-      <c r="F4" s="46" t="s">
+      <c r="E4" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="46" t="s">
-        <v>433</v>
+      <c r="G4"/>
+      <c r="H4" s="26" t="s">
+        <v>430</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
@@ -2217,10 +2213,10 @@
     </row>
     <row r="5" spans="1:28" s="3" customFormat="1">
       <c r="A5" s="47" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" s="4">
         <v>102</v>
@@ -2228,13 +2224,14 @@
       <c r="D5" s="4">
         <v>26</v>
       </c>
-      <c r="E5" s="46" t="s">
-        <v>412</v>
-      </c>
-      <c r="F5" s="46" t="s">
+      <c r="E5" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="G5"/>
+      <c r="H5" s="26" t="s">
         <v>166</v>
       </c>
       <c r="I5" s="3">
@@ -2284,7 +2281,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" s="4">
         <v>103</v>
@@ -2292,14 +2289,15 @@
       <c r="D6" s="4">
         <v>26</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>413</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>168</v>
+      <c r="E6" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="I6" s="3">
         <v>4</v>
@@ -2348,7 +2346,7 @@
         <v>97</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C7" s="4">
         <v>104</v>
@@ -2356,14 +2354,15 @@
       <c r="D7" s="4">
         <v>26</v>
       </c>
-      <c r="E7" s="46" t="s">
-        <v>414</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>170</v>
+      <c r="E7" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="I7" s="3">
         <v>5</v>
@@ -2412,7 +2411,7 @@
         <v>127</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C8" s="4">
         <v>105</v>
@@ -2420,14 +2419,15 @@
       <c r="D8" s="4">
         <v>26</v>
       </c>
-      <c r="E8" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>172</v>
+      <c r="E8" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="I8" s="3">
         <v>6</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1">
       <c r="A9" s="47" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4">
@@ -2484,14 +2484,15 @@
       <c r="D9" s="4">
         <v>26</v>
       </c>
-      <c r="E9" s="46" t="s">
-        <v>421</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>184</v>
+      <c r="E9" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="I9" s="3">
         <v>7</v>
@@ -2535,10 +2536,10 @@
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1">
       <c r="A10" s="47" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C10" s="4">
         <v>112</v>
@@ -2546,14 +2547,15 @@
       <c r="D10" s="4">
         <v>26</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>422</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>186</v>
+      <c r="E10" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" s="26" t="s">
+        <v>184</v>
       </c>
       <c r="I10" s="3">
         <v>8</v>
@@ -2602,7 +2604,7 @@
         <v>96</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C11" s="4">
         <v>113</v>
@@ -2610,14 +2612,15 @@
       <c r="D11" s="4">
         <v>26</v>
       </c>
-      <c r="E11" s="46" t="s">
-        <v>423</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>188</v>
+      <c r="E11" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" s="26" t="s">
+        <v>186</v>
       </c>
       <c r="I11" s="3">
         <v>9</v>
@@ -2666,7 +2669,7 @@
         <v>97</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C12" s="4">
         <v>114</v>
@@ -2674,14 +2677,15 @@
       <c r="D12" s="4">
         <v>26</v>
       </c>
-      <c r="E12" s="46" t="s">
-        <v>424</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>190</v>
+      <c r="E12" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" s="26" t="s">
+        <v>188</v>
       </c>
       <c r="I12" s="3">
         <v>10</v>
@@ -2738,14 +2742,15 @@
       <c r="D13" s="4">
         <v>26</v>
       </c>
-      <c r="E13" s="46" t="s">
-        <v>425</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>192</v>
+      <c r="E13" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="I13" s="3">
         <v>11</v>
@@ -2791,7 +2796,7 @@
     </row>
     <row r="14" spans="1:28" s="3" customFormat="1">
       <c r="A14" s="47" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -2800,14 +2805,15 @@
       <c r="D14" s="4">
         <v>26</v>
       </c>
-      <c r="E14" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>174</v>
+      <c r="E14" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14" s="26" t="s">
+        <v>172</v>
       </c>
       <c r="I14" s="3">
         <v>12</v>
@@ -2851,10 +2857,10 @@
     </row>
     <row r="15" spans="1:28" s="3" customFormat="1">
       <c r="A15" s="47" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C15" s="4">
         <v>107</v>
@@ -2862,14 +2868,15 @@
       <c r="D15" s="4">
         <v>26</v>
       </c>
-      <c r="E15" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>176</v>
+      <c r="E15" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="I15" s="3">
         <v>13</v>
@@ -2918,7 +2925,7 @@
         <v>96</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C16" s="4">
         <v>108</v>
@@ -2926,14 +2933,15 @@
       <c r="D16" s="4">
         <v>26</v>
       </c>
-      <c r="E16" s="46" t="s">
-        <v>418</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>178</v>
+      <c r="E16" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43" t="s">
+        <v>366</v>
       </c>
       <c r="I16" s="3">
         <v>14</v>
@@ -2982,7 +2990,7 @@
         <v>97</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C17" s="4">
         <v>109</v>
@@ -2990,14 +2998,15 @@
       <c r="D17" s="4">
         <v>26</v>
       </c>
-      <c r="E17" s="46" t="s">
-        <v>419</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>180</v>
+      <c r="E17" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17" s="26" t="s">
+        <v>178</v>
       </c>
       <c r="I17" s="3">
         <v>15</v>
@@ -3046,7 +3055,7 @@
         <v>127</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C18" s="4">
         <v>110</v>
@@ -3054,14 +3063,15 @@
       <c r="D18" s="4">
         <v>26</v>
       </c>
-      <c r="E18" s="46" t="s">
-        <v>420</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>182</v>
+      <c r="E18" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" s="26" t="s">
+        <v>180</v>
       </c>
       <c r="I18" s="3">
         <v>16</v>
@@ -3109,7 +3119,7 @@
     </row>
     <row r="19" spans="1:28" s="3" customFormat="1">
       <c r="A19" s="47" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -3118,14 +3128,15 @@
       <c r="D19" s="4">
         <v>26</v>
       </c>
-      <c r="E19" s="46" t="s">
-        <v>426</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="46" t="s">
-        <v>194</v>
+      <c r="E19" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="I19" s="3">
         <v>17</v>
@@ -3169,10 +3180,10 @@
     </row>
     <row r="20" spans="1:28" s="3" customFormat="1">
       <c r="A20" s="47" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C20" s="4">
         <v>117</v>
@@ -3180,14 +3191,15 @@
       <c r="D20" s="4">
         <v>26</v>
       </c>
-      <c r="E20" s="46" t="s">
-        <v>427</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>196</v>
+      <c r="E20" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" s="26" t="s">
+        <v>194</v>
       </c>
       <c r="I20" s="3">
         <v>18</v>
@@ -3236,7 +3248,7 @@
         <v>96</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C21" s="4">
         <v>118</v>
@@ -3244,14 +3256,15 @@
       <c r="D21" s="4">
         <v>26</v>
       </c>
-      <c r="E21" s="46" t="s">
-        <v>428</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="H21" s="46" t="s">
-        <v>198</v>
+      <c r="E21" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="I21" s="3">
         <v>19</v>
@@ -3300,7 +3313,7 @@
         <v>97</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C22" s="4">
         <v>119</v>
@@ -3308,14 +3321,15 @@
       <c r="D22" s="4">
         <v>26</v>
       </c>
-      <c r="E22" s="46" t="s">
-        <v>429</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="46" t="s">
-        <v>200</v>
+      <c r="E22" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22" s="26" t="s">
+        <v>198</v>
       </c>
       <c r="I22" s="3">
         <v>20</v>
@@ -3372,14 +3386,15 @@
       <c r="D23" s="4">
         <v>26</v>
       </c>
-      <c r="E23" s="46" t="s">
-        <v>430</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>202</v>
+      <c r="E23" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="I23" s="3">
         <v>21</v>
@@ -3453,7 +3468,7 @@
         <v>95</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C25" s="49">
         <v>10001</v>
@@ -3462,14 +3477,14 @@
         <v>26</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G25" s="51"/>
       <c r="H25" s="50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I25" s="49">
         <v>10001</v>
@@ -3504,7 +3519,7 @@
         <v>95</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2">
         <v>10002</v>
@@ -3513,14 +3528,14 @@
         <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G26" s="45"/>
       <c r="H26" s="44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I26" s="2">
         <v>10002</v>
@@ -3555,7 +3570,7 @@
         <v>95</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2">
         <v>10003</v>
@@ -3564,14 +3579,14 @@
         <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G27" s="45"/>
       <c r="H27" s="44" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I27" s="2">
         <v>10003</v>
@@ -3606,7 +3621,7 @@
         <v>95</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2">
         <v>10004</v>
@@ -3615,14 +3630,14 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G28" s="45"/>
       <c r="H28" s="44" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I28" s="2">
         <v>10004</v>
@@ -3653,7 +3668,7 @@
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2">
         <v>10005</v>
@@ -3662,14 +3677,14 @@
         <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G29" s="45"/>
       <c r="H29" s="44" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I29" s="2">
         <v>10005</v>
@@ -3700,7 +3715,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C30" s="2">
         <v>10006</v>
@@ -3709,14 +3724,14 @@
         <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G30" s="45"/>
       <c r="H30" s="44" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I30" s="2">
         <v>10006</v>
@@ -3747,7 +3762,7 @@
         <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2">
         <v>10007</v>
@@ -3756,14 +3771,14 @@
         <v>26</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G31" s="45"/>
       <c r="H31" s="44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I31" s="2">
         <v>10007</v>
@@ -3794,7 +3809,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C32" s="2">
         <v>10008</v>
@@ -3803,14 +3818,14 @@
         <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G32" s="45"/>
       <c r="H32" s="44" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I32" s="2">
         <v>10008</v>
@@ -3841,7 +3856,7 @@
         <v>95</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C33" s="2">
         <v>10009</v>
@@ -3850,14 +3865,14 @@
         <v>26</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G33" s="45"/>
       <c r="H33" s="44" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I33" s="2">
         <v>10009</v>
@@ -3888,7 +3903,7 @@
         <v>95</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C34" s="2">
         <v>10010</v>
@@ -3897,14 +3912,14 @@
         <v>26</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G34" s="45"/>
       <c r="H34" s="44" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I34" s="2">
         <v>10010</v>
@@ -3935,7 +3950,7 @@
         <v>95</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C35" s="2">
         <v>10011</v>
@@ -3944,14 +3959,14 @@
         <v>26</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G35" s="45"/>
       <c r="H35" s="44" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I35" s="2">
         <v>10011</v>
@@ -3982,7 +3997,7 @@
         <v>95</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C36" s="2">
         <v>10012</v>
@@ -3991,14 +4006,14 @@
         <v>26</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G36" s="45"/>
       <c r="H36" s="44" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I36" s="2">
         <v>10012</v>
@@ -4029,7 +4044,7 @@
         <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C37" s="2">
         <v>10013</v>
@@ -4038,14 +4053,14 @@
         <v>26</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G37" s="45"/>
       <c r="H37" s="44" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I37" s="2">
         <v>10013</v>
@@ -4076,7 +4091,7 @@
         <v>95</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C38" s="2">
         <v>10014</v>
@@ -4085,14 +4100,14 @@
         <v>26</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G38" s="45"/>
       <c r="H38" s="44" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I38" s="2">
         <v>10014</v>
@@ -4123,7 +4138,7 @@
         <v>95</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C39" s="2">
         <v>10015</v>
@@ -4132,14 +4147,14 @@
         <v>26</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G39" s="45"/>
       <c r="H39" s="44" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I39" s="2">
         <v>10015</v>
@@ -4170,7 +4185,7 @@
         <v>95</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C40" s="2">
         <v>10016</v>
@@ -4179,14 +4194,14 @@
         <v>26</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G40" s="45"/>
       <c r="H40" s="44" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I40" s="2">
         <v>10016</v>
@@ -4217,7 +4232,7 @@
         <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C41" s="2">
         <v>10017</v>
@@ -4226,14 +4241,14 @@
         <v>26</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F41" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G41" s="45"/>
       <c r="H41" s="44" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I41" s="2">
         <v>10017</v>
@@ -4264,7 +4279,7 @@
         <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C42" s="2">
         <v>10018</v>
@@ -4273,14 +4288,14 @@
         <v>26</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F42" s="44" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G42" s="45"/>
       <c r="H42" s="44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I42" s="2">
         <v>10018</v>
@@ -4311,7 +4326,7 @@
         <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C43" s="2">
         <v>10019</v>
@@ -4320,14 +4335,14 @@
         <v>26</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F43" s="44" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G43" s="45"/>
       <c r="H43" s="44" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I43" s="2">
         <v>10019</v>
@@ -4358,7 +4373,7 @@
         <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C44" s="2">
         <v>10020</v>
@@ -4367,14 +4382,14 @@
         <v>26</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G44" s="45"/>
       <c r="H44" s="44" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I44" s="2">
         <v>10020</v>
@@ -4405,7 +4420,7 @@
         <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C45" s="2">
         <v>10021</v>
@@ -4414,14 +4429,14 @@
         <v>26</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F45" s="44" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G45" s="45"/>
       <c r="H45" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="2" customFormat="1">
@@ -4429,7 +4444,7 @@
         <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C46" s="2">
         <v>10022</v>
@@ -4438,14 +4453,14 @@
         <v>26</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F46" s="44" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G46" s="45"/>
       <c r="H46" s="44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I46" s="2">
         <v>10021</v>
@@ -4476,7 +4491,7 @@
         <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C47" s="2">
         <v>10023</v>
@@ -4485,14 +4500,14 @@
         <v>26</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F47" s="44" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G47" s="45"/>
       <c r="H47" s="44" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I47" s="2">
         <v>10022</v>
@@ -4523,7 +4538,7 @@
         <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C48" s="2">
         <v>10024</v>
@@ -4532,14 +4547,14 @@
         <v>26</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G48" s="45"/>
       <c r="H48" s="44" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I48" s="2">
         <v>10023</v>
@@ -4570,7 +4585,7 @@
         <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C49" s="2">
         <v>10025</v>
@@ -4579,14 +4594,14 @@
         <v>26</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F49" s="44" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G49" s="45"/>
       <c r="H49" s="44" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I49" s="2">
         <v>10024</v>
@@ -4617,7 +4632,7 @@
         <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C50" s="2">
         <v>10026</v>
@@ -4626,14 +4641,14 @@
         <v>26</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G50" s="45"/>
       <c r="H50" s="44" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I50" s="2">
         <v>10025</v>
@@ -4664,7 +4679,7 @@
         <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C51" s="2">
         <v>10027</v>
@@ -4673,14 +4688,14 @@
         <v>26</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F51" s="44" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G51" s="45"/>
       <c r="H51" s="44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I51" s="2">
         <v>10026</v>
@@ -4711,7 +4726,7 @@
         <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C52" s="2">
         <v>10028</v>
@@ -4720,14 +4735,14 @@
         <v>26</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F52" s="44" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G52" s="45"/>
       <c r="H52" s="44" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I52" s="2">
         <v>10027</v>
@@ -4758,7 +4773,7 @@
         <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C53" s="2">
         <v>10029</v>
@@ -4767,14 +4782,14 @@
         <v>26</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F53" s="44" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G53" s="45"/>
       <c r="H53" s="44" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I53" s="2">
         <v>10028</v>
@@ -4801,7 +4816,7 @@
         <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C54" s="2">
         <v>10030</v>
@@ -4810,14 +4825,14 @@
         <v>26</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F54" s="44" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G54" s="45"/>
       <c r="H54" s="44" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I54" s="2">
         <v>10029</v>
@@ -4844,7 +4859,7 @@
         <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C55" s="2">
         <v>10031</v>
@@ -4853,14 +4868,14 @@
         <v>26</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F55" s="44" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G55" s="45"/>
       <c r="H55" s="44" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I55" s="2">
         <v>10030</v>
@@ -4887,7 +4902,7 @@
         <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C56" s="2">
         <v>10032</v>
@@ -4896,14 +4911,14 @@
         <v>26</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F56" s="44" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G56" s="45"/>
       <c r="H56" s="44" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I56" s="2">
         <v>10031</v>
@@ -4930,7 +4945,7 @@
         <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C57" s="2">
         <v>10033</v>
@@ -4939,14 +4954,14 @@
         <v>26</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F57" s="44" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G57" s="45"/>
       <c r="H57" s="44" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I57" s="2">
         <v>10032</v>
@@ -4973,7 +4988,7 @@
         <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C58" s="2">
         <v>10034</v>
@@ -4982,14 +4997,14 @@
         <v>26</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F58" s="44" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G58" s="45"/>
       <c r="H58" s="44" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I58" s="2">
         <v>10033</v>
@@ -5016,7 +5031,7 @@
         <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C59" s="2">
         <v>10035</v>
@@ -5025,14 +5040,14 @@
         <v>26</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F59" s="44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G59" s="45"/>
       <c r="H59" s="44" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I59" s="2">
         <v>10034</v>
@@ -5072,14 +5087,14 @@
         <v>26</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F60" s="44" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G60" s="45"/>
       <c r="H60" s="44" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I60" s="2">
         <v>10035</v>
@@ -5110,7 +5125,7 @@
         <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C61" s="2">
         <v>10037</v>
@@ -5119,14 +5134,14 @@
         <v>26</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F61" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G61" s="45"/>
       <c r="H61" s="44" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I61" s="2">
         <v>10036</v>
@@ -5313,7 +5328,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -5375,7 +5390,7 @@
         <v>1001</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -5384,7 +5399,7 @@
         <v>-1</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>129</v>
@@ -5419,7 +5434,7 @@
         <v>1002</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -5428,7 +5443,7 @@
         <v>-1</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>129</v>
@@ -5472,7 +5487,7 @@
         <v>-1</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>129</v>
@@ -5516,7 +5531,7 @@
         <v>-1</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>129</v>
@@ -5560,7 +5575,7 @@
         <v>-1</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>66</v>
@@ -5596,7 +5611,7 @@
         <v>1005</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -5605,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>130</v>
@@ -5640,7 +5655,7 @@
         <v>1006</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -5649,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>130</v>
@@ -5684,7 +5699,7 @@
         <v>1007</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C11" s="6">
         <v>3</v>
@@ -5693,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>130</v>
@@ -5728,7 +5743,7 @@
         <v>1008</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C12" s="6">
         <v>4</v>
@@ -5737,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>130</v>
@@ -5772,7 +5787,7 @@
         <v>1009</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -5781,7 +5796,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>130</v>
@@ -5816,7 +5831,7 @@
         <v>1010</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
@@ -5825,7 +5840,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>130</v>
@@ -5860,7 +5875,7 @@
         <v>1011</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C15" s="6">
         <v>3</v>
@@ -5869,7 +5884,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>130</v>
@@ -5904,7 +5919,7 @@
         <v>1012</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C16" s="6">
         <v>4</v>
@@ -5913,7 +5928,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>130</v>
@@ -5948,7 +5963,7 @@
         <v>1013</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -5957,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>131</v>
@@ -5992,7 +6007,7 @@
         <v>1014</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C18" s="6">
         <v>2</v>
@@ -6001,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>131</v>
@@ -6036,7 +6051,7 @@
         <v>1015</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C19" s="6">
         <v>3</v>
@@ -6045,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>131</v>
@@ -6080,7 +6095,7 @@
         <v>1016</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C20" s="6">
         <v>4</v>
@@ -6089,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>131</v>
@@ -6124,7 +6139,7 @@
         <v>1017</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -6133,7 +6148,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>131</v>
@@ -6163,7 +6178,7 @@
         <v>1018</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
@@ -6172,7 +6187,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>131</v>
@@ -6202,7 +6217,7 @@
         <v>1019</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C23" s="6">
         <v>3</v>
@@ -6211,7 +6226,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>131</v>
@@ -6241,7 +6256,7 @@
         <v>1020</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C24" s="6">
         <v>4</v>
@@ -6250,7 +6265,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>131</v>
@@ -6289,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>132</v>
@@ -6337,7 +6352,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>132</v>
@@ -6381,7 +6396,7 @@
         <v>10001</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -6417,7 +6432,7 @@
         <v>10002</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -6453,7 +6468,7 @@
         <v>10003</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -6462,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L29" s="2">
         <v>100003</v>
@@ -6489,7 +6504,7 @@
         <v>10004</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -6525,7 +6540,7 @@
         <v>10005</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -6534,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L31" s="2">
         <v>100005</v>
@@ -6561,7 +6576,7 @@
         <v>10006</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -6570,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L32" s="2">
         <v>100006</v>
@@ -6597,7 +6612,7 @@
         <v>10007</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -6606,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L33" s="2">
         <v>100007</v>
@@ -6633,7 +6648,7 @@
         <v>10008</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -6678,7 +6693,7 @@
         <v>10009</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -6714,7 +6729,7 @@
         <v>10010</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -6750,7 +6765,7 @@
         <v>10011</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -6759,7 +6774,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L37" s="2">
         <v>100003</v>
@@ -6786,7 +6801,7 @@
         <v>10012</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -6795,7 +6810,7 @@
         <v>4</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L38" s="2">
         <v>100005</v>
@@ -6822,7 +6837,7 @@
         <v>10013</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -6831,7 +6846,7 @@
         <v>4</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L39" s="2">
         <v>100006</v>
@@ -6858,7 +6873,7 @@
         <v>10014</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -6867,7 +6882,7 @@
         <v>4</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L40" s="2">
         <v>100008</v>
@@ -6894,7 +6909,7 @@
         <v>10015</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -6903,7 +6918,7 @@
         <v>4</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L41" s="2">
         <v>100009</v>
@@ -6930,7 +6945,7 @@
         <v>10016</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -6939,7 +6954,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L42" s="2">
         <v>100010</v>
@@ -6966,7 +6981,7 @@
         <v>10017</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -7002,7 +7017,7 @@
         <v>10018</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -7038,7 +7053,7 @@
         <v>10019</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -7047,7 +7062,7 @@
         <v>3</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L45" s="2">
         <v>100013</v>
@@ -7074,7 +7089,7 @@
         <v>10020</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -7083,7 +7098,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L46" s="2">
         <v>100014</v>
@@ -7110,7 +7125,7 @@
         <v>10021</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -7119,7 +7134,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L47" s="2">
         <v>100016</v>
@@ -7146,7 +7161,7 @@
         <v>10022</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -7155,7 +7170,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L48" s="2">
         <v>100015</v>
@@ -7182,7 +7197,7 @@
         <v>10023</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -7191,7 +7206,7 @@
         <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L49" s="2">
         <v>100003</v>
@@ -7218,7 +7233,7 @@
         <v>10024</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -7254,7 +7269,7 @@
         <v>10025</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -7290,7 +7305,7 @@
         <v>10026</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -7299,7 +7314,7 @@
         <v>5</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L52" s="2">
         <v>100006</v>
@@ -7326,7 +7341,7 @@
         <v>10027</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -7335,7 +7350,7 @@
         <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L53" s="2">
         <v>100005</v>
@@ -7362,7 +7377,7 @@
         <v>10028</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -7371,7 +7386,7 @@
         <v>5</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L54" s="2">
         <v>100017</v>
@@ -7398,7 +7413,7 @@
         <v>10029</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -7407,7 +7422,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L55" s="2">
         <v>100003</v>
@@ -7434,7 +7449,7 @@
         <v>10030</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -7443,7 +7458,7 @@
         <v>6</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L56" s="2">
         <v>100004</v>
@@ -7470,7 +7485,7 @@
         <v>10031</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -7506,7 +7521,7 @@
         <v>10032</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -7542,7 +7557,7 @@
         <v>10033</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -7551,7 +7566,7 @@
         <v>6</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L59" s="2">
         <v>100005</v>
@@ -7578,7 +7593,7 @@
         <v>10034</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -7587,7 +7602,7 @@
         <v>6</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L60" s="2">
         <v>100018</v>
@@ -7614,7 +7629,7 @@
         <v>10035</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -7623,7 +7638,7 @@
         <v>-1</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L61" s="2">
         <v>100019</v>
@@ -7662,7 +7677,7 @@
         <v>10036</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -7710,7 +7725,7 @@
         <v>10037</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -7719,7 +7734,7 @@
         <v>-1</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L63" s="2">
         <v>100027</v>
@@ -7774,8 +7789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48244718-CD51-4E48-806A-17333515C088}">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
@@ -7935,7 +7950,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>11</v>
@@ -7958,7 +7973,7 @@
         <v>10001</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>133</v>
@@ -8009,7 +8024,7 @@
         <v>10002</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>133</v>
@@ -8162,7 +8177,7 @@
         <v>10005</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>134</v>
@@ -8213,7 +8228,7 @@
         <v>10006</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>134</v>
@@ -8264,7 +8279,7 @@
         <v>10007</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>134</v>
@@ -8315,7 +8330,7 @@
         <v>10008</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>134</v>
@@ -8366,7 +8381,7 @@
         <v>10009</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>134</v>
@@ -8417,7 +8432,7 @@
         <v>10010</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>134</v>
@@ -8812,7 +8827,7 @@
         <v>10023</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>137</v>
@@ -8863,7 +8878,7 @@
         <v>10024</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>137</v>
@@ -8914,7 +8929,7 @@
         <v>10025</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>137</v>
@@ -8965,7 +8980,7 @@
         <v>10026</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>137</v>
@@ -9016,7 +9031,7 @@
         <v>10027</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>138</v>
@@ -9067,7 +9082,7 @@
         <v>10028</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>138</v>
@@ -9118,7 +9133,7 @@
         <v>10029</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>138</v>
@@ -9169,7 +9184,7 @@
         <v>10030</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>138</v>
@@ -9438,7 +9453,7 @@
         <v>10036</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>137</v>
@@ -9489,7 +9504,7 @@
         <v>10037</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>137</v>
@@ -9540,7 +9555,7 @@
         <v>10038</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>137</v>
@@ -9591,7 +9606,7 @@
         <v>10039</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>137</v>
@@ -9642,7 +9657,7 @@
         <v>100001</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>133</v>
@@ -9692,7 +9707,7 @@
         <v>100002</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>137</v>
@@ -9742,7 +9757,7 @@
         <v>100003</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>138</v>
@@ -9792,7 +9807,7 @@
         <v>100004</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>134</v>
@@ -9842,16 +9857,16 @@
         <v>100005</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D43" s="2">
         <v>14</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G43" s="2">
         <v>-1</v>
@@ -9889,7 +9904,7 @@
         <v>100006</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>137</v>
@@ -9930,7 +9945,7 @@
         <v>100007</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>136</v>
@@ -9966,16 +9981,16 @@
         <v>100008</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D46" s="2">
         <v>12</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>65</v>
@@ -10007,10 +10022,10 @@
         <v>100009</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D47" s="2">
         <v>13</v>
@@ -10043,7 +10058,7 @@
         <v>100010</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>138</v>
@@ -10093,7 +10108,7 @@
         <v>100011</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>134</v>
@@ -10143,7 +10158,7 @@
         <v>100012</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>137</v>
@@ -10193,7 +10208,7 @@
         <v>100013</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>137</v>
@@ -10238,16 +10253,16 @@
         <v>100014</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D52" s="2">
         <v>14</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>65</v>
@@ -10288,16 +10303,16 @@
         <v>100015</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D53" s="2">
         <v>10</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>65</v>
@@ -10338,16 +10353,16 @@
         <v>100016</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D54" s="2">
         <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>65</v>
@@ -10388,16 +10403,16 @@
         <v>100017</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D55" s="2">
         <v>8</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>65</v>
@@ -10433,16 +10448,16 @@
         <v>100018</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D56" s="2">
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>65</v>
@@ -10483,7 +10498,7 @@
         <v>100019</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>134</v>
@@ -10533,7 +10548,7 @@
         <v>100020</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>134</v>
@@ -10583,7 +10598,7 @@
         <v>100021</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>134</v>
@@ -10633,7 +10648,7 @@
         <v>100022</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>134</v>
@@ -10683,7 +10698,7 @@
         <v>100023</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>137</v>
@@ -10733,7 +10748,7 @@
         <v>100024</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>137</v>
@@ -10783,7 +10798,7 @@
         <v>100025</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>137</v>
@@ -10833,7 +10848,7 @@
         <v>100026</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>137</v>
@@ -10883,7 +10898,7 @@
         <v>100027</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>138</v>
@@ -10933,7 +10948,7 @@
         <v>100028</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>138</v>
@@ -10983,7 +10998,7 @@
         <v>100029</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>138</v>
@@ -11033,7 +11048,7 @@
         <v>100030</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>138</v>
@@ -11427,82 +11442,82 @@
     </row>
     <row r="13" spans="1:3" s="11" customFormat="1">
       <c r="A13" s="39" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="11" customFormat="1">
       <c r="A14" s="39" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="11" customFormat="1">
       <c r="A15" s="39" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="11" customFormat="1">
       <c r="A16" s="40" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="11" customFormat="1">
       <c r="A17" s="40" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="11" customFormat="1">
       <c r="A18" s="40" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="11" customFormat="1">
       <c r="A19" s="40" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="11" customFormat="1">
       <c r="A20" s="40" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="11" customFormat="1">
       <c r="A21" s="40" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="11" customFormat="1">
       <c r="A22" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11669,13 +11684,13 @@
         <v>16</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E1" s="54"/>
     </row>
@@ -11684,10 +11699,10 @@
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11695,7 +11710,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3">
         <v>27</v>

--- a/Tee System/TeeConfig.xlsx
+++ b/Tee System/TeeConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tee System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4E91AF-53FD-DD4D-8FF3-DA049EAA70A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C591362F-DF30-E145-9CDE-A395B479F1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-500" yWindow="-21100" windowWidth="33600" windowHeight="18780" activeTab="2" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
+    <workbookView xWindow="-500" yWindow="-21100" windowWidth="33600" windowHeight="18780" activeTab="1" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
   </bookViews>
   <sheets>
     <sheet name="Tee表" sheetId="1" r:id="rId1"/>
@@ -4898,11 +4898,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F412759-F70B-1343-9C94-8D49C9A91198}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -6156,32 +6156,32 @@
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="6">
-        <v>10032</v>
+        <v>10035</v>
       </c>
       <c r="M27" s="6" t="str">
         <f>IF(L27&lt;&gt;"",VLOOKUP(L27,Prize表!A:B,2,FALSE),"")</f>
-        <v>Birde + 8紫卡</v>
+        <v>Hole in one + 14紫卡</v>
       </c>
       <c r="N27">
-        <v>10033</v>
+        <v>10034</v>
       </c>
       <c r="O27" s="6" t="str">
         <f>IF(N27&lt;&gt;"",VLOOKUP(N27,Prize表!A:B,2,FALSE),"")</f>
-        <v>Eagle + 10紫卡</v>
+        <v>Albatross +12紫卡</v>
       </c>
       <c r="P27">
-        <v>10034</v>
+        <v>10033</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f>IF(P27&lt;&gt;"",VLOOKUP(P27,Prize表!A:B,2,FALSE),"")</f>
-        <v>Albatross +12紫卡</v>
+        <v>Eagle + 10紫卡</v>
       </c>
       <c r="R27">
-        <v>10035</v>
+        <v>10032</v>
       </c>
       <c r="S27" s="6" t="str">
         <f>IF(R27&lt;&gt;"",VLOOKUP(R27,Prize表!A:B,2,FALSE),"")</f>
-        <v>Hole in one + 14紫卡</v>
+        <v>Birde + 8紫卡</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -6211,32 +6211,32 @@
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
       <c r="L28" s="6">
-        <v>10032</v>
+        <v>10035</v>
       </c>
       <c r="M28" s="6" t="str">
         <f>IF(L28&lt;&gt;"",VLOOKUP(L28,Prize表!A:B,2,FALSE),"")</f>
-        <v>Birde + 8紫卡</v>
+        <v>Hole in one + 14紫卡</v>
       </c>
       <c r="N28">
-        <v>10033</v>
+        <v>10034</v>
       </c>
       <c r="O28" s="6" t="str">
         <f>IF(N28&lt;&gt;"",VLOOKUP(N28,Prize表!A:B,2,FALSE),"")</f>
-        <v>Eagle + 10紫卡</v>
+        <v>Albatross +12紫卡</v>
       </c>
       <c r="P28">
-        <v>10034</v>
+        <v>10033</v>
       </c>
       <c r="Q28" s="6" t="str">
         <f>IF(P28&lt;&gt;"",VLOOKUP(P28,Prize表!A:B,2,FALSE),"")</f>
-        <v>Albatross +12紫卡</v>
+        <v>Eagle + 10紫卡</v>
       </c>
       <c r="R28">
-        <v>10035</v>
+        <v>10032</v>
       </c>
       <c r="S28" s="6" t="str">
         <f>IF(R28&lt;&gt;"",VLOOKUP(R28,Prize表!A:B,2,FALSE),"")</f>
-        <v>Hole in one + 14紫卡</v>
+        <v>Birde + 8紫卡</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="12" customFormat="1">
@@ -7663,11 +7663,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48244718-CD51-4E48-806A-17333515C088}">
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomRight" sqref="A1:X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>

--- a/Tee System/TeeConfig.xlsx
+++ b/Tee System/TeeConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tee System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C591362F-DF30-E145-9CDE-A395B479F1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A6396B-901B-4849-AD69-9E26573C86D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-500" yWindow="-21100" windowWidth="33600" windowHeight="18780" activeTab="1" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
+    <workbookView xWindow="-1060" yWindow="-20280" windowWidth="35140" windowHeight="19540" xr2:uid="{AE8D959E-CB57-7841-B8F1-A546B7A0C952}"/>
   </bookViews>
   <sheets>
     <sheet name="Tee表" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="444">
   <si>
     <t>Notes</t>
   </si>
@@ -1328,6 +1328,51 @@
   </si>
   <si>
     <t>skill_type</t>
+  </si>
+  <si>
+    <t>Kingdom胜利点数+10  &amp; Kingdom_Birde + 紫卡 +4</t>
+  </si>
+  <si>
+    <t>Kingdom胜利点数+15 &amp; Kingdom_Birde + 紫卡 +6</t>
+  </si>
+  <si>
+    <t>Kingdom胜利点数+20  &amp; Kingdom_Birde + 紫卡 +8</t>
+  </si>
+  <si>
+    <t>Kingdom胜利点数+20 &amp; Kingdom_激励紫卡</t>
+  </si>
+  <si>
+    <t>Kingdom_Birde + 紫卡+4</t>
+  </si>
+  <si>
+    <t>Kingdom_Birde + 紫卡+6</t>
+  </si>
+  <si>
+    <t>Kingdom_Birde + 紫卡+8</t>
+  </si>
+  <si>
+    <t>Kingdom 激励紫卡</t>
+  </si>
+  <si>
+    <t>Kingdom 胜利加点数10</t>
+  </si>
+  <si>
+    <t>Kingdom 胜利加点数15</t>
+  </si>
+  <si>
+    <t>Kingdom + 额外点数10</t>
+  </si>
+  <si>
+    <t>Kingdom + 额外点数20</t>
+  </si>
+  <si>
+    <t>Kingdom 胜利加点数20</t>
+  </si>
+  <si>
+    <t>Kingdom + 额外点数15</t>
+  </si>
+  <si>
+    <t>Icon_c_tee_skill_ewds</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1422,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1444,8 +1489,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1494,11 +1545,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1555,8 +1617,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1882,9 +1948,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB9F4E4-17F2-2041-B9BC-81AB44595C68}">
-  <dimension ref="A1:AN60"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2838,7 +2904,7 @@
         <v>359</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="C15" s="4">
         <v>107</v>
@@ -2876,18 +2942,18 @@
         <v>胜利 -金币+120</v>
       </c>
       <c r="O15" s="4">
-        <v>1006</v>
+        <v>1025</v>
       </c>
       <c r="P15" s="3" t="str">
         <f>IF(O15&lt;&gt;"",VLOOKUP(O15,Skill表!A:B,2,FALSE),"")</f>
-        <v>Stage_Birde + 紫卡+4</v>
+        <v>Kingdom_Birde + 紫卡+4</v>
       </c>
       <c r="Q15" s="4">
-        <v>1010</v>
+        <v>1029</v>
       </c>
       <c r="R15" s="3" t="str">
         <f>IF(Q15&lt;&gt;"",VLOOKUP(Q15,Skill表!A:B,2,FALSE),"")</f>
-        <v>Tournament_Birde + 紫卡+4</v>
+        <v>Kingdom 胜利加点数10</v>
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -2905,7 +2971,7 @@
         <v>92</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C16" s="4">
         <v>108</v>
@@ -2943,18 +3009,18 @@
         <v>胜利 -金币+160</v>
       </c>
       <c r="O16" s="4">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="P16" s="3" t="str">
         <f>IF(O16&lt;&gt;"",VLOOKUP(O16,Skill表!A:B,2,FALSE),"")</f>
-        <v>Stage_Birde+ 紫卡+6</v>
+        <v>Kingdom_Birde + 紫卡+6</v>
       </c>
       <c r="Q16" s="4">
-        <v>1011</v>
+        <v>1030</v>
       </c>
       <c r="R16" s="3" t="str">
         <f>IF(Q16&lt;&gt;"",VLOOKUP(Q16,Skill表!A:B,2,FALSE),"")</f>
-        <v>Tournament_Birde + 紫卡+6</v>
+        <v>Kingdom 胜利加点数15</v>
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -2972,7 +3038,7 @@
         <v>93</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C17" s="4">
         <v>109</v>
@@ -3010,18 +3076,18 @@
         <v>胜利 -金币+200</v>
       </c>
       <c r="O17" s="4">
-        <v>1008</v>
+        <v>1027</v>
       </c>
       <c r="P17" s="3" t="str">
         <f>IF(O17&lt;&gt;"",VLOOKUP(O17,Skill表!A:B,2,FALSE),"")</f>
-        <v>Stage_Birde+ 紫卡+8</v>
+        <v>Kingdom_Birde + 紫卡+8</v>
       </c>
       <c r="Q17" s="4">
-        <v>1012</v>
+        <v>1031</v>
       </c>
       <c r="R17" s="3" t="str">
         <f>IF(Q17&lt;&gt;"",VLOOKUP(Q17,Skill表!A:B,2,FALSE),"")</f>
-        <v>Tournament_Birde + 紫卡+8</v>
+        <v>Kingdom 胜利加点数20</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -3039,7 +3105,7 @@
         <v>123</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C18" s="4">
         <v>110</v>
@@ -3077,18 +3143,18 @@
         <v>胜利 -金币+200</v>
       </c>
       <c r="O18" s="4">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="P18" s="3" t="str">
         <f>IF(O18&lt;&gt;"",VLOOKUP(O18,Skill表!A:B,2,FALSE),"")</f>
-        <v>Stage - 激励紫卡</v>
+        <v>Kingdom 激励紫卡</v>
       </c>
       <c r="Q18" s="4">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="R18" s="3" t="str">
         <f>IF(Q18&lt;&gt;"",VLOOKUP(Q18,Skill表!A:B,2,FALSE),"")</f>
-        <v>Tournament - 激励紫卡</v>
+        <v>Kingdom 胜利加点数20</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -3128,23 +3194,50 @@
       <c r="AB19" s="4"/>
     </row>
     <row r="20" spans="1:28" s="3" customFormat="1">
-      <c r="A20" s="45"/>
+      <c r="A20" s="45" t="s">
+        <v>360</v>
+      </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <v>26</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="1">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1001</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
@@ -3152,297 +3245,327 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="1:28" s="47" customFormat="1">
-      <c r="A21" s="46" t="s">
+    <row r="21" spans="1:28" s="3" customFormat="1">
+      <c r="A21" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>26</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" s="1">
+        <v>13</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1002</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1006</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1010</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+    </row>
+    <row r="22" spans="1:28" s="3" customFormat="1">
+      <c r="A22" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>26</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>344</v>
+      </c>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="I22" s="1">
+        <v>14</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1003</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1007</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1011</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+    </row>
+    <row r="23" spans="1:28" s="3" customFormat="1">
+      <c r="A23" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>26</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23" s="1">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>4</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1004</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1008</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1012</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+    </row>
+    <row r="24" spans="1:28" s="3" customFormat="1">
+      <c r="A24" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>26</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I24" s="1">
+        <v>16</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>4</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1004</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1023</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1024</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+    </row>
+    <row r="25" spans="1:28" s="3" customFormat="1">
+      <c r="A25" s="45"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+    </row>
+    <row r="26" spans="1:28" s="47" customFormat="1">
+      <c r="A26" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B26" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C26" s="47">
         <v>10001</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D26" s="47">
         <v>26</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E26" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F26" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="48" t="s">
+      <c r="G26" s="49"/>
+      <c r="H26" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I26" s="47">
         <v>10001</v>
       </c>
-      <c r="J21" s="47">
-        <v>0</v>
-      </c>
-      <c r="K21" s="47">
-        <v>1</v>
-      </c>
-      <c r="L21" s="47">
-        <v>0</v>
-      </c>
-      <c r="M21" s="47">
+      <c r="J26" s="47">
+        <v>0</v>
+      </c>
+      <c r="K26" s="47">
+        <v>1</v>
+      </c>
+      <c r="L26" s="47">
+        <v>0</v>
+      </c>
+      <c r="M26" s="47">
         <v>10001</v>
       </c>
-      <c r="N21" s="47" t="str">
-        <f>IF(M21&lt;&gt;"",VLOOKUP(M21,Skill表!A:B,2,FALSE),"")</f>
+      <c r="N26" s="47" t="str">
+        <f>IF(M26&lt;&gt;"",VLOOKUP(M26,Skill表!A:B,2,FALSE),"")</f>
         <v>test - 胜利 + 金币 40</v>
       </c>
-      <c r="P21" s="47" t="str">
-        <f>IF(O21&lt;&gt;"",VLOOKUP(O21,Skill表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R21" s="47" t="str">
-        <f>IF(Q21&lt;&gt;"",VLOOKUP(Q21,Skill表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:28" s="2" customFormat="1">
-      <c r="A22" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C22" s="2">
-        <v>10002</v>
-      </c>
-      <c r="D22" s="2">
-        <v>26</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="I22" s="2">
-        <v>10002</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>10002</v>
-      </c>
-      <c r="N22" s="2" t="str">
-        <f>IF(M22&lt;&gt;"",VLOOKUP(M22,Skill表!A:B,2,FALSE),"")</f>
-        <v>test-stage - Birde + 额外球*4</v>
-      </c>
-      <c r="P22" s="2" t="str">
-        <f>IF(O22&lt;&gt;"",VLOOKUP(O22,Skill表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R22" s="2" t="str">
-        <f>IF(Q22&lt;&gt;"",VLOOKUP(Q22,Skill表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:28" s="2" customFormat="1">
-      <c r="A23" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C23" s="2">
-        <v>10003</v>
-      </c>
-      <c r="D23" s="2">
-        <v>26</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="I23" s="2">
-        <v>10003</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>10003</v>
-      </c>
-      <c r="N23" s="2" t="str">
-        <f>IF(M23&lt;&gt;"",VLOOKUP(M23,Skill表!A:B,2,FALSE),"")</f>
-        <v xml:space="preserve">test - stage -Birde + 额外钻石*100 </v>
-      </c>
-      <c r="P23" s="2" t="str">
-        <f>IF(O23&lt;&gt;"",VLOOKUP(O23,Skill表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R23" s="2" t="str">
-        <f>IF(Q23&lt;&gt;"",VLOOKUP(Q23,Skill表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:28" s="2" customFormat="1">
-      <c r="A24" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C24" s="2">
-        <v>10004</v>
-      </c>
-      <c r="D24" s="2">
-        <v>26</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="42" t="s">
-        <v>323</v>
-      </c>
-      <c r="I24" s="2">
-        <v>10004</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
-        <v>10004</v>
-      </c>
-      <c r="N24" s="2" t="str">
-        <f>IF(M24&lt;&gt;"",VLOOKUP(M24,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - stage - Birde+ 额外紫卡*4</v>
-      </c>
-      <c r="P24" s="2" t="str">
-        <f>IF(O24&lt;&gt;"",VLOOKUP(O24,Skill表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:28" s="2" customFormat="1">
-      <c r="A25" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="2">
-        <v>10005</v>
-      </c>
-      <c r="D25" s="2">
-        <v>26</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>324</v>
-      </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="I25" s="2">
-        <v>10005</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <v>10005</v>
-      </c>
-      <c r="N25" s="2" t="str">
-        <f>IF(M25&lt;&gt;"",VLOOKUP(M25,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - stage - Birde+ Token*10</v>
-      </c>
-      <c r="P25" s="2" t="str">
-        <f>IF(O25&lt;&gt;"",VLOOKUP(O25,Skill表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:28" s="2" customFormat="1">
-      <c r="A26" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C26" s="2">
-        <v>10006</v>
-      </c>
-      <c r="D26" s="2">
-        <v>26</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="I26" s="2">
-        <v>10006</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
-        <v>10006</v>
-      </c>
-      <c r="N26" s="2" t="str">
-        <f>IF(M26&lt;&gt;"",VLOOKUP(M26,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - Stage - Birde +  返还球</v>
-      </c>
-      <c r="P26" s="2" t="str">
+      <c r="P26" s="47" t="str">
         <f>IF(O26&lt;&gt;"",VLOOKUP(O26,Skill表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R26" s="47" t="str">
+        <f>IF(Q26&lt;&gt;"",VLOOKUP(Q26,Skill表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -3451,10 +3574,10 @@
         <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C27" s="2">
-        <v>10007</v>
+        <v>10002</v>
       </c>
       <c r="D27" s="2">
         <v>26</v>
@@ -3463,14 +3586,14 @@
         <v>283</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G27" s="43"/>
       <c r="H27" s="42" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="I27" s="2">
-        <v>10007</v>
+        <v>10002</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -3482,14 +3605,18 @@
         <v>0</v>
       </c>
       <c r="M27" s="2">
-        <v>10007</v>
+        <v>10002</v>
       </c>
       <c r="N27" s="2" t="str">
         <f>IF(M27&lt;&gt;"",VLOOKUP(M27,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - Stage - 输比赛少掉 50%分</v>
+        <v>test-stage - Birde + 额外球*4</v>
       </c>
       <c r="P27" s="2" t="str">
         <f>IF(O27&lt;&gt;"",VLOOKUP(O27,Skill表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R27" s="2" t="str">
+        <f>IF(Q27&lt;&gt;"",VLOOKUP(Q27,Skill表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -3498,10 +3625,10 @@
         <v>91</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C28" s="2">
-        <v>10008</v>
+        <v>10003</v>
       </c>
       <c r="D28" s="2">
         <v>26</v>
@@ -3510,14 +3637,14 @@
         <v>283</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G28" s="43"/>
       <c r="H28" s="42" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="I28" s="2">
-        <v>10008</v>
+        <v>10003</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -3529,14 +3656,18 @@
         <v>0</v>
       </c>
       <c r="M28" s="2">
-        <v>10008</v>
+        <v>10003</v>
       </c>
       <c r="N28" s="2" t="str">
         <f>IF(M28&lt;&gt;"",VLOOKUP(M28,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - 指针速度减少 30%</v>
+        <v xml:space="preserve">test - stage -Birde + 额外钻石*100 </v>
       </c>
       <c r="P28" s="2" t="str">
         <f>IF(O28&lt;&gt;"",VLOOKUP(O28,Skill表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R28" s="2" t="str">
+        <f>IF(Q28&lt;&gt;"",VLOOKUP(Q28,Skill表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -3545,10 +3676,10 @@
         <v>91</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C29" s="2">
-        <v>10009</v>
+        <v>10004</v>
       </c>
       <c r="D29" s="2">
         <v>26</v>
@@ -3557,14 +3688,14 @@
         <v>283</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G29" s="43"/>
       <c r="H29" s="42" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="I29" s="2">
-        <v>10009</v>
+        <v>10004</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -3576,11 +3707,11 @@
         <v>0</v>
       </c>
       <c r="M29" s="2">
-        <v>10009</v>
+        <v>10004</v>
       </c>
       <c r="N29" s="2" t="str">
         <f>IF(M29&lt;&gt;"",VLOOKUP(M29,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - Kingdom - Birde + 额外紫卡*4</v>
+        <v>test - stage - Birde+ 额外紫卡*4</v>
       </c>
       <c r="P29" s="2" t="str">
         <f>IF(O29&lt;&gt;"",VLOOKUP(O29,Skill表!A:B,2,FALSE),"")</f>
@@ -3592,10 +3723,10 @@
         <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C30" s="2">
-        <v>10010</v>
+        <v>10005</v>
       </c>
       <c r="D30" s="2">
         <v>26</v>
@@ -3604,14 +3735,14 @@
         <v>283</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G30" s="43"/>
       <c r="H30" s="42" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="I30" s="2">
-        <v>10010</v>
+        <v>10005</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -3623,11 +3754,11 @@
         <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>10010</v>
+        <v>10005</v>
       </c>
       <c r="N30" s="2" t="str">
         <f>IF(M30&lt;&gt;"",VLOOKUP(M30,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - Kingdom - Birde + 额外球*4</v>
+        <v>test - stage - Birde+ Token*10</v>
       </c>
       <c r="P30" s="2" t="str">
         <f>IF(O30&lt;&gt;"",VLOOKUP(O30,Skill表!A:B,2,FALSE),"")</f>
@@ -3639,10 +3770,10 @@
         <v>91</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="C31" s="2">
-        <v>10011</v>
+        <v>10006</v>
       </c>
       <c r="D31" s="2">
         <v>26</v>
@@ -3651,14 +3782,14 @@
         <v>283</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="42" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="I31" s="2">
-        <v>10011</v>
+        <v>10006</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -3670,11 +3801,11 @@
         <v>0</v>
       </c>
       <c r="M31" s="2">
-        <v>10011</v>
+        <v>10006</v>
       </c>
       <c r="N31" s="2" t="str">
         <f>IF(M31&lt;&gt;"",VLOOKUP(M31,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - Kingdom - Birde + 额外钻石*100</v>
+        <v>test - Stage - Birde +  返还球</v>
       </c>
       <c r="P31" s="2" t="str">
         <f>IF(O31&lt;&gt;"",VLOOKUP(O31,Skill表!A:B,2,FALSE),"")</f>
@@ -3686,10 +3817,10 @@
         <v>91</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C32" s="2">
-        <v>10012</v>
+        <v>10007</v>
       </c>
       <c r="D32" s="2">
         <v>26</v>
@@ -3698,14 +3829,14 @@
         <v>283</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G32" s="43"/>
       <c r="H32" s="42" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="I32" s="2">
-        <v>10012</v>
+        <v>10007</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -3717,11 +3848,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>10012</v>
+        <v>10007</v>
       </c>
       <c r="N32" s="2" t="str">
         <f>IF(M32&lt;&gt;"",VLOOKUP(M32,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - Kingdom - Birde + Token*10</v>
+        <v>test - Stage - 输比赛少掉 50%分</v>
       </c>
       <c r="P32" s="2" t="str">
         <f>IF(O32&lt;&gt;"",VLOOKUP(O32,Skill表!A:B,2,FALSE),"")</f>
@@ -3733,10 +3864,10 @@
         <v>91</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C33" s="2">
-        <v>10013</v>
+        <v>10008</v>
       </c>
       <c r="D33" s="2">
         <v>26</v>
@@ -3745,14 +3876,14 @@
         <v>283</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G33" s="43"/>
       <c r="H33" s="42" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="I33" s="2">
-        <v>10013</v>
+        <v>10008</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -3764,11 +3895,11 @@
         <v>0</v>
       </c>
       <c r="M33" s="2">
-        <v>10013</v>
+        <v>10008</v>
       </c>
       <c r="N33" s="2" t="str">
         <f>IF(M33&lt;&gt;"",VLOOKUP(M33,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - Kingdom - Birde + 返还球</v>
+        <v>test - 指针速度减少 30%</v>
       </c>
       <c r="P33" s="2" t="str">
         <f>IF(O33&lt;&gt;"",VLOOKUP(O33,Skill表!A:B,2,FALSE),"")</f>
@@ -3780,10 +3911,10 @@
         <v>91</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C34" s="2">
-        <v>10014</v>
+        <v>10009</v>
       </c>
       <c r="D34" s="2">
         <v>26</v>
@@ -3792,14 +3923,14 @@
         <v>283</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G34" s="43"/>
       <c r="H34" s="42" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I34" s="2">
-        <v>10014</v>
+        <v>10009</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -3811,11 +3942,11 @@
         <v>0</v>
       </c>
       <c r="M34" s="2">
-        <v>10014</v>
+        <v>10009</v>
       </c>
       <c r="N34" s="2" t="str">
         <f>IF(M34&lt;&gt;"",VLOOKUP(M34,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - Kindom - 胜利 -额外点数 10</v>
+        <v>test - Kingdom - Birde + 额外紫卡*4</v>
       </c>
       <c r="P34" s="2" t="str">
         <f>IF(O34&lt;&gt;"",VLOOKUP(O34,Skill表!A:B,2,FALSE),"")</f>
@@ -3827,10 +3958,10 @@
         <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C35" s="2">
-        <v>10015</v>
+        <v>10010</v>
       </c>
       <c r="D35" s="2">
         <v>26</v>
@@ -3839,14 +3970,14 @@
         <v>283</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G35" s="43"/>
       <c r="H35" s="42" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="I35" s="2">
-        <v>10015</v>
+        <v>10010</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -3858,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="2">
-        <v>10015</v>
+        <v>10010</v>
       </c>
       <c r="N35" s="2" t="str">
         <f>IF(M35&lt;&gt;"",VLOOKUP(M35,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - Kingdom - 输比赛少掉 50%分</v>
+        <v>test - Kingdom - Birde + 额外球*4</v>
       </c>
       <c r="P35" s="2" t="str">
         <f>IF(O35&lt;&gt;"",VLOOKUP(O35,Skill表!A:B,2,FALSE),"")</f>
@@ -3874,10 +4005,10 @@
         <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C36" s="2">
-        <v>10016</v>
+        <v>10011</v>
       </c>
       <c r="D36" s="2">
         <v>26</v>
@@ -3886,14 +4017,14 @@
         <v>283</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G36" s="43"/>
       <c r="H36" s="42" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I36" s="2">
-        <v>10016</v>
+        <v>10011</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
@@ -3905,11 +4036,11 @@
         <v>0</v>
       </c>
       <c r="M36" s="2">
-        <v>10016</v>
+        <v>10011</v>
       </c>
       <c r="N36" s="2" t="str">
         <f>IF(M36&lt;&gt;"",VLOOKUP(M36,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - Arena - 占洞钻石*100</v>
+        <v>test - Kingdom - Birde + 额外钻石*100</v>
       </c>
       <c r="P36" s="2" t="str">
         <f>IF(O36&lt;&gt;"",VLOOKUP(O36,Skill表!A:B,2,FALSE),"")</f>
@@ -3921,10 +4052,10 @@
         <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C37" s="2">
-        <v>10017</v>
+        <v>10012</v>
       </c>
       <c r="D37" s="2">
         <v>26</v>
@@ -3933,14 +4064,14 @@
         <v>283</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G37" s="43"/>
       <c r="H37" s="42" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="I37" s="2">
-        <v>10017</v>
+        <v>10012</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
@@ -3952,11 +4083,11 @@
         <v>0</v>
       </c>
       <c r="M37" s="2">
-        <v>10017</v>
+        <v>10012</v>
       </c>
       <c r="N37" s="2" t="str">
         <f>IF(M37&lt;&gt;"",VLOOKUP(M37,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - Arena - 占洞紫卡*4</v>
+        <v>test - Kingdom - Birde + Token*10</v>
       </c>
       <c r="P37" s="2" t="str">
         <f>IF(O37&lt;&gt;"",VLOOKUP(O37,Skill表!A:B,2,FALSE),"")</f>
@@ -3968,10 +4099,10 @@
         <v>91</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C38" s="2">
-        <v>10018</v>
+        <v>10013</v>
       </c>
       <c r="D38" s="2">
         <v>26</v>
@@ -3980,14 +4111,14 @@
         <v>283</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G38" s="43"/>
       <c r="H38" s="42" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="I38" s="2">
-        <v>10018</v>
+        <v>10013</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
@@ -3999,11 +4130,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="2">
-        <v>10018</v>
+        <v>10013</v>
       </c>
       <c r="N38" s="2" t="str">
         <f>IF(M38&lt;&gt;"",VLOOKUP(M38,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - Arena - 占洞额外球*4</v>
+        <v>test - Kingdom - Birde + 返还球</v>
       </c>
       <c r="P38" s="2" t="str">
         <f>IF(O38&lt;&gt;"",VLOOKUP(O38,Skill表!A:B,2,FALSE),"")</f>
@@ -4015,10 +4146,10 @@
         <v>91</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C39" s="2">
-        <v>10019</v>
+        <v>10014</v>
       </c>
       <c r="D39" s="2">
         <v>26</v>
@@ -4027,14 +4158,14 @@
         <v>283</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G39" s="43"/>
       <c r="H39" s="42" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="I39" s="2">
-        <v>10019</v>
+        <v>10014</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
@@ -4046,11 +4177,11 @@
         <v>0</v>
       </c>
       <c r="M39" s="2">
-        <v>10019</v>
+        <v>10014</v>
       </c>
       <c r="N39" s="2" t="str">
         <f>IF(M39&lt;&gt;"",VLOOKUP(M39,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - Arena - 占洞 - 返还球</v>
+        <v>test - Kindom - 胜利 -额外点数 10</v>
       </c>
       <c r="P39" s="2" t="str">
         <f>IF(O39&lt;&gt;"",VLOOKUP(O39,Skill表!A:B,2,FALSE),"")</f>
@@ -4062,10 +4193,10 @@
         <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C40" s="2">
-        <v>10020</v>
+        <v>10015</v>
       </c>
       <c r="D40" s="2">
         <v>26</v>
@@ -4074,14 +4205,14 @@
         <v>283</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G40" s="43"/>
       <c r="H40" s="42" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="I40" s="2">
-        <v>10020</v>
+        <v>10015</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -4093,11 +4224,11 @@
         <v>0</v>
       </c>
       <c r="M40" s="2">
-        <v>10020</v>
+        <v>10015</v>
       </c>
       <c r="N40" s="2" t="str">
         <f>IF(M40&lt;&gt;"",VLOOKUP(M40,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - Arena - 占洞 - Token*10</v>
+        <v>test - Kingdom - 输比赛少掉 50%分</v>
       </c>
       <c r="P40" s="2" t="str">
         <f>IF(O40&lt;&gt;"",VLOOKUP(O40,Skill表!A:B,2,FALSE),"")</f>
@@ -4109,10 +4240,10 @@
         <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
       <c r="C41" s="2">
-        <v>10021</v>
+        <v>10016</v>
       </c>
       <c r="D41" s="2">
         <v>26</v>
@@ -4121,11 +4252,34 @@
         <v>283</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>198</v>
+        <v>346</v>
       </c>
       <c r="G41" s="43"/>
       <c r="H41" s="42" t="s">
-        <v>199</v>
+        <v>347</v>
+      </c>
+      <c r="I41" s="2">
+        <v>10016</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>10016</v>
+      </c>
+      <c r="N41" s="2" t="str">
+        <f>IF(M41&lt;&gt;"",VLOOKUP(M41,Skill表!A:B,2,FALSE),"")</f>
+        <v>test - Arena - 占洞钻石*100</v>
+      </c>
+      <c r="P41" s="2" t="str">
+        <f>IF(O41&lt;&gt;"",VLOOKUP(O41,Skill表!A:B,2,FALSE),"")</f>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:16" s="2" customFormat="1">
@@ -4133,10 +4287,10 @@
         <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C42" s="2">
-        <v>10022</v>
+        <v>10017</v>
       </c>
       <c r="D42" s="2">
         <v>26</v>
@@ -4145,14 +4299,14 @@
         <v>283</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="G42" s="43"/>
       <c r="H42" s="42" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="I42" s="2">
-        <v>10021</v>
+        <v>10017</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
@@ -4164,11 +4318,11 @@
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <v>10021</v>
+        <v>10017</v>
       </c>
       <c r="N42" s="2" t="str">
         <f>IF(M42&lt;&gt;"",VLOOKUP(M42,Skill表!A:B,2,FALSE),"")</f>
-        <v xml:space="preserve">test - Arena - 不扣体力 </v>
+        <v>test - Arena - 占洞紫卡*4</v>
       </c>
       <c r="P42" s="2" t="str">
         <f>IF(O42&lt;&gt;"",VLOOKUP(O42,Skill表!A:B,2,FALSE),"")</f>
@@ -4180,10 +4334,10 @@
         <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="C43" s="2">
-        <v>10023</v>
+        <v>10018</v>
       </c>
       <c r="D43" s="2">
         <v>26</v>
@@ -4192,14 +4346,14 @@
         <v>283</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="G43" s="43"/>
       <c r="H43" s="42" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="I43" s="2">
-        <v>10022</v>
+        <v>10018</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
@@ -4211,11 +4365,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="2">
-        <v>10022</v>
+        <v>10018</v>
       </c>
       <c r="N43" s="2" t="str">
         <f>IF(M43&lt;&gt;"",VLOOKUP(M43,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - Arena - 额外狼币*10</v>
+        <v>test - Arena - 占洞额外球*4</v>
       </c>
       <c r="P43" s="2" t="str">
         <f>IF(O43&lt;&gt;"",VLOOKUP(O43,Skill表!A:B,2,FALSE),"")</f>
@@ -4227,10 +4381,10 @@
         <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="C44" s="2">
-        <v>10024</v>
+        <v>10019</v>
       </c>
       <c r="D44" s="2">
         <v>26</v>
@@ -4239,14 +4393,14 @@
         <v>283</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="G44" s="43"/>
       <c r="H44" s="42" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="I44" s="2">
-        <v>10023</v>
+        <v>10019</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
@@ -4258,11 +4412,11 @@
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <v>10023</v>
+        <v>10019</v>
       </c>
       <c r="N44" s="2" t="str">
         <f>IF(M44&lt;&gt;"",VLOOKUP(M44,Skill表!A:B,2,FALSE),"")</f>
-        <v>SP - Birde+钻石*100</v>
+        <v>test - Arena - 占洞 - 返还球</v>
       </c>
       <c r="P44" s="2" t="str">
         <f>IF(O44&lt;&gt;"",VLOOKUP(O44,Skill表!A:B,2,FALSE),"")</f>
@@ -4274,10 +4428,10 @@
         <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="C45" s="2">
-        <v>10025</v>
+        <v>10020</v>
       </c>
       <c r="D45" s="2">
         <v>26</v>
@@ -4286,14 +4440,14 @@
         <v>283</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="G45" s="43"/>
       <c r="H45" s="42" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="I45" s="2">
-        <v>10024</v>
+        <v>10020</v>
       </c>
       <c r="J45" s="2">
         <v>0</v>
@@ -4305,11 +4459,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <v>10024</v>
+        <v>10020</v>
       </c>
       <c r="N45" s="2" t="str">
         <f>IF(M45&lt;&gt;"",VLOOKUP(M45,Skill表!A:B,2,FALSE),"")</f>
-        <v>SP - Birde+紫卡*4</v>
+        <v>test - Arena - 占洞 - Token*10</v>
       </c>
       <c r="P45" s="2" t="str">
         <f>IF(O45&lt;&gt;"",VLOOKUP(O45,Skill表!A:B,2,FALSE),"")</f>
@@ -4321,10 +4475,10 @@
         <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C46" s="2">
-        <v>10026</v>
+        <v>10021</v>
       </c>
       <c r="D46" s="2">
         <v>26</v>
@@ -4333,34 +4487,11 @@
         <v>283</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>326</v>
+        <v>198</v>
       </c>
       <c r="G46" s="43"/>
       <c r="H46" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="I46" s="2">
-        <v>10025</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>1</v>
-      </c>
-      <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
-        <v>10025</v>
-      </c>
-      <c r="N46" s="2" t="str">
-        <f>IF(M46&lt;&gt;"",VLOOKUP(M46,Skill表!A:B,2,FALSE),"")</f>
-        <v>SP - Birde+额外球*4</v>
-      </c>
-      <c r="P46" s="2" t="str">
-        <f>IF(O46&lt;&gt;"",VLOOKUP(O46,Skill表!A:B,2,FALSE),"")</f>
-        <v/>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="2" customFormat="1">
@@ -4368,10 +4499,10 @@
         <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="C47" s="2">
-        <v>10027</v>
+        <v>10022</v>
       </c>
       <c r="D47" s="2">
         <v>26</v>
@@ -4380,14 +4511,14 @@
         <v>283</v>
       </c>
       <c r="F47" s="42" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G47" s="43"/>
       <c r="H47" s="42" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="I47" s="2">
-        <v>10026</v>
+        <v>10021</v>
       </c>
       <c r="J47" s="2">
         <v>0</v>
@@ -4399,11 +4530,11 @@
         <v>0</v>
       </c>
       <c r="M47" s="2">
-        <v>10026</v>
+        <v>10021</v>
       </c>
       <c r="N47" s="2" t="str">
         <f>IF(M47&lt;&gt;"",VLOOKUP(M47,Skill表!A:B,2,FALSE),"")</f>
-        <v>SP - Birde + 返还球</v>
+        <v xml:space="preserve">test - Arena - 不扣体力 </v>
       </c>
       <c r="P47" s="2" t="str">
         <f>IF(O47&lt;&gt;"",VLOOKUP(O47,Skill表!A:B,2,FALSE),"")</f>
@@ -4415,10 +4546,10 @@
         <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="C48" s="2">
-        <v>10028</v>
+        <v>10023</v>
       </c>
       <c r="D48" s="2">
         <v>26</v>
@@ -4427,14 +4558,14 @@
         <v>283</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G48" s="43"/>
       <c r="H48" s="42" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="I48" s="2">
-        <v>10027</v>
+        <v>10022</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -4446,11 +4577,11 @@
         <v>0</v>
       </c>
       <c r="M48" s="2">
-        <v>10027</v>
+        <v>10022</v>
       </c>
       <c r="N48" s="2" t="str">
         <f>IF(M48&lt;&gt;"",VLOOKUP(M48,Skill表!A:B,2,FALSE),"")</f>
-        <v>SP - Birde+ Token*10</v>
+        <v>test - Arena - 额外狼币*10</v>
       </c>
       <c r="P48" s="2" t="str">
         <f>IF(O48&lt;&gt;"",VLOOKUP(O48,Skill表!A:B,2,FALSE),"")</f>
@@ -4462,10 +4593,10 @@
         <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C49" s="2">
-        <v>10029</v>
+        <v>10024</v>
       </c>
       <c r="D49" s="2">
         <v>26</v>
@@ -4474,14 +4605,14 @@
         <v>283</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="42" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="I49" s="2">
-        <v>10028</v>
+        <v>10023</v>
       </c>
       <c r="J49" s="2">
         <v>0</v>
@@ -4493,11 +4624,15 @@
         <v>0</v>
       </c>
       <c r="M49" s="2">
-        <v>10028</v>
+        <v>10023</v>
       </c>
       <c r="N49" s="2" t="str">
         <f>IF(M49&lt;&gt;"",VLOOKUP(M49,Skill表!A:B,2,FALSE),"")</f>
-        <v xml:space="preserve">SP - 输比赛不扣❤ </v>
+        <v>SP - Birde+钻石*100</v>
+      </c>
+      <c r="P49" s="2" t="str">
+        <f>IF(O49&lt;&gt;"",VLOOKUP(O49,Skill表!A:B,2,FALSE),"")</f>
+        <v/>
       </c>
     </row>
     <row r="50" spans="1:28" s="2" customFormat="1">
@@ -4505,10 +4640,10 @@
         <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C50" s="2">
-        <v>10030</v>
+        <v>10025</v>
       </c>
       <c r="D50" s="2">
         <v>26</v>
@@ -4517,14 +4652,14 @@
         <v>283</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="42" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="I50" s="2">
-        <v>10029</v>
+        <v>10024</v>
       </c>
       <c r="J50" s="2">
         <v>0</v>
@@ -4536,11 +4671,15 @@
         <v>0</v>
       </c>
       <c r="M50" s="2">
-        <v>10029</v>
+        <v>10024</v>
       </c>
       <c r="N50" s="2" t="str">
         <f>IF(M50&lt;&gt;"",VLOOKUP(M50,Skill表!A:B,2,FALSE),"")</f>
-        <v>Tournament - Birde+钻石*100</v>
+        <v>SP - Birde+紫卡*4</v>
+      </c>
+      <c r="P50" s="2" t="str">
+        <f>IF(O50&lt;&gt;"",VLOOKUP(O50,Skill表!A:B,2,FALSE),"")</f>
+        <v/>
       </c>
     </row>
     <row r="51" spans="1:28" s="2" customFormat="1">
@@ -4548,10 +4687,10 @@
         <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C51" s="2">
-        <v>10031</v>
+        <v>10026</v>
       </c>
       <c r="D51" s="2">
         <v>26</v>
@@ -4560,14 +4699,14 @@
         <v>283</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G51" s="43"/>
       <c r="H51" s="42" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="I51" s="2">
-        <v>10030</v>
+        <v>10025</v>
       </c>
       <c r="J51" s="2">
         <v>0</v>
@@ -4579,11 +4718,15 @@
         <v>0</v>
       </c>
       <c r="M51" s="2">
-        <v>10030</v>
+        <v>10025</v>
       </c>
       <c r="N51" s="2" t="str">
         <f>IF(M51&lt;&gt;"",VLOOKUP(M51,Skill表!A:B,2,FALSE),"")</f>
-        <v>Tournament - Birde+紫卡*4</v>
+        <v>SP - Birde+额外球*4</v>
+      </c>
+      <c r="P51" s="2" t="str">
+        <f>IF(O51&lt;&gt;"",VLOOKUP(O51,Skill表!A:B,2,FALSE),"")</f>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:28" s="2" customFormat="1">
@@ -4591,10 +4734,10 @@
         <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C52" s="2">
-        <v>10032</v>
+        <v>10027</v>
       </c>
       <c r="D52" s="2">
         <v>26</v>
@@ -4603,14 +4746,14 @@
         <v>283</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G52" s="43"/>
       <c r="H52" s="42" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="I52" s="2">
-        <v>10031</v>
+        <v>10026</v>
       </c>
       <c r="J52" s="2">
         <v>0</v>
@@ -4622,11 +4765,15 @@
         <v>0</v>
       </c>
       <c r="M52" s="2">
-        <v>10031</v>
+        <v>10026</v>
       </c>
       <c r="N52" s="2" t="str">
         <f>IF(M52&lt;&gt;"",VLOOKUP(M52,Skill表!A:B,2,FALSE),"")</f>
-        <v>Tournament - Birde+额外球*4</v>
+        <v>SP - Birde + 返还球</v>
+      </c>
+      <c r="P52" s="2" t="str">
+        <f>IF(O52&lt;&gt;"",VLOOKUP(O52,Skill表!A:B,2,FALSE),"")</f>
+        <v/>
       </c>
     </row>
     <row r="53" spans="1:28" s="2" customFormat="1">
@@ -4634,10 +4781,10 @@
         <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="C53" s="2">
-        <v>10033</v>
+        <v>10028</v>
       </c>
       <c r="D53" s="2">
         <v>26</v>
@@ -4646,14 +4793,14 @@
         <v>283</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G53" s="43"/>
       <c r="H53" s="42" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="I53" s="2">
-        <v>10032</v>
+        <v>10027</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
@@ -4665,11 +4812,15 @@
         <v>0</v>
       </c>
       <c r="M53" s="2">
-        <v>10032</v>
+        <v>10027</v>
       </c>
       <c r="N53" s="2" t="str">
         <f>IF(M53&lt;&gt;"",VLOOKUP(M53,Skill表!A:B,2,FALSE),"")</f>
-        <v>Tournament - Birde+ - 返还球</v>
+        <v>SP - Birde+ Token*10</v>
+      </c>
+      <c r="P53" s="2" t="str">
+        <f>IF(O53&lt;&gt;"",VLOOKUP(O53,Skill表!A:B,2,FALSE),"")</f>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:28" s="2" customFormat="1">
@@ -4677,10 +4828,10 @@
         <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C54" s="2">
-        <v>10034</v>
+        <v>10029</v>
       </c>
       <c r="D54" s="2">
         <v>26</v>
@@ -4689,14 +4840,14 @@
         <v>283</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G54" s="43"/>
       <c r="H54" s="42" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I54" s="2">
-        <v>10033</v>
+        <v>10028</v>
       </c>
       <c r="J54" s="2">
         <v>0</v>
@@ -4708,11 +4859,11 @@
         <v>0</v>
       </c>
       <c r="M54" s="2">
-        <v>10033</v>
+        <v>10028</v>
       </c>
       <c r="N54" s="2" t="str">
         <f>IF(M54&lt;&gt;"",VLOOKUP(M54,Skill表!A:B,2,FALSE),"")</f>
-        <v>Tournament - Birde+ - Token*10</v>
+        <v xml:space="preserve">SP - 输比赛不扣❤ </v>
       </c>
     </row>
     <row r="55" spans="1:28" s="2" customFormat="1">
@@ -4720,10 +4871,10 @@
         <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="C55" s="2">
-        <v>10035</v>
+        <v>10030</v>
       </c>
       <c r="D55" s="2">
         <v>26</v>
@@ -4732,14 +4883,14 @@
         <v>283</v>
       </c>
       <c r="F55" s="42" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G55" s="43"/>
       <c r="H55" s="42" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="I55" s="2">
-        <v>10034</v>
+        <v>10029</v>
       </c>
       <c r="J55" s="2">
         <v>0</v>
@@ -4751,15 +4902,11 @@
         <v>0</v>
       </c>
       <c r="M55" s="2">
-        <v>10034</v>
+        <v>10029</v>
       </c>
       <c r="N55" s="2" t="str">
         <f>IF(M55&lt;&gt;"",VLOOKUP(M55,Skill表!A:B,2,FALSE),"")</f>
-        <v>Tournament - 加重打次数*1</v>
-      </c>
-      <c r="P55" s="2" t="str">
-        <f>IF(O55&lt;&gt;"",VLOOKUP(O55,Skill表!A:B,2,FALSE),"")</f>
-        <v/>
+        <v>Tournament - Birde+钻石*100</v>
       </c>
     </row>
     <row r="56" spans="1:28" s="2" customFormat="1">
@@ -4767,10 +4914,10 @@
         <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
       <c r="C56" s="2">
-        <v>10036</v>
+        <v>10031</v>
       </c>
       <c r="D56" s="2">
         <v>26</v>
@@ -4779,14 +4926,14 @@
         <v>283</v>
       </c>
       <c r="F56" s="42" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G56" s="43"/>
       <c r="H56" s="42" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I56" s="2">
-        <v>10035</v>
+        <v>10030</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
@@ -4798,15 +4945,11 @@
         <v>0</v>
       </c>
       <c r="M56" s="2">
-        <v>10035</v>
+        <v>10030</v>
       </c>
       <c r="N56" s="2" t="str">
         <f>IF(M56&lt;&gt;"",VLOOKUP(M56,Skill表!A:B,2,FALSE),"")</f>
-        <v>test - 激励紫卡</v>
-      </c>
-      <c r="P56" s="2" t="str">
-        <f>IF(O56&lt;&gt;"",VLOOKUP(O56,Skill表!A:B,2,FALSE),"")</f>
-        <v/>
+        <v>Tournament - Birde+紫卡*4</v>
       </c>
     </row>
     <row r="57" spans="1:28" s="2" customFormat="1">
@@ -4814,10 +4957,10 @@
         <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="C57" s="2">
-        <v>10037</v>
+        <v>10032</v>
       </c>
       <c r="D57" s="2">
         <v>26</v>
@@ -4826,14 +4969,14 @@
         <v>283</v>
       </c>
       <c r="F57" s="42" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G57" s="43"/>
       <c r="H57" s="42" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="I57" s="2">
-        <v>10036</v>
+        <v>10031</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
@@ -4845,47 +4988,270 @@
         <v>0</v>
       </c>
       <c r="M57" s="2">
-        <v>10036</v>
+        <v>10031</v>
       </c>
       <c r="N57" s="2" t="str">
         <f>IF(M57&lt;&gt;"",VLOOKUP(M57,Skill表!A:B,2,FALSE),"")</f>
+        <v>Tournament - Birde+额外球*4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" s="2" customFormat="1">
+      <c r="A58" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58" s="2">
+        <v>10033</v>
+      </c>
+      <c r="D58" s="2">
+        <v>26</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F58" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="G58" s="43"/>
+      <c r="H58" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="I58" s="2">
+        <v>10032</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>10032</v>
+      </c>
+      <c r="N58" s="2" t="str">
+        <f>IF(M58&lt;&gt;"",VLOOKUP(M58,Skill表!A:B,2,FALSE),"")</f>
+        <v>Tournament - Birde+ - 返还球</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" s="2" customFormat="1">
+      <c r="A59" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C59" s="2">
+        <v>10034</v>
+      </c>
+      <c r="D59" s="2">
+        <v>26</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>342</v>
+      </c>
+      <c r="G59" s="43"/>
+      <c r="H59" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="I59" s="2">
+        <v>10033</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>10033</v>
+      </c>
+      <c r="N59" s="2" t="str">
+        <f>IF(M59&lt;&gt;"",VLOOKUP(M59,Skill表!A:B,2,FALSE),"")</f>
+        <v>Tournament - Birde+ - Token*10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" s="2" customFormat="1">
+      <c r="A60" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" s="2">
+        <v>10035</v>
+      </c>
+      <c r="D60" s="2">
+        <v>26</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F60" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="G60" s="43"/>
+      <c r="H60" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="I60" s="2">
+        <v>10034</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2">
+        <v>10034</v>
+      </c>
+      <c r="N60" s="2" t="str">
+        <f>IF(M60&lt;&gt;"",VLOOKUP(M60,Skill表!A:B,2,FALSE),"")</f>
+        <v>Tournament - 加重打次数*1</v>
+      </c>
+      <c r="P60" s="2" t="str">
+        <f>IF(O60&lt;&gt;"",VLOOKUP(O60,Skill表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:28" s="2" customFormat="1">
+      <c r="A61" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="2">
+        <v>10036</v>
+      </c>
+      <c r="D61" s="2">
+        <v>26</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F61" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="G61" s="43"/>
+      <c r="H61" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="I61" s="2">
+        <v>10035</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>1</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <v>10035</v>
+      </c>
+      <c r="N61" s="2" t="str">
+        <f>IF(M61&lt;&gt;"",VLOOKUP(M61,Skill表!A:B,2,FALSE),"")</f>
+        <v>test - 激励紫卡</v>
+      </c>
+      <c r="P61" s="2" t="str">
+        <f>IF(O61&lt;&gt;"",VLOOKUP(O61,Skill表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:28" s="2" customFormat="1">
+      <c r="A62" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="2">
+        <v>10037</v>
+      </c>
+      <c r="D62" s="2">
+        <v>26</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F62" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="G62" s="43"/>
+      <c r="H62" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="I62" s="2">
+        <v>10036</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2">
+        <v>10036</v>
+      </c>
+      <c r="N62" s="2" t="str">
+        <f>IF(M62&lt;&gt;"",VLOOKUP(M62,Skill表!A:B,2,FALSE),"")</f>
         <v>test - 激励球</v>
       </c>
-      <c r="P57" s="2" t="str">
-        <f>IF(O57&lt;&gt;"",VLOOKUP(O57,Skill表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:28">
-      <c r="F58" s="40"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="40"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="31"/>
-      <c r="U58" s="31"/>
-      <c r="V58" s="31"/>
-      <c r="W58" s="31"/>
-      <c r="X58" s="31"/>
-      <c r="Y58" s="31"/>
-      <c r="Z58" s="31"/>
-      <c r="AA58" s="31"/>
-      <c r="AB58" s="31"/>
-    </row>
-    <row r="59" spans="1:28">
-      <c r="F59" s="40"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="40"/>
-    </row>
-    <row r="60" spans="1:28">
-      <c r="F60" s="40"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="40"/>
+      <c r="P62" s="2" t="str">
+        <f>IF(O62&lt;&gt;"",VLOOKUP(O62,Skill表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="F63" s="40"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="40"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="31"/>
+      <c r="V63" s="31"/>
+      <c r="W63" s="31"/>
+      <c r="X63" s="31"/>
+      <c r="Y63" s="31"/>
+      <c r="Z63" s="31"/>
+      <c r="AA63" s="31"/>
+      <c r="AB63" s="31"/>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="F64" s="40"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="40"/>
+    </row>
+    <row r="65" spans="6:8">
+      <c r="F65" s="40"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4896,13 +5262,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F412759-F70B-1343-9C94-8D49C9A91198}">
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -4994,12 +5360,12 @@
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
@@ -6239,282 +6605,340 @@
         <v>Birde + 8紫卡</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="12" customFormat="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="29"/>
+    <row r="29" spans="1:19">
+      <c r="A29" s="33">
+        <v>1025</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>4</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="S29" s="29"/>
-    </row>
-    <row r="30" spans="1:19" s="2" customFormat="1">
-      <c r="A30" s="8">
-        <v>10001</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L30" s="2">
-        <v>100001</v>
-      </c>
-      <c r="M30" s="8" t="str">
+      <c r="L29" s="6">
+        <v>10008</v>
+      </c>
+      <c r="M29" s="6" t="str">
+        <f>IF(L29&lt;&gt;"",VLOOKUP(L29,Prize表!A:B,2,FALSE),"")</f>
+        <v>Birde - 额外紫卡+4</v>
+      </c>
+      <c r="O29" s="6" t="str">
+        <f>IF(N29&lt;&gt;"",VLOOKUP(N29,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q29" s="6" t="str">
+        <f>IF(P29&lt;&gt;"",VLOOKUP(P29,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S29" s="6" t="str">
+        <f>IF(R29&lt;&gt;"",VLOOKUP(R29,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="35">
+        <v>1026</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>4</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="6">
+        <v>10009</v>
+      </c>
+      <c r="M30" s="6" t="str">
         <f>IF(L30&lt;&gt;"",VLOOKUP(L30,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - 胜利 + 金币 40</v>
-      </c>
-      <c r="O30" s="8" t="str">
+        <v>Birde - 额外紫卡+6</v>
+      </c>
+      <c r="O30" s="6" t="str">
         <f>IF(N30&lt;&gt;"",VLOOKUP(N30,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q30" s="8" t="str">
+      <c r="Q30" s="6" t="str">
         <f>IF(P30&lt;&gt;"",VLOOKUP(P30,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S30" s="8" t="str">
+      <c r="S30" s="6" t="str">
         <f>IF(R30&lt;&gt;"",VLOOKUP(R30,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:19" s="2" customFormat="1">
-      <c r="A31" s="8">
-        <v>10002</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L31" s="2">
-        <v>100002</v>
-      </c>
-      <c r="M31" s="8" t="str">
+    <row r="31" spans="1:19">
+      <c r="A31" s="35">
+        <v>1027</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="C31" s="6">
+        <v>4</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>4</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="6">
+        <v>10010</v>
+      </c>
+      <c r="M31" s="6" t="str">
         <f>IF(L31&lt;&gt;"",VLOOKUP(L31,Prize表!A:B,2,FALSE),"")</f>
-        <v>test- Birde + 额外球*4</v>
-      </c>
-      <c r="O31" s="8" t="str">
+        <v>Birde - 额外紫卡+8</v>
+      </c>
+      <c r="O31" s="6" t="str">
         <f>IF(N31&lt;&gt;"",VLOOKUP(N31,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q31" s="8" t="str">
+      <c r="Q31" s="6" t="str">
         <f>IF(P31&lt;&gt;"",VLOOKUP(P31,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S31" s="8" t="str">
+      <c r="S31" s="6" t="str">
         <f>IF(R31&lt;&gt;"",VLOOKUP(R31,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:19" s="2" customFormat="1">
-      <c r="A32" s="8">
-        <v>10003</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="L32" s="2">
-        <v>100003</v>
-      </c>
-      <c r="M32" s="8" t="str">
+    <row r="32" spans="1:19">
+      <c r="A32" s="35">
+        <v>1028</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="C32" s="6">
+        <v>4</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="6">
+        <v>10035</v>
+      </c>
+      <c r="M32" s="6" t="str">
         <f>IF(L32&lt;&gt;"",VLOOKUP(L32,Prize表!A:B,2,FALSE),"")</f>
-        <v xml:space="preserve">test - Birde + 额外钻石*100 </v>
-      </c>
-      <c r="O32" s="8" t="str">
+        <v>Hole in one + 14紫卡</v>
+      </c>
+      <c r="N32">
+        <v>10034</v>
+      </c>
+      <c r="O32" s="6" t="str">
         <f>IF(N32&lt;&gt;"",VLOOKUP(N32,Prize表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q32" s="8" t="str">
+        <v>Albatross +12紫卡</v>
+      </c>
+      <c r="P32">
+        <v>10033</v>
+      </c>
+      <c r="Q32" s="6" t="str">
         <f>IF(P32&lt;&gt;"",VLOOKUP(P32,Prize表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S32" s="8" t="str">
+        <v>Eagle + 10紫卡</v>
+      </c>
+      <c r="R32">
+        <v>10032</v>
+      </c>
+      <c r="S32" s="6" t="str">
         <f>IF(R32&lt;&gt;"",VLOOKUP(R32,Prize表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="2" customFormat="1">
-      <c r="A33" s="8">
-        <v>10004</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L33" s="2">
-        <v>100004</v>
-      </c>
-      <c r="M33" s="8" t="str">
+        <v>Birde + 8紫卡</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="12" customFormat="1">
+      <c r="A33" s="35">
+        <v>1029</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="C33" s="29">
+        <v>2</v>
+      </c>
+      <c r="D33" s="29">
+        <v>0</v>
+      </c>
+      <c r="E33" s="29">
+        <v>4</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="29">
+        <v>10040</v>
+      </c>
+      <c r="M33" s="6" t="str">
         <f>IF(L33&lt;&gt;"",VLOOKUP(L33,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - Birde+ 额外紫卡*4</v>
-      </c>
-      <c r="O33" s="8" t="str">
+        <v>Kingdom + 额外点数10</v>
+      </c>
+      <c r="O33" s="6" t="str">
         <f>IF(N33&lt;&gt;"",VLOOKUP(N33,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q33" s="8" t="str">
-        <f>IF(P33&lt;&gt;"",VLOOKUP(P33,Prize表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S33" s="8" t="str">
+      <c r="Q33" s="29"/>
+      <c r="S33" s="6" t="str">
         <f>IF(R33&lt;&gt;"",VLOOKUP(R33,Prize表!A:B,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:19" s="2" customFormat="1">
-      <c r="A34" s="8">
-        <v>10005</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="L34" s="2">
-        <v>100005</v>
-      </c>
-      <c r="M34" s="8" t="str">
+    <row r="34" spans="1:19" s="12" customFormat="1">
+      <c r="A34" s="35">
+        <v>1030</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="C34" s="29">
+        <v>3</v>
+      </c>
+      <c r="D34" s="29">
+        <v>0</v>
+      </c>
+      <c r="E34" s="29">
+        <v>4</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="29">
+        <v>10041</v>
+      </c>
+      <c r="M34" s="6" t="str">
         <f>IF(L34&lt;&gt;"",VLOOKUP(L34,Prize表!A:B,2,FALSE),"")</f>
-        <v>test -  Birde+ Token*10</v>
-      </c>
-      <c r="O34" s="8" t="str">
-        <f>IF(N34&lt;&gt;"",VLOOKUP(N34,Prize表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q34" s="8" t="str">
-        <f>IF(P34&lt;&gt;"",VLOOKUP(P34,Prize表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S34" s="8" t="str">
-        <f>IF(R34&lt;&gt;"",VLOOKUP(R34,Prize表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="2" customFormat="1">
-      <c r="A35" s="8">
-        <v>10006</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="L35" s="2">
-        <v>100006</v>
-      </c>
-      <c r="M35" s="8" t="str">
+        <v>Kingdom + 额外点数15</v>
+      </c>
+      <c r="O34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="S34" s="29"/>
+    </row>
+    <row r="35" spans="1:19" s="12" customFormat="1">
+      <c r="A35" s="35">
+        <v>1031</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="C35" s="29">
+        <v>4</v>
+      </c>
+      <c r="D35" s="29">
+        <v>0</v>
+      </c>
+      <c r="E35" s="29">
+        <v>4</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="29">
+        <v>10042</v>
+      </c>
+      <c r="M35" s="6" t="str">
         <f>IF(L35&lt;&gt;"",VLOOKUP(L35,Prize表!A:B,2,FALSE),"")</f>
-        <v>test -  Birde +  返还球</v>
-      </c>
-      <c r="O35" s="8" t="str">
-        <f>IF(N35&lt;&gt;"",VLOOKUP(N35,Prize表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q35" s="8" t="str">
-        <f>IF(P35&lt;&gt;"",VLOOKUP(P35,Prize表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S35" s="8" t="str">
-        <f>IF(R35&lt;&gt;"",VLOOKUP(R35,Prize表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="2" customFormat="1">
-      <c r="A36" s="8">
-        <v>10007</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="L36" s="2">
-        <v>100007</v>
-      </c>
-      <c r="M36" s="8" t="str">
-        <f>IF(L36&lt;&gt;"",VLOOKUP(L36,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - Stage - 输比赛少掉 50%分</v>
-      </c>
-      <c r="O36" s="8" t="str">
-        <f>IF(N36&lt;&gt;"",VLOOKUP(N36,Prize表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q36" s="8" t="str">
-        <f>IF(P36&lt;&gt;"",VLOOKUP(P36,Prize表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S36" s="8" t="str">
-        <f>IF(R36&lt;&gt;"",VLOOKUP(R36,Prize表!A:B,2,FALSE),"")</f>
-        <v/>
-      </c>
+        <v>Kingdom + 额外点数20</v>
+      </c>
+      <c r="O35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="S35" s="29"/>
+    </row>
+    <row r="36" spans="1:19" s="12" customFormat="1">
+      <c r="A36" s="58"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="S36" s="29"/>
     </row>
     <row r="37" spans="1:19" s="2" customFormat="1">
       <c r="A37" s="8">
-        <v>10008</v>
+        <v>10001</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -6523,23 +6947,14 @@
         <v>-1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K37" s="2">
-        <v>30</v>
+        <v>124</v>
+      </c>
+      <c r="L37" s="2">
+        <v>100001</v>
       </c>
       <c r="M37" s="8" t="str">
         <f>IF(L37&lt;&gt;"",VLOOKUP(L37,Prize表!A:B,2,FALSE),"")</f>
-        <v/>
+        <v>test - 胜利 + 金币 40</v>
       </c>
       <c r="O37" s="8" t="str">
         <f>IF(N37&lt;&gt;"",VLOOKUP(N37,Prize表!A:B,2,FALSE),"")</f>
@@ -6556,26 +6971,26 @@
     </row>
     <row r="38" spans="1:19" s="2" customFormat="1">
       <c r="A38" s="8">
-        <v>10009</v>
+        <v>10002</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
       </c>
       <c r="E38" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L38" s="2">
-        <v>100004</v>
+        <v>100002</v>
       </c>
       <c r="M38" s="8" t="str">
         <f>IF(L38&lt;&gt;"",VLOOKUP(L38,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - Birde+ 额外紫卡*4</v>
+        <v>test- Birde + 额外球*4</v>
       </c>
       <c r="O38" s="8" t="str">
         <f>IF(N38&lt;&gt;"",VLOOKUP(N38,Prize表!A:B,2,FALSE),"")</f>
@@ -6592,26 +7007,26 @@
     </row>
     <row r="39" spans="1:19" s="2" customFormat="1">
       <c r="A39" s="8">
-        <v>10010</v>
+        <v>10003</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="E39" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>126</v>
+        <v>376</v>
       </c>
       <c r="L39" s="2">
-        <v>100002</v>
+        <v>100003</v>
       </c>
       <c r="M39" s="8" t="str">
         <f>IF(L39&lt;&gt;"",VLOOKUP(L39,Prize表!A:B,2,FALSE),"")</f>
-        <v>test- Birde + 额外球*4</v>
+        <v xml:space="preserve">test - Birde + 额外钻石*100 </v>
       </c>
       <c r="O39" s="8" t="str">
         <f>IF(N39&lt;&gt;"",VLOOKUP(N39,Prize表!A:B,2,FALSE),"")</f>
@@ -6628,26 +7043,26 @@
     </row>
     <row r="40" spans="1:19" s="2" customFormat="1">
       <c r="A40" s="8">
-        <v>10011</v>
+        <v>10004</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
       </c>
       <c r="E40" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="L40" s="2">
-        <v>100003</v>
+        <v>100004</v>
       </c>
       <c r="M40" s="8" t="str">
         <f>IF(L40&lt;&gt;"",VLOOKUP(L40,Prize表!A:B,2,FALSE),"")</f>
-        <v xml:space="preserve">test - Birde + 额外钻石*100 </v>
+        <v>test - Birde+ 额外紫卡*4</v>
       </c>
       <c r="O40" s="8" t="str">
         <f>IF(N40&lt;&gt;"",VLOOKUP(N40,Prize表!A:B,2,FALSE),"")</f>
@@ -6664,16 +7079,16 @@
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1">
       <c r="A41" s="8">
-        <v>10012</v>
+        <v>10005</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="E41" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>377</v>
@@ -6700,16 +7115,16 @@
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1">
       <c r="A42" s="8">
-        <v>10013</v>
+        <v>10006</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="E42" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>378</v>
@@ -6736,26 +7151,26 @@
     </row>
     <row r="43" spans="1:19" s="2" customFormat="1">
       <c r="A43" s="8">
-        <v>10014</v>
+        <v>10007</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="E43" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L43" s="2">
-        <v>100008</v>
+        <v>100007</v>
       </c>
       <c r="M43" s="8" t="str">
         <f>IF(L43&lt;&gt;"",VLOOKUP(L43,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - Kingdom - 额外10点 点数</v>
+        <v>test - Stage - 输比赛少掉 50%分</v>
       </c>
       <c r="O43" s="8" t="str">
         <f>IF(N43&lt;&gt;"",VLOOKUP(N43,Prize表!A:B,2,FALSE),"")</f>
@@ -6772,26 +7187,35 @@
     </row>
     <row r="44" spans="1:19" s="2" customFormat="1">
       <c r="A44" s="8">
-        <v>10015</v>
+        <v>10008</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
       </c>
       <c r="E44" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="L44" s="2">
-        <v>100009</v>
+        <v>66</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K44" s="2">
+        <v>30</v>
       </c>
       <c r="M44" s="8" t="str">
         <f>IF(L44&lt;&gt;"",VLOOKUP(L44,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - Kingdom - 输比赛少掉 50%分</v>
+        <v/>
       </c>
       <c r="O44" s="8" t="str">
         <f>IF(N44&lt;&gt;"",VLOOKUP(N44,Prize表!A:B,2,FALSE),"")</f>
@@ -6808,26 +7232,26 @@
     </row>
     <row r="45" spans="1:19" s="2" customFormat="1">
       <c r="A45" s="8">
-        <v>10016</v>
+        <v>10009</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
       </c>
       <c r="E45" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="L45" s="2">
-        <v>100010</v>
+        <v>100004</v>
       </c>
       <c r="M45" s="8" t="str">
         <f>IF(L45&lt;&gt;"",VLOOKUP(L45,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - Arena - 占洞钻石*100</v>
+        <v>test - Birde+ 额外紫卡*4</v>
       </c>
       <c r="O45" s="8" t="str">
         <f>IF(N45&lt;&gt;"",VLOOKUP(N45,Prize表!A:B,2,FALSE),"")</f>
@@ -6844,26 +7268,26 @@
     </row>
     <row r="46" spans="1:19" s="2" customFormat="1">
       <c r="A46" s="8">
-        <v>10017</v>
+        <v>10010</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
       </c>
       <c r="E46" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L46" s="2">
-        <v>100011</v>
+        <v>100002</v>
       </c>
       <c r="M46" s="8" t="str">
         <f>IF(L46&lt;&gt;"",VLOOKUP(L46,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - Arena - 占洞紫卡*4</v>
+        <v>test- Birde + 额外球*4</v>
       </c>
       <c r="O46" s="8" t="str">
         <f>IF(N46&lt;&gt;"",VLOOKUP(N46,Prize表!A:B,2,FALSE),"")</f>
@@ -6880,26 +7304,26 @@
     </row>
     <row r="47" spans="1:19" s="2" customFormat="1">
       <c r="A47" s="8">
-        <v>10018</v>
+        <v>10011</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="E47" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>126</v>
+        <v>376</v>
       </c>
       <c r="L47" s="2">
-        <v>100012</v>
+        <v>100003</v>
       </c>
       <c r="M47" s="8" t="str">
         <f>IF(L47&lt;&gt;"",VLOOKUP(L47,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - Arena - 占洞额外球*4</v>
+        <v xml:space="preserve">test - Birde + 额外钻石*100 </v>
       </c>
       <c r="O47" s="8" t="str">
         <f>IF(N47&lt;&gt;"",VLOOKUP(N47,Prize表!A:B,2,FALSE),"")</f>
@@ -6916,26 +7340,26 @@
     </row>
     <row r="48" spans="1:19" s="2" customFormat="1">
       <c r="A48" s="8">
-        <v>10019</v>
+        <v>10012</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
       </c>
       <c r="E48" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L48" s="2">
-        <v>100013</v>
+        <v>100005</v>
       </c>
       <c r="M48" s="8" t="str">
         <f>IF(L48&lt;&gt;"",VLOOKUP(L48,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - Arena - 占洞 - 返还球</v>
+        <v>test -  Birde+ Token*10</v>
       </c>
       <c r="O48" s="8" t="str">
         <f>IF(N48&lt;&gt;"",VLOOKUP(N48,Prize表!A:B,2,FALSE),"")</f>
@@ -6952,26 +7376,26 @@
     </row>
     <row r="49" spans="1:19" s="2" customFormat="1">
       <c r="A49" s="8">
-        <v>10020</v>
+        <v>10013</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
       <c r="E49" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L49" s="2">
-        <v>100014</v>
+        <v>100006</v>
       </c>
       <c r="M49" s="8" t="str">
         <f>IF(L49&lt;&gt;"",VLOOKUP(L49,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - Arena - 占洞 - Token*10</v>
+        <v>test -  Birde +  返还球</v>
       </c>
       <c r="O49" s="8" t="str">
         <f>IF(N49&lt;&gt;"",VLOOKUP(N49,Prize表!A:B,2,FALSE),"")</f>
@@ -6988,26 +7412,26 @@
     </row>
     <row r="50" spans="1:19" s="2" customFormat="1">
       <c r="A50" s="8">
-        <v>10021</v>
+        <v>10014</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
       </c>
       <c r="E50" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L50" s="2">
-        <v>100016</v>
+        <v>100008</v>
       </c>
       <c r="M50" s="8" t="str">
         <f>IF(L50&lt;&gt;"",VLOOKUP(L50,Prize表!A:B,2,FALSE),"")</f>
-        <v xml:space="preserve">test - Arena - 不扣体力 </v>
+        <v>test - Kingdom - 额外10点 点数</v>
       </c>
       <c r="O50" s="8" t="str">
         <f>IF(N50&lt;&gt;"",VLOOKUP(N50,Prize表!A:B,2,FALSE),"")</f>
@@ -7024,26 +7448,26 @@
     </row>
     <row r="51" spans="1:19" s="2" customFormat="1">
       <c r="A51" s="8">
-        <v>10022</v>
+        <v>10015</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
       </c>
       <c r="E51" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L51" s="2">
-        <v>100015</v>
+        <v>100009</v>
       </c>
       <c r="M51" s="8" t="str">
         <f>IF(L51&lt;&gt;"",VLOOKUP(L51,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - Arena - 占洞 -  额外狼币*10</v>
+        <v>test - Kingdom - 输比赛少掉 50%分</v>
       </c>
       <c r="O51" s="8" t="str">
         <f>IF(N51&lt;&gt;"",VLOOKUP(N51,Prize表!A:B,2,FALSE),"")</f>
@@ -7060,26 +7484,26 @@
     </row>
     <row r="52" spans="1:19" s="2" customFormat="1">
       <c r="A52" s="8">
-        <v>10023</v>
+        <v>10016</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
       </c>
       <c r="E52" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>376</v>
       </c>
       <c r="L52" s="2">
-        <v>100003</v>
+        <v>100010</v>
       </c>
       <c r="M52" s="8" t="str">
         <f>IF(L52&lt;&gt;"",VLOOKUP(L52,Prize表!A:B,2,FALSE),"")</f>
-        <v xml:space="preserve">test - Birde + 额外钻石*100 </v>
+        <v>test - Arena - 占洞钻石*100</v>
       </c>
       <c r="O52" s="8" t="str">
         <f>IF(N52&lt;&gt;"",VLOOKUP(N52,Prize表!A:B,2,FALSE),"")</f>
@@ -7096,26 +7520,26 @@
     </row>
     <row r="53" spans="1:19" s="2" customFormat="1">
       <c r="A53" s="8">
-        <v>10024</v>
+        <v>10017</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
       </c>
       <c r="E53" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>125</v>
       </c>
       <c r="L53" s="2">
-        <v>100004</v>
+        <v>100011</v>
       </c>
       <c r="M53" s="8" t="str">
         <f>IF(L53&lt;&gt;"",VLOOKUP(L53,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - Birde+ 额外紫卡*4</v>
+        <v>test - Arena - 占洞紫卡*4</v>
       </c>
       <c r="O53" s="8" t="str">
         <f>IF(N53&lt;&gt;"",VLOOKUP(N53,Prize表!A:B,2,FALSE),"")</f>
@@ -7132,26 +7556,26 @@
     </row>
     <row r="54" spans="1:19" s="2" customFormat="1">
       <c r="A54" s="8">
-        <v>10025</v>
+        <v>10018</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
       </c>
       <c r="E54" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>126</v>
       </c>
       <c r="L54" s="2">
-        <v>100002</v>
+        <v>100012</v>
       </c>
       <c r="M54" s="8" t="str">
         <f>IF(L54&lt;&gt;"",VLOOKUP(L54,Prize表!A:B,2,FALSE),"")</f>
-        <v>test- Birde + 额外球*4</v>
+        <v>test - Arena - 占洞额外球*4</v>
       </c>
       <c r="O54" s="8" t="str">
         <f>IF(N54&lt;&gt;"",VLOOKUP(N54,Prize表!A:B,2,FALSE),"")</f>
@@ -7168,26 +7592,26 @@
     </row>
     <row r="55" spans="1:19" s="2" customFormat="1">
       <c r="A55" s="8">
-        <v>10026</v>
+        <v>10019</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
       </c>
       <c r="E55" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>378</v>
       </c>
       <c r="L55" s="2">
-        <v>100006</v>
+        <v>100013</v>
       </c>
       <c r="M55" s="8" t="str">
         <f>IF(L55&lt;&gt;"",VLOOKUP(L55,Prize表!A:B,2,FALSE),"")</f>
-        <v>test -  Birde +  返还球</v>
+        <v>test - Arena - 占洞 - 返还球</v>
       </c>
       <c r="O55" s="8" t="str">
         <f>IF(N55&lt;&gt;"",VLOOKUP(N55,Prize表!A:B,2,FALSE),"")</f>
@@ -7204,26 +7628,26 @@
     </row>
     <row r="56" spans="1:19" s="2" customFormat="1">
       <c r="A56" s="8">
-        <v>10027</v>
+        <v>10020</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
       </c>
       <c r="E56" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>377</v>
       </c>
       <c r="L56" s="2">
-        <v>100005</v>
+        <v>100014</v>
       </c>
       <c r="M56" s="8" t="str">
         <f>IF(L56&lt;&gt;"",VLOOKUP(L56,Prize表!A:B,2,FALSE),"")</f>
-        <v>test -  Birde+ Token*10</v>
+        <v>test - Arena - 占洞 - Token*10</v>
       </c>
       <c r="O56" s="8" t="str">
         <f>IF(N56&lt;&gt;"",VLOOKUP(N56,Prize表!A:B,2,FALSE),"")</f>
@@ -7240,26 +7664,26 @@
     </row>
     <row r="57" spans="1:19" s="2" customFormat="1">
       <c r="A57" s="8">
-        <v>10028</v>
+        <v>10021</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
       </c>
       <c r="E57" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L57" s="2">
-        <v>100017</v>
+        <v>100016</v>
       </c>
       <c r="M57" s="8" t="str">
         <f>IF(L57&lt;&gt;"",VLOOKUP(L57,Prize表!A:B,2,FALSE),"")</f>
-        <v xml:space="preserve">test - SP - 输比赛不扣❤ </v>
+        <v xml:space="preserve">test - Arena - 不扣体力 </v>
       </c>
       <c r="O57" s="8" t="str">
         <f>IF(N57&lt;&gt;"",VLOOKUP(N57,Prize表!A:B,2,FALSE),"")</f>
@@ -7276,26 +7700,26 @@
     </row>
     <row r="58" spans="1:19" s="2" customFormat="1">
       <c r="A58" s="8">
-        <v>10029</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>277</v>
+        <v>10022</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
       </c>
       <c r="E58" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="L58" s="2">
-        <v>100003</v>
+        <v>100015</v>
       </c>
       <c r="M58" s="8" t="str">
         <f>IF(L58&lt;&gt;"",VLOOKUP(L58,Prize表!A:B,2,FALSE),"")</f>
-        <v xml:space="preserve">test - Birde + 额外钻石*100 </v>
+        <v>test - Arena - 占洞 -  额外狼币*10</v>
       </c>
       <c r="O58" s="8" t="str">
         <f>IF(N58&lt;&gt;"",VLOOKUP(N58,Prize表!A:B,2,FALSE),"")</f>
@@ -7312,26 +7736,26 @@
     </row>
     <row r="59" spans="1:19" s="2" customFormat="1">
       <c r="A59" s="8">
-        <v>10030</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>278</v>
+        <v>10023</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
       </c>
       <c r="E59" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>376</v>
       </c>
       <c r="L59" s="2">
-        <v>100004</v>
+        <v>100003</v>
       </c>
       <c r="M59" s="8" t="str">
         <f>IF(L59&lt;&gt;"",VLOOKUP(L59,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - Birde+ 额外紫卡*4</v>
+        <v xml:space="preserve">test - Birde + 额外钻石*100 </v>
       </c>
       <c r="O59" s="8" t="str">
         <f>IF(N59&lt;&gt;"",VLOOKUP(N59,Prize表!A:B,2,FALSE),"")</f>
@@ -7348,26 +7772,26 @@
     </row>
     <row r="60" spans="1:19" s="2" customFormat="1">
       <c r="A60" s="8">
-        <v>10031</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>279</v>
+        <v>10024</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
       </c>
       <c r="E60" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>125</v>
       </c>
       <c r="L60" s="2">
-        <v>100002</v>
+        <v>100004</v>
       </c>
       <c r="M60" s="8" t="str">
         <f>IF(L60&lt;&gt;"",VLOOKUP(L60,Prize表!A:B,2,FALSE),"")</f>
-        <v>test- Birde + 额外球*4</v>
+        <v>test - Birde+ 额外紫卡*4</v>
       </c>
       <c r="O60" s="8" t="str">
         <f>IF(N60&lt;&gt;"",VLOOKUP(N60,Prize表!A:B,2,FALSE),"")</f>
@@ -7384,26 +7808,26 @@
     </row>
     <row r="61" spans="1:19" s="2" customFormat="1">
       <c r="A61" s="8">
-        <v>10032</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>280</v>
+        <v>10025</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
       </c>
       <c r="E61" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>126</v>
       </c>
       <c r="L61" s="2">
-        <v>100006</v>
+        <v>100002</v>
       </c>
       <c r="M61" s="8" t="str">
         <f>IF(L61&lt;&gt;"",VLOOKUP(L61,Prize表!A:B,2,FALSE),"")</f>
-        <v>test -  Birde +  返还球</v>
+        <v>test- Birde + 额外球*4</v>
       </c>
       <c r="O61" s="8" t="str">
         <f>IF(N61&lt;&gt;"",VLOOKUP(N61,Prize表!A:B,2,FALSE),"")</f>
@@ -7420,26 +7844,26 @@
     </row>
     <row r="62" spans="1:19" s="2" customFormat="1">
       <c r="A62" s="8">
-        <v>10033</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>281</v>
+        <v>10026</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
       </c>
       <c r="E62" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L62" s="2">
-        <v>100005</v>
+        <v>100006</v>
       </c>
       <c r="M62" s="8" t="str">
         <f>IF(L62&lt;&gt;"",VLOOKUP(L62,Prize表!A:B,2,FALSE),"")</f>
-        <v>test -  Birde+ Token*10</v>
+        <v>test -  Birde +  返还球</v>
       </c>
       <c r="O62" s="8" t="str">
         <f>IF(N62&lt;&gt;"",VLOOKUP(N62,Prize表!A:B,2,FALSE),"")</f>
@@ -7456,26 +7880,26 @@
     </row>
     <row r="63" spans="1:19" s="2" customFormat="1">
       <c r="A63" s="8">
-        <v>10034</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>282</v>
+        <v>10027</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
       </c>
       <c r="E63" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="L63" s="2">
-        <v>100018</v>
+        <v>100005</v>
       </c>
       <c r="M63" s="8" t="str">
         <f>IF(L63&lt;&gt;"",VLOOKUP(L63,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - Tournament - 加重打次数*1</v>
+        <v>test -  Birde+ Token*10</v>
       </c>
       <c r="O63" s="8" t="str">
         <f>IF(N63&lt;&gt;"",VLOOKUP(N63,Prize表!A:B,2,FALSE),"")</f>
@@ -7492,162 +7916,414 @@
     </row>
     <row r="64" spans="1:19" s="2" customFormat="1">
       <c r="A64" s="8">
-        <v>10035</v>
+        <v>10028</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
       </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
       <c r="E64" s="2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L64" s="2">
-        <v>100019</v>
+        <v>100017</v>
       </c>
       <c r="M64" s="8" t="str">
         <f>IF(L64&lt;&gt;"",VLOOKUP(L64,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - 激励紫卡 - HlO - 紫卡+10</v>
-      </c>
-      <c r="N64" s="2">
-        <f t="shared" ref="N64:N66" si="0">L64+1</f>
-        <v>100020</v>
+        <v xml:space="preserve">test - SP - 输比赛不扣❤ </v>
       </c>
       <c r="O64" s="8" t="str">
         <f>IF(N64&lt;&gt;"",VLOOKUP(N64,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - 激励紫卡 - Albatross - 紫卡+8</v>
-      </c>
-      <c r="P64" s="2">
-        <f t="shared" ref="P64:P66" si="1">N64+1</f>
-        <v>100021</v>
+        <v/>
       </c>
       <c r="Q64" s="8" t="str">
         <f>IF(P64&lt;&gt;"",VLOOKUP(P64,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - 激励紫卡 - Eagle - 紫卡 +6</v>
-      </c>
-      <c r="R64" s="2">
-        <f t="shared" ref="R64:R66" si="2">P64+1</f>
-        <v>100022</v>
+        <v/>
       </c>
       <c r="S64" s="8" t="str">
         <f>IF(R64&lt;&gt;"",VLOOKUP(R64,Prize表!A:B,2,FALSE),"")</f>
-        <v>test - 激励紫卡 - Birde - 紫卡+4</v>
+        <v/>
       </c>
     </row>
     <row r="65" spans="1:19" s="2" customFormat="1">
       <c r="A65" s="8">
-        <v>10036</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>275</v>
+        <v>10029</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
       </c>
-      <c r="D65" s="2">
-        <v>1</v>
-      </c>
       <c r="E65" s="2">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>127</v>
+        <v>376</v>
       </c>
       <c r="L65" s="2">
-        <v>100023</v>
+        <v>100003</v>
       </c>
       <c r="M65" s="8" t="str">
         <f>IF(L65&lt;&gt;"",VLOOKUP(L65,Prize表!A:B,2,FALSE),"")</f>
+        <v xml:space="preserve">test - Birde + 额外钻石*100 </v>
+      </c>
+      <c r="O65" s="8" t="str">
+        <f>IF(N65&lt;&gt;"",VLOOKUP(N65,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q65" s="8" t="str">
+        <f>IF(P65&lt;&gt;"",VLOOKUP(P65,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S65" s="8" t="str">
+        <f>IF(R65&lt;&gt;"",VLOOKUP(R65,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:19" s="2" customFormat="1">
+      <c r="A66" s="8">
+        <v>10030</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2">
+        <v>6</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L66" s="2">
+        <v>100004</v>
+      </c>
+      <c r="M66" s="8" t="str">
+        <f>IF(L66&lt;&gt;"",VLOOKUP(L66,Prize表!A:B,2,FALSE),"")</f>
+        <v>test - Birde+ 额外紫卡*4</v>
+      </c>
+      <c r="O66" s="8" t="str">
+        <f>IF(N66&lt;&gt;"",VLOOKUP(N66,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q66" s="8" t="str">
+        <f>IF(P66&lt;&gt;"",VLOOKUP(P66,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S66" s="8" t="str">
+        <f>IF(R66&lt;&gt;"",VLOOKUP(R66,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:19" s="2" customFormat="1">
+      <c r="A67" s="8">
+        <v>10031</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2">
+        <v>6</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L67" s="2">
+        <v>100002</v>
+      </c>
+      <c r="M67" s="8" t="str">
+        <f>IF(L67&lt;&gt;"",VLOOKUP(L67,Prize表!A:B,2,FALSE),"")</f>
+        <v>test- Birde + 额外球*4</v>
+      </c>
+      <c r="O67" s="8" t="str">
+        <f>IF(N67&lt;&gt;"",VLOOKUP(N67,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q67" s="8" t="str">
+        <f>IF(P67&lt;&gt;"",VLOOKUP(P67,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S67" s="8" t="str">
+        <f>IF(R67&lt;&gt;"",VLOOKUP(R67,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:19" s="2" customFormat="1">
+      <c r="A68" s="8">
+        <v>10032</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2">
+        <v>6</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L68" s="2">
+        <v>100006</v>
+      </c>
+      <c r="M68" s="8" t="str">
+        <f>IF(L68&lt;&gt;"",VLOOKUP(L68,Prize表!A:B,2,FALSE),"")</f>
+        <v>test -  Birde +  返还球</v>
+      </c>
+      <c r="O68" s="8" t="str">
+        <f>IF(N68&lt;&gt;"",VLOOKUP(N68,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q68" s="8" t="str">
+        <f>IF(P68&lt;&gt;"",VLOOKUP(P68,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S68" s="8" t="str">
+        <f>IF(R68&lt;&gt;"",VLOOKUP(R68,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:19" s="2" customFormat="1">
+      <c r="A69" s="8">
+        <v>10033</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2">
+        <v>6</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="L69" s="2">
+        <v>100005</v>
+      </c>
+      <c r="M69" s="8" t="str">
+        <f>IF(L69&lt;&gt;"",VLOOKUP(L69,Prize表!A:B,2,FALSE),"")</f>
+        <v>test -  Birde+ Token*10</v>
+      </c>
+      <c r="O69" s="8" t="str">
+        <f>IF(N69&lt;&gt;"",VLOOKUP(N69,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q69" s="8" t="str">
+        <f>IF(P69&lt;&gt;"",VLOOKUP(P69,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S69" s="8" t="str">
+        <f>IF(R69&lt;&gt;"",VLOOKUP(R69,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:19" s="2" customFormat="1">
+      <c r="A70" s="8">
+        <v>10034</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2">
+        <v>6</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L70" s="2">
+        <v>100018</v>
+      </c>
+      <c r="M70" s="8" t="str">
+        <f>IF(L70&lt;&gt;"",VLOOKUP(L70,Prize表!A:B,2,FALSE),"")</f>
+        <v>test - Tournament - 加重打次数*1</v>
+      </c>
+      <c r="O70" s="8" t="str">
+        <f>IF(N70&lt;&gt;"",VLOOKUP(N70,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q70" s="8" t="str">
+        <f>IF(P70&lt;&gt;"",VLOOKUP(P70,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S70" s="8" t="str">
+        <f>IF(R70&lt;&gt;"",VLOOKUP(R70,Prize表!A:B,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:19" s="2" customFormat="1">
+      <c r="A71" s="8">
+        <v>10035</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="L71" s="2">
+        <v>100019</v>
+      </c>
+      <c r="M71" s="8" t="str">
+        <f>IF(L71&lt;&gt;"",VLOOKUP(L71,Prize表!A:B,2,FALSE),"")</f>
+        <v>test - 激励紫卡 - HlO - 紫卡+10</v>
+      </c>
+      <c r="N71" s="2">
+        <f t="shared" ref="N71:N73" si="0">L71+1</f>
+        <v>100020</v>
+      </c>
+      <c r="O71" s="8" t="str">
+        <f>IF(N71&lt;&gt;"",VLOOKUP(N71,Prize表!A:B,2,FALSE),"")</f>
+        <v>test - 激励紫卡 - Albatross - 紫卡+8</v>
+      </c>
+      <c r="P71" s="2">
+        <f t="shared" ref="P71:P73" si="1">N71+1</f>
+        <v>100021</v>
+      </c>
+      <c r="Q71" s="8" t="str">
+        <f>IF(P71&lt;&gt;"",VLOOKUP(P71,Prize表!A:B,2,FALSE),"")</f>
+        <v>test - 激励紫卡 - Eagle - 紫卡 +6</v>
+      </c>
+      <c r="R71" s="2">
+        <f t="shared" ref="R71:R73" si="2">P71+1</f>
+        <v>100022</v>
+      </c>
+      <c r="S71" s="8" t="str">
+        <f>IF(R71&lt;&gt;"",VLOOKUP(R71,Prize表!A:B,2,FALSE),"")</f>
+        <v>test - 激励紫卡 - Birde - 紫卡+4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" s="2" customFormat="1">
+      <c r="A72" s="8">
+        <v>10036</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L72" s="2">
+        <v>100023</v>
+      </c>
+      <c r="M72" s="8" t="str">
+        <f>IF(L72&lt;&gt;"",VLOOKUP(L72,Prize表!A:B,2,FALSE),"")</f>
         <v>test - 激励球 - HlO - 球+14</v>
       </c>
-      <c r="N65" s="2">
+      <c r="N72" s="2">
         <f t="shared" si="0"/>
         <v>100024</v>
       </c>
-      <c r="O65" s="8" t="str">
-        <f>IF(N65&lt;&gt;"",VLOOKUP(N65,Prize表!A:B,2,FALSE),"")</f>
+      <c r="O72" s="8" t="str">
+        <f>IF(N72&lt;&gt;"",VLOOKUP(N72,Prize表!A:B,2,FALSE),"")</f>
         <v>test - 激励球 - Albatross - 球+12</v>
       </c>
-      <c r="P65" s="2">
+      <c r="P72" s="2">
         <f t="shared" si="1"/>
         <v>100025</v>
       </c>
-      <c r="Q65" s="8" t="str">
-        <f>IF(P65&lt;&gt;"",VLOOKUP(P65,Prize表!A:B,2,FALSE),"")</f>
+      <c r="Q72" s="8" t="str">
+        <f>IF(P72&lt;&gt;"",VLOOKUP(P72,Prize表!A:B,2,FALSE),"")</f>
         <v>test - 激励球 - Eagle - 球 +10</v>
       </c>
-      <c r="R65" s="2">
+      <c r="R72" s="2">
         <f t="shared" si="2"/>
         <v>100026</v>
       </c>
-      <c r="S65" s="8" t="str">
-        <f>IF(R65&lt;&gt;"",VLOOKUP(R65,Prize表!A:B,2,FALSE),"")</f>
+      <c r="S72" s="8" t="str">
+        <f>IF(R72&lt;&gt;"",VLOOKUP(R72,Prize表!A:B,2,FALSE),"")</f>
         <v>test - 激励球 - Birde - 球+8</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="2" customFormat="1">
-      <c r="A66" s="8">
+    <row r="73" spans="1:19" s="2" customFormat="1">
+      <c r="A73" s="8">
         <v>10037</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C66" s="2">
-        <v>1</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1</v>
-      </c>
-      <c r="E66" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G66" s="2" t="s">
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L73" s="2">
         <v>100027</v>
       </c>
-      <c r="M66" s="8" t="str">
-        <f>IF(L66&lt;&gt;"",VLOOKUP(L66,Prize表!A:B,2,FALSE),"")</f>
+      <c r="M73" s="8" t="str">
+        <f>IF(L73&lt;&gt;"",VLOOKUP(L73,Prize表!A:B,2,FALSE),"")</f>
         <v>test - 激励钻石 - HlO - 200</v>
       </c>
-      <c r="N66" s="2">
+      <c r="N73" s="2">
         <f t="shared" si="0"/>
         <v>100028</v>
       </c>
-      <c r="O66" s="8" t="str">
-        <f>IF(N66&lt;&gt;"",VLOOKUP(N66,Prize表!A:B,2,FALSE),"")</f>
+      <c r="O73" s="8" t="str">
+        <f>IF(N73&lt;&gt;"",VLOOKUP(N73,Prize表!A:B,2,FALSE),"")</f>
         <v>test - 激励钻石 - Albatross - 150</v>
       </c>
-      <c r="P66" s="2">
+      <c r="P73" s="2">
         <f t="shared" si="1"/>
         <v>100029</v>
       </c>
-      <c r="Q66" s="8" t="str">
-        <f>IF(P66&lt;&gt;"",VLOOKUP(P66,Prize表!A:B,2,FALSE),"")</f>
+      <c r="Q73" s="8" t="str">
+        <f>IF(P73&lt;&gt;"",VLOOKUP(P73,Prize表!A:B,2,FALSE),"")</f>
         <v>test - 激励钻石 - Eagle - 钻石 +100</v>
       </c>
-      <c r="R66" s="2">
+      <c r="R73" s="2">
         <f t="shared" si="2"/>
         <v>100030</v>
       </c>
-      <c r="S66" s="8" t="str">
-        <f>IF(R66&lt;&gt;"",VLOOKUP(R66,Prize表!A:B,2,FALSE),"")</f>
+      <c r="S73" s="8" t="str">
+        <f>IF(R73&lt;&gt;"",VLOOKUP(R73,Prize表!A:B,2,FALSE),"")</f>
         <v>test - 激励钻石 - Birde - 紫卡+50</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
+    <row r="74" spans="1:19">
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7661,13 +8337,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48244718-CD51-4E48-806A-17333515C088}">
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:X38"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -7761,12 +8437,12 @@
     </row>
     <row r="2" spans="1:24">
       <c r="T2"/>
-      <c r="U2" s="59" t="s">
+      <c r="U2" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
@@ -9558,239 +10234,215 @@
       </c>
       <c r="X38" s="10"/>
     </row>
-    <row r="39" spans="1:24" s="12" customFormat="1">
-      <c r="A39" s="29"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="1:24" s="47" customFormat="1">
-      <c r="A40" s="51">
+    <row r="39" spans="1:24" s="59" customFormat="1">
+      <c r="A39" s="60">
+        <v>10040</v>
+      </c>
+      <c r="B39" s="61" t="s">
+        <v>439</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>373</v>
+      </c>
+      <c r="D39" s="59">
+        <v>12</v>
+      </c>
+      <c r="E39" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="F39" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="59">
+        <v>1</v>
+      </c>
+      <c r="H39" s="59">
+        <v>-1</v>
+      </c>
+      <c r="I39" s="59">
+        <v>-99</v>
+      </c>
+      <c r="J39" s="59">
+        <v>99</v>
+      </c>
+      <c r="K39" s="59">
+        <v>-1</v>
+      </c>
+      <c r="L39" s="59">
+        <v>100</v>
+      </c>
+      <c r="Q39" s="59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="59" customFormat="1">
+      <c r="A40" s="60">
+        <v>10041</v>
+      </c>
+      <c r="B40" s="61" t="s">
+        <v>442</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>373</v>
+      </c>
+      <c r="D40" s="59">
+        <v>12</v>
+      </c>
+      <c r="E40" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="59">
+        <v>1</v>
+      </c>
+      <c r="H40" s="59">
+        <v>-1</v>
+      </c>
+      <c r="I40" s="59">
+        <v>-99</v>
+      </c>
+      <c r="J40" s="59">
+        <v>99</v>
+      </c>
+      <c r="K40" s="59">
+        <v>-1</v>
+      </c>
+      <c r="L40" s="59">
+        <v>100</v>
+      </c>
+      <c r="Q40" s="59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" s="59" customFormat="1">
+      <c r="A41" s="60">
+        <v>10042</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>440</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>373</v>
+      </c>
+      <c r="D41" s="59">
+        <v>12</v>
+      </c>
+      <c r="E41" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="F41" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="59">
+        <v>1</v>
+      </c>
+      <c r="H41" s="59">
+        <v>-1</v>
+      </c>
+      <c r="I41" s="59">
+        <v>-99</v>
+      </c>
+      <c r="J41" s="59">
+        <v>99</v>
+      </c>
+      <c r="K41" s="59">
+        <v>-1</v>
+      </c>
+      <c r="L41" s="59">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" s="12" customFormat="1">
+      <c r="A42" s="29"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="1:24" s="47" customFormat="1">
+      <c r="A43" s="51">
         <v>100001</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B43" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C43" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D43" s="47">
         <v>3</v>
       </c>
-      <c r="E40" s="51" t="s">
+      <c r="E43" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="F40" s="47" t="s">
+      <c r="F43" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="G40" s="47">
-        <v>1</v>
-      </c>
-      <c r="H40" s="47">
-        <v>-1</v>
-      </c>
-      <c r="I40" s="47">
+      <c r="G43" s="47">
+        <v>1</v>
+      </c>
+      <c r="H43" s="47">
+        <v>-1</v>
+      </c>
+      <c r="I43" s="47">
         <v>-99</v>
       </c>
-      <c r="J40" s="47">
+      <c r="J43" s="47">
         <v>99</v>
       </c>
-      <c r="K40" s="47">
-        <v>-1</v>
-      </c>
-      <c r="L40" s="47">
+      <c r="K43" s="47">
+        <v>-1</v>
+      </c>
+      <c r="L43" s="47">
         <v>100</v>
       </c>
-      <c r="T40" s="47">
-        <v>0</v>
-      </c>
-      <c r="U40" s="47">
+      <c r="T43" s="47">
+        <v>0</v>
+      </c>
+      <c r="U43" s="47">
         <v>3</v>
       </c>
-      <c r="V40" s="47">
-        <v>0</v>
-      </c>
-      <c r="W40" s="47">
+      <c r="V43" s="47">
+        <v>0</v>
+      </c>
+      <c r="W43" s="47">
         <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" s="2" customFormat="1">
-      <c r="A41" s="8">
-        <v>100002</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="2">
-        <v>5</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G41" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H41" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I41" s="2">
-        <v>-99</v>
-      </c>
-      <c r="J41" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K41" s="2">
-        <v>-1</v>
-      </c>
-      <c r="L41" s="2">
-        <v>100</v>
-      </c>
-      <c r="T41" s="2">
-        <v>1</v>
-      </c>
-      <c r="U41" s="2">
-        <v>27</v>
-      </c>
-      <c r="V41" s="2">
-        <v>0</v>
-      </c>
-      <c r="W41" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" s="2" customFormat="1">
-      <c r="A42" s="8">
-        <v>100003</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" s="2">
-        <v>2</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G42" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I42" s="2">
-        <v>-99</v>
-      </c>
-      <c r="J42" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K42" s="2">
-        <v>-1</v>
-      </c>
-      <c r="L42" s="2">
-        <v>100</v>
-      </c>
-      <c r="T42" s="2">
-        <v>0</v>
-      </c>
-      <c r="U42" s="2">
-        <v>2</v>
-      </c>
-      <c r="V42" s="2">
-        <v>0</v>
-      </c>
-      <c r="W42" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" s="2" customFormat="1">
-      <c r="A43" s="8">
-        <v>100004</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" s="2">
-        <v>4</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H43" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I43" s="2">
-        <v>-99</v>
-      </c>
-      <c r="J43" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K43" s="2">
-        <v>-1</v>
-      </c>
-      <c r="L43" s="2">
-        <v>100</v>
-      </c>
-      <c r="T43" s="2">
-        <v>0</v>
-      </c>
-      <c r="U43" s="2">
-        <v>7</v>
-      </c>
-      <c r="V43" s="2">
-        <v>3</v>
-      </c>
-      <c r="W43" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:24" s="2" customFormat="1">
       <c r="A44" s="8">
-        <v>100005</v>
+        <v>100002</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>302</v>
+        <v>132</v>
       </c>
       <c r="D44" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>312</v>
+        <v>137</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="G44" s="2">
         <v>-1</v>
@@ -9811,33 +10463,33 @@
         <v>100</v>
       </c>
       <c r="T44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="V44" s="2">
         <v>0</v>
       </c>
       <c r="W44" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:24" s="2" customFormat="1">
       <c r="A45" s="8">
-        <v>100006</v>
+        <v>100003</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>65</v>
@@ -9860,26 +10512,40 @@
       <c r="L45" s="2">
         <v>100</v>
       </c>
-      <c r="P45" s="2">
-        <v>1</v>
+      <c r="T45" s="2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="2">
+        <v>2</v>
+      </c>
+      <c r="V45" s="2">
+        <v>0</v>
+      </c>
+      <c r="W45" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:24" s="2" customFormat="1">
       <c r="A46" s="8">
-        <v>100007</v>
+        <v>100004</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" s="2">
-        <v>6</v>
-      </c>
-      <c r="E46" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="G46" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H46" s="2">
         <v>-1</v>
@@ -9888,7 +10554,7 @@
         <v>-99</v>
       </c>
       <c r="J46" s="2">
-        <v>99</v>
+        <v>-1</v>
       </c>
       <c r="K46" s="2">
         <v>-1</v>
@@ -9896,28 +10562,34 @@
       <c r="L46" s="2">
         <v>100</v>
       </c>
-      <c r="N46" s="2">
-        <v>50</v>
+      <c r="T46" s="2">
+        <v>0</v>
+      </c>
+      <c r="U46" s="2">
+        <v>7</v>
+      </c>
+      <c r="V46" s="2">
+        <v>3</v>
+      </c>
+      <c r="W46" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:24" s="2" customFormat="1">
       <c r="A47" s="8">
-        <v>100008</v>
+        <v>100005</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="D47" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>65</v>
+        <v>312</v>
       </c>
       <c r="G47" s="2">
         <v>-1</v>
@@ -9929,7 +10601,7 @@
         <v>-99</v>
       </c>
       <c r="J47" s="2">
-        <v>99</v>
+        <v>-1</v>
       </c>
       <c r="K47" s="2">
         <v>-1</v>
@@ -9937,26 +10609,40 @@
       <c r="L47" s="2">
         <v>100</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>17</v>
+      </c>
+      <c r="V47" s="2">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:24" s="2" customFormat="1">
       <c r="A48" s="8">
-        <v>100009</v>
+        <v>100006</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>303</v>
+        <v>132</v>
       </c>
       <c r="D48" s="2">
-        <v>13</v>
-      </c>
-      <c r="E48" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="G48" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H48" s="2">
         <v>-1</v>
@@ -9965,7 +10651,7 @@
         <v>-99</v>
       </c>
       <c r="J48" s="2">
-        <v>99</v>
+        <v>-1</v>
       </c>
       <c r="K48" s="2">
         <v>-1</v>
@@ -9973,31 +10659,26 @@
       <c r="L48" s="2">
         <v>100</v>
       </c>
-      <c r="R48" s="2">
-        <v>50</v>
+      <c r="P48" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:23" s="2" customFormat="1">
       <c r="A49" s="8">
-        <v>100010</v>
+        <v>100007</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D49" s="2">
-        <v>2</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E49" s="8"/>
       <c r="G49" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2">
         <v>-1</v>
@@ -10009,45 +10690,36 @@
         <v>99</v>
       </c>
       <c r="K49" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L49" s="2">
         <v>100</v>
       </c>
-      <c r="T49" s="2">
-        <v>0</v>
-      </c>
-      <c r="U49" s="2">
-        <v>2</v>
-      </c>
-      <c r="V49" s="2">
-        <v>0</v>
-      </c>
-      <c r="W49" s="2">
-        <v>100</v>
+      <c r="N49" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:23" s="2" customFormat="1">
       <c r="A50" s="8">
-        <v>100011</v>
+        <v>100008</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>129</v>
+        <v>373</v>
       </c>
       <c r="D50" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>135</v>
+        <v>374</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G50" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2">
         <v>-1</v>
@@ -10059,45 +10731,31 @@
         <v>99</v>
       </c>
       <c r="K50" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L50" s="2">
         <v>100</v>
       </c>
-      <c r="T50" s="2">
-        <v>0</v>
-      </c>
-      <c r="U50" s="2">
-        <v>7</v>
-      </c>
-      <c r="V50" s="2">
-        <v>3</v>
-      </c>
-      <c r="W50" s="2">
-        <v>4</v>
+      <c r="Q50" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:23" s="2" customFormat="1">
       <c r="A51" s="8">
-        <v>100012</v>
+        <v>100009</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>132</v>
+        <v>303</v>
       </c>
       <c r="D51" s="2">
-        <v>5</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E51" s="8"/>
       <c r="G51" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2">
         <v>-1</v>
@@ -10109,39 +10767,30 @@
         <v>99</v>
       </c>
       <c r="K51" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L51" s="2">
         <v>100</v>
       </c>
-      <c r="T51" s="2">
-        <v>1</v>
-      </c>
-      <c r="U51" s="2">
-        <v>27</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0</v>
-      </c>
-      <c r="W51" s="2">
-        <v>4</v>
+      <c r="R51" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:23" s="2" customFormat="1">
       <c r="A52" s="8">
-        <v>100013</v>
+        <v>100010</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D52" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>65</v>
@@ -10164,29 +10813,34 @@
       <c r="L52" s="2">
         <v>100</v>
       </c>
-      <c r="P52" s="2">
-        <v>1</v>
-      </c>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
+      <c r="T52" s="2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="2">
+        <v>2</v>
+      </c>
+      <c r="V52" s="2">
+        <v>0</v>
+      </c>
+      <c r="W52" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="53" spans="1:23" s="2" customFormat="1">
       <c r="A53" s="8">
-        <v>100014</v>
+        <v>100011</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>302</v>
+        <v>129</v>
       </c>
       <c r="D53" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>312</v>
+        <v>135</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>65</v>
@@ -10213,30 +10867,30 @@
         <v>0</v>
       </c>
       <c r="U53" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="V53" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W53" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:23" s="2" customFormat="1">
       <c r="A54" s="8">
-        <v>100015</v>
+        <v>100012</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>311</v>
+        <v>132</v>
       </c>
       <c r="D54" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>313</v>
+        <v>137</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>65</v>
@@ -10259,34 +10913,34 @@
       <c r="L54" s="2">
         <v>100</v>
       </c>
-      <c r="T54" s="8">
-        <v>0</v>
-      </c>
-      <c r="U54" s="8">
-        <v>8</v>
-      </c>
-      <c r="V54" s="8">
-        <v>0</v>
-      </c>
-      <c r="W54" s="8">
-        <v>1</v>
+      <c r="T54" s="2">
+        <v>1</v>
+      </c>
+      <c r="U54" s="2">
+        <v>27</v>
+      </c>
+      <c r="V54" s="2">
+        <v>0</v>
+      </c>
+      <c r="W54" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:23" s="2" customFormat="1">
       <c r="A55" s="8">
-        <v>100016</v>
+        <v>100013</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>306</v>
+        <v>270</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="D55" s="2">
-        <v>9</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>314</v>
+        <v>7</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>65</v>
@@ -10304,45 +10958,40 @@
         <v>99</v>
       </c>
       <c r="K55" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L55" s="2">
         <v>100</v>
       </c>
-      <c r="T55" s="8">
-        <v>0</v>
-      </c>
-      <c r="U55" s="8">
-        <v>9</v>
-      </c>
-      <c r="V55" s="8">
-        <v>0</v>
-      </c>
-      <c r="W55" s="8">
-        <v>1</v>
-      </c>
+      <c r="P55" s="2">
+        <v>1</v>
+      </c>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
     </row>
     <row r="56" spans="1:23" s="2" customFormat="1">
       <c r="A56" s="8">
-        <v>100017</v>
+        <v>100014</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>304</v>
+        <v>271</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="D56" s="2">
-        <v>8</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>366</v>
+        <v>14</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G56" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H56" s="2">
         <v>-1</v>
@@ -10354,34 +11003,39 @@
         <v>99</v>
       </c>
       <c r="K56" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L56" s="2">
         <v>100</v>
       </c>
-      <c r="S56" s="2">
-        <v>1</v>
-      </c>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
+      <c r="T56" s="2">
+        <v>0</v>
+      </c>
+      <c r="U56" s="2">
+        <v>17</v>
+      </c>
+      <c r="V56" s="2">
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" spans="1:23" s="2" customFormat="1">
       <c r="A57" s="8">
-        <v>100018</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>305</v>
+        <v>100015</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="D57" s="2">
-        <v>11</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>365</v>
+        <v>10</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>65</v>
@@ -10399,7 +11053,7 @@
         <v>99</v>
       </c>
       <c r="K57" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L57" s="2">
         <v>100</v>
@@ -10408,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="V57" s="8">
         <v>0</v>
@@ -10419,19 +11073,19 @@
     </row>
     <row r="58" spans="1:23" s="2" customFormat="1">
       <c r="A58" s="8">
-        <v>100019</v>
+        <v>100016</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>129</v>
+        <v>272</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="D58" s="2">
-        <v>4</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>135</v>
+        <v>9</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>65</v>
@@ -10440,7 +11094,7 @@
         <v>-1</v>
       </c>
       <c r="H58" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I58" s="2">
         <v>-99</v>
@@ -10458,36 +11112,36 @@
         <v>0</v>
       </c>
       <c r="U58" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V58" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W58" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:23" s="2" customFormat="1">
       <c r="A59" s="8">
-        <v>100020</v>
+        <v>100017</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>129</v>
+        <v>273</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="D59" s="2">
-        <v>4</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G59" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2">
         <v>-1</v>
@@ -10496,7 +11150,7 @@
         <v>-99</v>
       </c>
       <c r="J59" s="2">
-        <v>-3</v>
+        <v>99</v>
       </c>
       <c r="K59" s="2">
         <v>-1</v>
@@ -10504,34 +11158,29 @@
       <c r="L59" s="2">
         <v>100</v>
       </c>
-      <c r="T59" s="8">
-        <v>0</v>
-      </c>
-      <c r="U59" s="8">
-        <v>7</v>
-      </c>
-      <c r="V59" s="8">
-        <v>3</v>
-      </c>
-      <c r="W59" s="8">
-        <v>8</v>
-      </c>
+      <c r="S59" s="2">
+        <v>1</v>
+      </c>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
     </row>
     <row r="60" spans="1:23" s="2" customFormat="1">
       <c r="A60" s="8">
-        <v>100021</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>129</v>
+        <v>100018</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D60" s="2">
-        <v>4</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>135</v>
+        <v>11</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>65</v>
@@ -10546,7 +11195,7 @@
         <v>-99</v>
       </c>
       <c r="J60" s="2">
-        <v>-2</v>
+        <v>99</v>
       </c>
       <c r="K60" s="2">
         <v>-1</v>
@@ -10558,21 +11207,21 @@
         <v>0</v>
       </c>
       <c r="U60" s="8">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="V60" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W60" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:23" s="2" customFormat="1">
       <c r="A61" s="8">
-        <v>100022</v>
+        <v>100019</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>129</v>
@@ -10590,13 +11239,13 @@
         <v>-1</v>
       </c>
       <c r="H61" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I61" s="2">
         <v>-99</v>
       </c>
       <c r="J61" s="2">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="K61" s="2">
         <v>-1</v>
@@ -10614,24 +11263,24 @@
         <v>3</v>
       </c>
       <c r="W61" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:23" s="2" customFormat="1">
       <c r="A62" s="8">
-        <v>100023</v>
+        <v>100020</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>405</v>
+        <v>295</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D62" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>65</v>
@@ -10640,13 +11289,13 @@
         <v>-1</v>
       </c>
       <c r="H62" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I62" s="2">
         <v>-99</v>
       </c>
       <c r="J62" s="2">
-        <v>99</v>
+        <v>-3</v>
       </c>
       <c r="K62" s="2">
         <v>-1</v>
@@ -10655,33 +11304,33 @@
         <v>100</v>
       </c>
       <c r="T62" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U62" s="8">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="V62" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W62" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:23" s="2" customFormat="1">
       <c r="A63" s="8">
-        <v>100024</v>
+        <v>100021</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>406</v>
+        <v>296</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D63" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>65</v>
@@ -10693,10 +11342,10 @@
         <v>-1</v>
       </c>
       <c r="I63" s="2">
-        <v>-3</v>
+        <v>-99</v>
       </c>
       <c r="J63" s="2">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="K63" s="2">
         <v>-1</v>
@@ -10705,33 +11354,33 @@
         <v>100</v>
       </c>
       <c r="T63" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63" s="8">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="V63" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W63" s="8">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:23" s="2" customFormat="1">
       <c r="A64" s="8">
-        <v>100025</v>
+        <v>100022</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>407</v>
+        <v>297</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D64" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>65</v>
@@ -10743,10 +11392,10 @@
         <v>-1</v>
       </c>
       <c r="I64" s="2">
-        <v>-2</v>
+        <v>-99</v>
       </c>
       <c r="J64" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K64" s="2">
         <v>-1</v>
@@ -10755,24 +11404,24 @@
         <v>100</v>
       </c>
       <c r="T64" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" s="8">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="V64" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W64" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:23" s="2" customFormat="1">
       <c r="A65" s="8">
-        <v>100026</v>
+        <v>100023</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>132</v>
@@ -10790,13 +11439,13 @@
         <v>-1</v>
       </c>
       <c r="H65" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I65" s="2">
-        <v>-1</v>
+        <v>-99</v>
       </c>
       <c r="J65" s="2">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="K65" s="2">
         <v>-1</v>
@@ -10814,24 +11463,24 @@
         <v>0</v>
       </c>
       <c r="W65" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:23" s="2" customFormat="1">
       <c r="A66" s="8">
-        <v>100027</v>
+        <v>100024</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>298</v>
+        <v>406</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D66" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>65</v>
@@ -10840,13 +11489,13 @@
         <v>-1</v>
       </c>
       <c r="H66" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I66" s="2">
-        <v>-99</v>
+        <v>-3</v>
       </c>
       <c r="J66" s="2">
-        <v>99</v>
+        <v>-3</v>
       </c>
       <c r="K66" s="2">
         <v>-1</v>
@@ -10855,33 +11504,33 @@
         <v>100</v>
       </c>
       <c r="T66" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66" s="8">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="V66" s="8">
         <v>0</v>
       </c>
       <c r="W66" s="8">
-        <v>200</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:23" s="2" customFormat="1">
       <c r="A67" s="8">
-        <v>100028</v>
+        <v>100025</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>299</v>
+        <v>407</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D67" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>65</v>
@@ -10893,10 +11542,10 @@
         <v>-1</v>
       </c>
       <c r="I67" s="2">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J67" s="2">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="K67" s="2">
         <v>-1</v>
@@ -10905,33 +11554,33 @@
         <v>100</v>
       </c>
       <c r="T67" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67" s="8">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="V67" s="8">
         <v>0</v>
       </c>
       <c r="W67" s="8">
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:23" s="2" customFormat="1">
       <c r="A68" s="8">
-        <v>100029</v>
+        <v>100026</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>300</v>
+        <v>408</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D68" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>65</v>
@@ -10943,10 +11592,10 @@
         <v>-1</v>
       </c>
       <c r="I68" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J68" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K68" s="2">
         <v>-1</v>
@@ -10955,24 +11604,24 @@
         <v>100</v>
       </c>
       <c r="T68" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" s="8">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="V68" s="8">
         <v>0</v>
       </c>
       <c r="W68" s="8">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:23" s="2" customFormat="1">
       <c r="A69" s="8">
-        <v>100030</v>
+        <v>100027</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>133</v>
@@ -10990,13 +11639,13 @@
         <v>-1</v>
       </c>
       <c r="H69" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I69" s="2">
-        <v>-1</v>
+        <v>-99</v>
       </c>
       <c r="J69" s="2">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="K69" s="2">
         <v>-1</v>
@@ -11014,6 +11663,156 @@
         <v>0</v>
       </c>
       <c r="W69" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" s="2" customFormat="1">
+      <c r="A70" s="8">
+        <v>100028</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H70" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I70" s="2">
+        <v>-3</v>
+      </c>
+      <c r="J70" s="2">
+        <v>-3</v>
+      </c>
+      <c r="K70" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L70" s="2">
+        <v>100</v>
+      </c>
+      <c r="T70" s="8">
+        <v>0</v>
+      </c>
+      <c r="U70" s="8">
+        <v>2</v>
+      </c>
+      <c r="V70" s="8">
+        <v>0</v>
+      </c>
+      <c r="W70" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" s="2" customFormat="1">
+      <c r="A71" s="8">
+        <v>100029</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G71" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I71" s="2">
+        <v>-2</v>
+      </c>
+      <c r="J71" s="2">
+        <v>-2</v>
+      </c>
+      <c r="K71" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L71" s="2">
+        <v>100</v>
+      </c>
+      <c r="T71" s="8">
+        <v>0</v>
+      </c>
+      <c r="U71" s="8">
+        <v>2</v>
+      </c>
+      <c r="V71" s="8">
+        <v>0</v>
+      </c>
+      <c r="W71" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" s="2" customFormat="1">
+      <c r="A72" s="8">
+        <v>100030</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L72" s="2">
+        <v>100</v>
+      </c>
+      <c r="T72" s="8">
+        <v>0</v>
+      </c>
+      <c r="U72" s="8">
+        <v>2</v>
+      </c>
+      <c r="V72" s="8">
+        <v>0</v>
+      </c>
+      <c r="W72" s="8">
         <v>50</v>
       </c>
     </row>
@@ -11605,24 +12404,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="59"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" t="s">
         <v>187</v>
       </c>
@@ -11634,7 +12433,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="63" t="s">
         <v>190</v>
       </c>
       <c r="C3">
@@ -11651,7 +12450,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="63"/>
       <c r="C4">
         <v>27</v>
       </c>
@@ -11666,7 +12465,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="63"/>
       <c r="C5">
         <v>27</v>
       </c>
@@ -11681,7 +12480,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="63"/>
       <c r="C6">
         <v>27</v>
       </c>
@@ -11696,7 +12495,7 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="63"/>
       <c r="C7">
         <v>27</v>
       </c>
@@ -11711,7 +12510,7 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="63"/>
       <c r="C8">
         <v>27</v>
       </c>
@@ -11726,7 +12525,7 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="63"/>
       <c r="C9">
         <v>27</v>
       </c>
@@ -11741,7 +12540,7 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="63"/>
       <c r="C10">
         <v>27</v>
       </c>
